--- a/project_overview.xlsx
+++ b/project_overview.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Export Summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -1634,7 +1634,7 @@
     <t xml:space="preserve">width</t>
   </si>
   <si>
-    <t xml:space="preserve">thickness </t>
+    <t xml:space="preserve">thickness</t>
   </si>
   <si>
     <t xml:space="preserve">wavelength</t>
@@ -1643,7 +1643,7 @@
     <t xml:space="preserve">angle of incidence</t>
   </si>
   <si>
-    <t xml:space="preserve">spacer thickness [nm]</t>
+    <t xml:space="preserve">spacer [nm]</t>
   </si>
   <si>
     <t xml:space="preserve">antiCirc_single_1</t>
@@ -1993,9 +1993,6 @@
   </si>
   <si>
     <t xml:space="preserve">substrate layer [nm]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thickness</t>
   </si>
   <si>
     <t xml:space="preserve">SF_wire</t>
@@ -3107,6 +3104,9 @@
   </si>
   <si>
     <t xml:space="preserve">9, full</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spacer thickness [nm]</t>
   </si>
   <si>
     <t xml:space="preserve">substrate thickness [nm]</t>
@@ -3926,7 +3926,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>208080</xdr:colOff>
+      <xdr:colOff>207720</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>31680</xdr:rowOff>
     </xdr:to>
@@ -3938,7 +3938,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="3029760" cy="526680"/>
+          <a:ext cx="3029400" cy="526680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3991,7 +3991,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>208080</xdr:colOff>
+      <xdr:colOff>207720</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>15120</xdr:rowOff>
     </xdr:to>
@@ -4003,7 +4003,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="7247880"/>
-          <a:ext cx="3029760" cy="526680"/>
+          <a:ext cx="3029400" cy="526680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4061,7 +4061,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>45000</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>108</xdr:row>
       <xdr:rowOff>75960</xdr:rowOff>
     </xdr:to>
@@ -4073,7 +4073,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="60120" y="16951680"/>
-          <a:ext cx="6334200" cy="952200"/>
+          <a:ext cx="6333840" cy="952200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4126,7 +4126,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>91800</xdr:colOff>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>129240</xdr:rowOff>
     </xdr:to>
@@ -4138,7 +4138,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="60120" y="0"/>
-          <a:ext cx="7086240" cy="952200"/>
+          <a:ext cx="7085880" cy="952200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4196,7 +4196,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>260640</xdr:colOff>
+      <xdr:colOff>260280</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>126720</xdr:rowOff>
     </xdr:to>
@@ -4208,7 +4208,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4493520" cy="952200"/>
+          <a:ext cx="4493160" cy="952200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4261,7 +4261,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>260640</xdr:colOff>
+      <xdr:colOff>260280</xdr:colOff>
       <xdr:row>114</xdr:row>
       <xdr:rowOff>160200</xdr:rowOff>
     </xdr:to>
@@ -4273,7 +4273,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="18454680"/>
-          <a:ext cx="4493520" cy="526680"/>
+          <a:ext cx="4493160" cy="526680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4326,7 +4326,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>260640</xdr:colOff>
+      <xdr:colOff>260280</xdr:colOff>
       <xdr:row>134</xdr:row>
       <xdr:rowOff>88560</xdr:rowOff>
     </xdr:to>
@@ -4338,7 +4338,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="21684960"/>
-          <a:ext cx="4493520" cy="526680"/>
+          <a:ext cx="4493160" cy="526680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4393,7 +4393,7 @@
   <dimension ref="B3:D45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CN1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="Q2:Q23 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4769,12 +4769,12 @@
   </sheetPr>
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O35" activeCellId="1" sqref="Q2:Q23 O35"/>
+      <selection pane="bottomRight" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6730,7 +6730,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L2" activeCellId="1" sqref="Q2:Q23 L2"/>
+      <selection pane="bottomRight" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6785,7 +6785,7 @@
         <v>523</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>644</v>
+        <v>524</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>525</v>
@@ -6802,16 +6802,16 @@
     </row>
     <row r="2" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>645</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="10" t="s">
         <v>646</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>647</v>
-      </c>
       <c r="D2" s="10" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>67</v>
@@ -6835,7 +6835,7 @@
         <v>485</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="M2" s="11" t="n">
         <v>256</v>
@@ -6847,16 +6847,16 @@
     </row>
     <row r="3" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>646</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>647</v>
-      </c>
       <c r="D3" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>67</v>
@@ -6880,7 +6880,7 @@
         <v>485</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="M3" s="14" t="n">
         <v>256</v>
@@ -6889,21 +6889,21 @@
         <v>444</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>646</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>647</v>
-      </c>
       <c r="D4" s="10" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>67</v>
@@ -6918,16 +6918,16 @@
         <v>1000</v>
       </c>
       <c r="I4" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>652</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="K4" s="10" t="s">
         <v>653</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="L4" s="10" t="s">
         <v>654</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>655</v>
       </c>
       <c r="M4" s="11" t="n">
         <v>256</v>
@@ -6936,21 +6936,21 @@
         <v>554</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>646</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>647</v>
-      </c>
       <c r="D5" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>67</v>
@@ -6965,16 +6965,16 @@
         <v>1000</v>
       </c>
       <c r="I5" s="13" t="s">
+        <v>656</v>
+      </c>
+      <c r="J5" s="13" t="s">
         <v>657</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>658</v>
       </c>
       <c r="K5" s="13" t="s">
         <v>485</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M5" s="14" t="n">
         <v>256</v>
@@ -6983,21 +6983,21 @@
         <v>554</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>659</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>646</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>647</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>660</v>
       </c>
       <c r="E6" s="11" t="n">
         <v>275</v>
@@ -7009,7 +7009,7 @@
         <v>619</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I6" s="12" t="n">
         <v>682</v>
@@ -7021,7 +7021,7 @@
         <v>485</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M6" s="11" t="n">
         <v>256</v>
@@ -7030,24 +7030,24 @@
         <v>554</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>646</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>659</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>663</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>646</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>647</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>660</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>664</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>618</v>
@@ -7056,7 +7056,7 @@
         <v>619</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I7" s="15" t="n">
         <v>704</v>
@@ -7068,7 +7068,7 @@
         <v>485</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M7" s="14" t="n">
         <v>256</v>
@@ -7077,30 +7077,30 @@
         <v>480</v>
       </c>
       <c r="O7" s="13" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
+        <v>664</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>665</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>646</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>647</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>647</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="10" t="s">
+      <c r="G8" s="10" t="s">
         <v>666</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>667</v>
       </c>
       <c r="H8" s="12" t="n">
         <v>1000</v>
@@ -7108,10 +7108,10 @@
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="L8" s="10" t="s">
         <v>654</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>655</v>
       </c>
       <c r="M8" s="11" t="n">
         <v>256</v>
@@ -7120,30 +7120,30 @@
         <v>554</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>646</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>647</v>
-      </c>
       <c r="D9" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>67</v>
       </c>
       <c r="F9" s="13" t="s">
+        <v>665</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>666</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>667</v>
       </c>
       <c r="H9" s="15" t="n">
         <v>1000</v>
@@ -7151,10 +7151,10 @@
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
       <c r="K9" s="13" t="s">
+        <v>653</v>
+      </c>
+      <c r="L9" s="13" t="s">
         <v>654</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>655</v>
       </c>
       <c r="M9" s="14" t="n">
         <v>256</v>
@@ -7163,30 +7163,30 @@
         <v>480</v>
       </c>
       <c r="O9" s="13" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>669</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>646</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>647</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>647</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>666</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>670</v>
       </c>
       <c r="H10" s="12" t="n">
         <v>1000</v>
@@ -7194,10 +7194,10 @@
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="L10" s="10" t="s">
         <v>654</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>655</v>
       </c>
       <c r="M10" s="11" t="n">
         <v>256</v>
@@ -7206,21 +7206,21 @@
         <v>554</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B11" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>646</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>647</v>
-      </c>
       <c r="D11" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E11" s="14" t="n">
         <v>275</v>
@@ -7232,7 +7232,7 @@
         <v>619</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I11" s="15" t="n">
         <v>682</v>
@@ -7244,7 +7244,7 @@
         <v>485</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M11" s="14" t="n">
         <v>256</v>
@@ -7256,13 +7256,13 @@
     </row>
     <row r="12" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>646</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>647</v>
       </c>
       <c r="D12" s="11" t="n">
         <v>1</v>
@@ -7277,7 +7277,7 @@
         <v>619</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I12" s="12" t="n">
         <v>341</v>
@@ -7289,7 +7289,7 @@
         <v>485</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M12" s="11" t="n">
         <v>256</v>
@@ -7301,16 +7301,16 @@
     </row>
     <row r="13" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B13" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>646</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>647</v>
-      </c>
       <c r="D13" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>67</v>
@@ -7334,7 +7334,7 @@
         <v>485</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M13" s="14" t="n">
         <v>256</v>
@@ -7367,7 +7367,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="Q2:Q23 A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7403,7 +7403,7 @@
         <v>52</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>425</v>
@@ -7412,10 +7412,10 @@
         <v>492</v>
       </c>
       <c r="H1" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>676</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>677</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>107</v>
@@ -7424,16 +7424,16 @@
         <v>177</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>61</v>
       </c>
       <c r="N1" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="O1" s="8" t="s">
         <v>679</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>680</v>
       </c>
       <c r="P1" s="8" t="s">
         <v>62</v>
@@ -7441,13 +7441,13 @@
     </row>
     <row r="2" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>112</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>94</v>
@@ -7462,16 +7462,16 @@
         <v>532</v>
       </c>
       <c r="H2" s="10" t="s">
+        <v>682</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>683</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>684</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>685</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>686</v>
       </c>
       <c r="L2" s="12" t="n">
         <v>64</v>
@@ -7482,7 +7482,7 @@
       <c r="N2" s="12"/>
       <c r="O2" s="17"/>
       <c r="P2" s="10" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
   </sheetData>
@@ -7504,11 +7504,11 @@
   <dimension ref="A1:P1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
-      <selection pane="bottomRight" activeCell="H29" activeCellId="1" sqref="Q2:Q23 H29"/>
+      <selection pane="bottomLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="H29" activeCellId="0" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7545,31 +7545,31 @@
         <v>52</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>688</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>676</v>
-      </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>689</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>690</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>691</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>107</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>432</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>61</v>
@@ -7583,38 +7583,38 @@
     </row>
     <row r="2" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>693</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>646</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>647</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>694</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>693</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>696</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>697</v>
       </c>
       <c r="K2" s="10"/>
       <c r="L2" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="M2" s="12" t="n">
         <v>64</v>
@@ -7623,30 +7623,30 @@
         <v>19</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>646</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>647</v>
-      </c>
       <c r="D3" s="13" t="s">
+        <v>693</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>694</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>693</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>695</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>67</v>
@@ -7658,11 +7658,11 @@
         <v>445</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="K3" s="13"/>
       <c r="L3" s="13" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="M3" s="15" t="n">
         <v>64</v>
@@ -7671,46 +7671,46 @@
         <v>43112.4340277778</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>703</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="10" t="s">
         <v>704</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>694</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>705</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>694</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>693</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>695</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I4" s="10" t="s">
+      <c r="J4" s="10" t="s">
         <v>706</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>707</v>
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="M4" s="12" t="n">
         <v>256</v>
@@ -7719,30 +7719,30 @@
         <v>19</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>704</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>705</v>
-      </c>
       <c r="D5" s="13" t="s">
+        <v>693</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>694</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>693</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>695</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>67</v>
@@ -7754,11 +7754,11 @@
         <v>445</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="13" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="M5" s="15" t="n">
         <v>512</v>
@@ -7767,30 +7767,30 @@
         <v>15</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>704</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>705</v>
-      </c>
       <c r="D6" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>694</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>693</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>695</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>67</v>
@@ -7802,11 +7802,11 @@
         <v>445</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K6" s="10"/>
       <c r="L6" s="10" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="M6" s="12" t="n">
         <v>2</v>
@@ -7815,46 +7815,46 @@
         <v>43112.7666666667</v>
       </c>
       <c r="O6" s="24" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>704</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="13" t="s">
+        <v>693</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>694</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="13" t="s">
         <v>705</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>694</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>693</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>695</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="13" t="s">
+      <c r="J7" s="13" t="s">
         <v>706</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>707</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="13" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="M7" s="15" t="n">
         <v>512</v>
@@ -7863,31 +7863,31 @@
         <v>15</v>
       </c>
       <c r="O7" s="13" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>714</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>704</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>715</v>
-      </c>
       <c r="D8" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>694</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>693</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>695</v>
-      </c>
       <c r="G8" s="10" t="s">
         <v>67</v>
       </c>
@@ -7895,14 +7895,14 @@
         <v>67</v>
       </c>
       <c r="I8" s="10" t="s">
+        <v>705</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>706</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>707</v>
       </c>
       <c r="K8" s="10"/>
       <c r="L8" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="M8" s="12" t="n">
         <v>512</v>
@@ -7911,46 +7911,46 @@
         <v>15</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
+        <v>715</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>716</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>717</v>
-      </c>
       <c r="C9" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D9" s="13" t="s">
+        <v>693</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>694</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>693</v>
-      </c>
-      <c r="F9" s="13" t="s">
+      <c r="G9" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="13" t="s">
         <v>695</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>696</v>
-      </c>
       <c r="J9" s="13" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K9" s="13"/>
       <c r="L9" s="13" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="M9" s="15" t="n">
         <v>512</v>
@@ -7959,46 +7959,46 @@
         <v>15</v>
       </c>
       <c r="O9" s="13" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="59.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>694</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>705</v>
+      </c>
+      <c r="J10" s="10" t="s">
         <v>718</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>704</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>705</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>694</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>693</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>695</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>706</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>719</v>
       </c>
       <c r="K10" s="10"/>
       <c r="L10" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="M10" s="15" t="n">
         <v>64</v>
@@ -8007,10 +8007,10 @@
         <v>15</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="33" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8032,38 +8032,38 @@
     </row>
     <row r="12" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>704</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>693</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>694</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>705</v>
+      </c>
+      <c r="J12" s="13" t="s">
         <v>720</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>704</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>705</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>694</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>693</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>695</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>706</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>721</v>
       </c>
       <c r="K12" s="13"/>
       <c r="L12" s="13" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="M12" s="15" t="n">
         <v>64</v>
@@ -8072,48 +8072,48 @@
         <v>15</v>
       </c>
       <c r="O12" s="13" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>694</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>705</v>
+      </c>
+      <c r="J13" s="10" t="s">
         <v>722</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>704</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>705</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>694</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>693</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>695</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>706</v>
-      </c>
-      <c r="J13" s="10" t="s">
+      <c r="K13" s="10" t="s">
         <v>723</v>
       </c>
-      <c r="K13" s="10" t="s">
-        <v>724</v>
-      </c>
       <c r="L13" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="M13" s="15" t="n">
         <v>64</v>
@@ -8122,48 +8122,48 @@
         <v>15</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B14" s="13" t="s">
+        <v>704</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>704</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>693</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>694</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="13" t="s">
         <v>705</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>705</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>694</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>693</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>695</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>706</v>
-      </c>
       <c r="J14" s="13" t="s">
+        <v>722</v>
+      </c>
+      <c r="K14" s="13" t="s">
         <v>723</v>
       </c>
-      <c r="K14" s="13" t="s">
-        <v>724</v>
-      </c>
       <c r="L14" s="13" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="M14" s="15" t="n">
         <v>64</v>
@@ -8172,48 +8172,48 @@
         <v>15</v>
       </c>
       <c r="O14" s="13" t="s">
+        <v>725</v>
+      </c>
+      <c r="P14" s="6" t="s">
         <v>726</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>728</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>704</v>
-      </c>
-      <c r="C15" s="10" t="s">
+      <c r="F15" s="10" t="s">
+        <v>694</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="10" t="s">
         <v>705</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>694</v>
-      </c>
-      <c r="E15" s="10" t="s">
+      <c r="J15" s="10" t="s">
         <v>729</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>695</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>706</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>730</v>
-      </c>
       <c r="K15" s="10" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="M15" s="15" t="n">
         <v>64</v>
@@ -8222,48 +8222,48 @@
         <v>15</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>704</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>693</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>728</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>694</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>705</v>
+      </c>
+      <c r="J16" s="13" t="s">
         <v>731</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>704</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>705</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>694</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>729</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>695</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>706</v>
-      </c>
-      <c r="J16" s="13" t="s">
+      <c r="K16" s="13" t="s">
         <v>732</v>
       </c>
-      <c r="K16" s="13" t="s">
-        <v>733</v>
-      </c>
       <c r="L16" s="13" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="M16" s="15" t="n">
         <v>512</v>
@@ -8272,46 +8272,46 @@
         <v>19</v>
       </c>
       <c r="O16" s="13" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>646</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>647</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>694</v>
-      </c>
-      <c r="E17" s="10" t="s">
+      <c r="F17" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="G17" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>695</v>
+      </c>
+      <c r="J17" s="10" t="s">
         <v>736</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>696</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>737</v>
       </c>
       <c r="K17" s="10"/>
       <c r="L17" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="M17" s="12" t="n">
         <v>64</v>
@@ -8320,31 +8320,31 @@
         <v>23</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B18" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>646</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>647</v>
-      </c>
       <c r="D18" s="13" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E18" s="13" t="s">
+        <v>734</v>
+      </c>
+      <c r="F18" s="13" t="s">
         <v>735</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>736</v>
-      </c>
       <c r="G18" s="13" t="s">
         <v>67</v>
       </c>
@@ -8352,14 +8352,14 @@
         <v>67</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="K18" s="13"/>
       <c r="L18" s="13" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="M18" s="15" t="n">
         <v>64</v>
@@ -8368,30 +8368,30 @@
         <v>43112.4340277778</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>739</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>704</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>705</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>694</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>740</v>
-      </c>
       <c r="F19" s="10" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>67</v>
@@ -8403,11 +8403,11 @@
         <v>445</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="K19" s="10"/>
       <c r="L19" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="M19" s="12" t="n">
         <v>512</v>
@@ -8416,46 +8416,46 @@
         <v>15</v>
       </c>
       <c r="O19" s="10" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P19" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B20" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>704</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="D20" s="13" t="s">
+        <v>693</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>739</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>735</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="13" t="s">
         <v>705</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>694</v>
-      </c>
-      <c r="E20" s="13" t="s">
+      <c r="J20" s="13" t="s">
         <v>740</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>736</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>706</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>741</v>
       </c>
       <c r="K20" s="13"/>
       <c r="L20" s="13" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="M20" s="15" t="n">
         <v>512</v>
@@ -8464,46 +8464,46 @@
         <v>15</v>
       </c>
       <c r="O20" s="13" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E21" s="10" t="s">
+        <v>739</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>705</v>
+      </c>
+      <c r="J21" s="10" t="s">
         <v>740</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>736</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>706</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>741</v>
       </c>
       <c r="K21" s="10"/>
       <c r="L21" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="M21" s="12" t="n">
         <v>512</v>
@@ -8512,46 +8512,46 @@
         <v>15</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P21" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>704</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>693</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>739</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>735</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>705</v>
+      </c>
+      <c r="J22" s="13" t="s">
         <v>744</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>704</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>705</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>694</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>740</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>736</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>706</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>745</v>
       </c>
       <c r="K22" s="13"/>
       <c r="L22" s="13" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="M22" s="15" t="n">
         <v>512</v>
@@ -8560,46 +8560,46 @@
         <v>22</v>
       </c>
       <c r="O22" s="13" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>716</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>739</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23" s="10" t="s">
         <v>746</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>717</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>647</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>694</v>
-      </c>
-      <c r="E23" s="10" t="s">
+      <c r="J23" s="10" t="s">
         <v>740</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>736</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>747</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>741</v>
       </c>
       <c r="K23" s="10"/>
       <c r="L23" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="M23" s="12" t="n">
         <v>512</v>
@@ -8608,46 +8608,46 @@
         <v>15</v>
       </c>
       <c r="O23" s="10" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>704</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>693</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>739</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>735</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>705</v>
+      </c>
+      <c r="J24" s="13" t="s">
         <v>748</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>704</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>705</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>694</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>740</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>736</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>706</v>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>749</v>
       </c>
       <c r="K24" s="13"/>
       <c r="L24" s="13" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="M24" s="15" t="n">
         <v>64</v>
@@ -8656,46 +8656,46 @@
         <v>15</v>
       </c>
       <c r="O24" s="13" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>750</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>704</v>
-      </c>
-      <c r="C25" s="10" t="s">
+      <c r="F25" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I25" s="10" t="s">
         <v>705</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>694</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>751</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>736</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>706</v>
-      </c>
       <c r="J25" s="10" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="K25" s="10"/>
       <c r="L25" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="M25" s="15" t="n">
         <v>64</v>
@@ -8704,48 +8704,48 @@
         <v>15</v>
       </c>
       <c r="O25" s="10" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P25" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>704</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>693</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>739</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>735</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>705</v>
+      </c>
+      <c r="J26" s="13" t="s">
         <v>752</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>704</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>705</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>694</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>740</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>736</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>706</v>
-      </c>
-      <c r="J26" s="13" t="s">
-        <v>753</v>
-      </c>
       <c r="K26" s="13" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="L26" s="13" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="M26" s="15" t="n">
         <v>64</v>
@@ -8754,48 +8754,48 @@
         <v>15</v>
       </c>
       <c r="O26" s="13" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="E27" s="10" t="s">
         <v>754</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>704</v>
-      </c>
-      <c r="C27" s="10" t="s">
+      <c r="F27" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I27" s="10" t="s">
         <v>705</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>694</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>755</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>736</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>706</v>
-      </c>
       <c r="J27" s="10" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="M27" s="15" t="n">
         <v>64</v>
@@ -8804,46 +8804,46 @@
         <v>15</v>
       </c>
       <c r="O27" s="10" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B28" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>704</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="D28" s="13" t="s">
+        <v>693</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>754</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>735</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I28" s="13" t="s">
         <v>705</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>694</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>755</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>736</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>706</v>
-      </c>
       <c r="J28" s="13" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="K28" s="13"/>
       <c r="L28" s="13" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="M28" s="15" t="n">
         <v>512</v>
@@ -8852,42 +8852,42 @@
         <v>22</v>
       </c>
       <c r="O28" s="13" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="P28" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B29" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>704</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>705</v>
-      </c>
       <c r="D29" s="13" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
       <c r="I29" s="13" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="K29" s="13"/>
       <c r="L29" s="13" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="M29" s="15" t="n">
         <v>512</v>
@@ -8896,18 +8896,18 @@
         <v>22</v>
       </c>
       <c r="O29" s="13" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="P29" s="6" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>465</v>
@@ -8919,13 +8919,13 @@
         <v>619</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I30" s="13" t="s">
         <v>67</v>
@@ -8935,7 +8935,7 @@
       </c>
       <c r="K30" s="13"/>
       <c r="L30" s="13" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="M30" s="15" t="n">
         <v>64</v>
@@ -8944,43 +8944,43 @@
         <v>10</v>
       </c>
       <c r="O30" s="13" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>763</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>704</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>705</v>
-      </c>
-      <c r="D31" s="10" t="s">
+      <c r="E31" s="10" t="s">
         <v>764</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="F31" s="10" t="s">
+        <v>694</v>
+      </c>
+      <c r="G31" s="10" t="s">
         <v>765</v>
       </c>
-      <c r="F31" s="10" t="s">
-        <v>695</v>
-      </c>
-      <c r="G31" s="10" t="s">
+      <c r="H31" s="10" t="s">
         <v>766</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="I31" s="10" t="s">
         <v>767</v>
       </c>
-      <c r="I31" s="10" t="s">
-        <v>768</v>
-      </c>
       <c r="J31" s="10" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="K31" s="10"/>
       <c r="L31" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="M31" s="12" t="n">
         <v>512</v>
@@ -8989,18 +8989,18 @@
         <v>15</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>465</v>
@@ -9012,23 +9012,23 @@
         <v>619</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G32" s="13" t="s">
+        <v>770</v>
+      </c>
+      <c r="H32" s="13" t="s">
         <v>771</v>
       </c>
-      <c r="H32" s="13" t="s">
+      <c r="I32" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J32" s="13" t="s">
         <v>772</v>
-      </c>
-      <c r="I32" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="J32" s="13" t="s">
-        <v>773</v>
       </c>
       <c r="K32" s="13"/>
       <c r="L32" s="13" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="M32" s="15" t="n">
         <v>64</v>
@@ -9037,46 +9037,46 @@
         <v>12</v>
       </c>
       <c r="O32" s="13" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="P32" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
+        <v>773</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>774</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>704</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>705</v>
-      </c>
-      <c r="D33" s="10" t="s">
+      <c r="E33" s="10" t="s">
+        <v>764</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="G33" s="10" t="s">
         <v>775</v>
       </c>
-      <c r="E33" s="10" t="s">
-        <v>765</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>736</v>
-      </c>
-      <c r="G33" s="10" t="s">
+      <c r="H33" s="10" t="s">
         <v>776</v>
       </c>
-      <c r="H33" s="10" t="s">
-        <v>777</v>
-      </c>
       <c r="I33" s="10" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="K33" s="10"/>
       <c r="L33" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="M33" s="15" t="n">
         <v>64</v>
@@ -9085,46 +9085,46 @@
         <v>15</v>
       </c>
       <c r="O33" s="10" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="P33" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>704</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>774</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>764</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>735</v>
+      </c>
+      <c r="G34" s="13" t="s">
         <v>778</v>
       </c>
-      <c r="B34" s="13" t="s">
-        <v>704</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>705</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>775</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>765</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>736</v>
-      </c>
-      <c r="G34" s="13" t="s">
+      <c r="H34" s="13" t="s">
         <v>779</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>780</v>
       </c>
       <c r="I34" s="13" t="s">
         <v>485</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="K34" s="13"/>
       <c r="L34" s="13" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="M34" s="15" t="n">
         <v>64</v>
@@ -9133,46 +9133,46 @@
         <v>15</v>
       </c>
       <c r="O34" s="13" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="P34" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
+        <v>780</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>781</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>704</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>705</v>
-      </c>
-      <c r="D35" s="10" t="s">
+      <c r="E35" s="10" t="s">
         <v>782</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="F35" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="G35" s="10" t="s">
         <v>783</v>
       </c>
-      <c r="F35" s="10" t="s">
-        <v>736</v>
-      </c>
-      <c r="G35" s="10" t="s">
+      <c r="H35" s="10" t="s">
         <v>784</v>
       </c>
-      <c r="H35" s="10" t="s">
-        <v>785</v>
-      </c>
       <c r="I35" s="10" t="s">
         <v>67</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="K35" s="10"/>
       <c r="L35" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="M35" s="15" t="n">
         <v>64</v>
@@ -9181,46 +9181,46 @@
         <v>43185.5166666667</v>
       </c>
       <c r="O35" s="10" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="P35" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
+        <v>786</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>704</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>781</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>782</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>735</v>
+      </c>
+      <c r="G36" s="13" t="s">
         <v>787</v>
       </c>
-      <c r="B36" s="13" t="s">
-        <v>704</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>705</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>782</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>783</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>736</v>
-      </c>
-      <c r="G36" s="13" t="s">
+      <c r="H36" s="13" t="s">
         <v>788</v>
       </c>
-      <c r="H36" s="13" t="s">
-        <v>789</v>
-      </c>
       <c r="I36" s="13" t="s">
         <v>67</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="K36" s="13"/>
       <c r="L36" s="13" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="M36" s="15" t="n">
         <v>64</v>
@@ -9230,7 +9230,7 @@
       </c>
       <c r="O36" s="14"/>
       <c r="P36" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9252,7 +9252,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D40" s="6" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -9274,12 +9274,12 @@
   </sheetPr>
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
-      <selection pane="bottomRight" activeCell="Q2" activeCellId="0" sqref="Q2:Q23"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="Q2" activeCellId="0" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9326,7 +9326,7 @@
         <v>110</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>425</v>
@@ -9344,10 +9344,10 @@
         <v>523</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>644</v>
+        <v>524</v>
       </c>
       <c r="P1" s="8" t="s">
         <v>108</v>
@@ -9413,7 +9413,7 @@
         <v>67</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="R2" s="12" t="n">
         <v>64</v>
@@ -9458,7 +9458,7 @@
         <v>195</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="M3" s="13"/>
       <c r="N3" s="15" t="n">
@@ -9471,7 +9471,7 @@
         <v>67</v>
       </c>
       <c r="Q3" s="13" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="R3" s="15" t="n">
         <v>64</v>
@@ -9483,7 +9483,7 @@
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>112</v>
@@ -9529,7 +9529,7 @@
         <v>67</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="R4" s="12" t="n">
         <v>64</v>
@@ -9541,7 +9541,7 @@
     </row>
     <row r="5" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>112</v>
@@ -9553,7 +9553,7 @@
         <v>1.42</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F5" s="15" t="n">
         <v>0</v>
@@ -9565,7 +9565,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>532</v>
@@ -9583,13 +9583,13 @@
         <v>100</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="P5" s="13" t="s">
         <v>67</v>
       </c>
       <c r="Q5" s="13" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="R5" s="15" t="n">
         <v>64</v>
@@ -9601,7 +9601,7 @@
     </row>
     <row r="6" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>112</v>
@@ -9616,19 +9616,19 @@
         <v>134</v>
       </c>
       <c r="F6" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>800</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>801</v>
       </c>
       <c r="H6" s="12" t="n">
         <v>2</v>
       </c>
       <c r="I6" s="10" t="s">
+        <v>801</v>
+      </c>
+      <c r="J6" s="10" t="s">
         <v>802</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>803</v>
       </c>
       <c r="K6" s="12" t="n">
         <v>600</v>
@@ -9649,7 +9649,7 @@
         <v>67</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="R6" s="12" t="n">
         <v>128</v>
@@ -9658,12 +9658,12 @@
         <v>12</v>
       </c>
       <c r="T6" s="10" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>112</v>
@@ -9678,19 +9678,19 @@
         <v>134</v>
       </c>
       <c r="F7" s="13" t="s">
+        <v>799</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>800</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>801</v>
       </c>
       <c r="H7" s="15" t="n">
         <v>2</v>
       </c>
       <c r="I7" s="13" t="s">
+        <v>801</v>
+      </c>
+      <c r="J7" s="13" t="s">
         <v>802</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>803</v>
       </c>
       <c r="K7" s="15" t="n">
         <v>600</v>
@@ -9711,7 +9711,7 @@
         <v>67</v>
       </c>
       <c r="Q7" s="13" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="R7" s="15" t="n">
         <v>128</v>
@@ -9720,12 +9720,12 @@
         <v>12</v>
       </c>
       <c r="T7" s="13" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>112</v>
@@ -9740,19 +9740,19 @@
         <v>134</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H8" s="12" t="n">
         <v>2</v>
       </c>
       <c r="I8" s="10" t="s">
+        <v>801</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>802</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>803</v>
       </c>
       <c r="K8" s="12" t="n">
         <v>600</v>
@@ -9773,7 +9773,7 @@
         <v>67</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="R8" s="12" t="n">
         <v>128</v>
@@ -9782,12 +9782,12 @@
         <v>12</v>
       </c>
       <c r="T8" s="10" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>112</v>
@@ -9802,19 +9802,19 @@
         <v>134</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H9" s="15" t="n">
         <v>2</v>
       </c>
       <c r="I9" s="13" t="s">
+        <v>801</v>
+      </c>
+      <c r="J9" s="13" t="s">
         <v>802</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>803</v>
       </c>
       <c r="K9" s="15" t="n">
         <v>600</v>
@@ -9835,7 +9835,7 @@
         <v>67</v>
       </c>
       <c r="Q9" s="13" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="R9" s="15" t="n">
         <v>128</v>
@@ -9844,7 +9844,7 @@
         <v>12</v>
       </c>
       <c r="T9" s="13" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9873,7 +9873,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J10" s="10" t="s">
         <v>532</v>
@@ -9891,13 +9891,13 @@
         <v>100</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="P10" s="10" t="s">
         <v>67</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="R10" s="12" t="n">
         <v>64</v>
@@ -9906,7 +9906,7 @@
         <v>12</v>
       </c>
       <c r="T10" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9935,7 +9935,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J11" s="13" t="s">
         <v>532</v>
@@ -9953,13 +9953,13 @@
         <v>100</v>
       </c>
       <c r="O11" s="13" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="P11" s="13" t="s">
         <v>67</v>
       </c>
       <c r="Q11" s="13" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="R11" s="15" t="n">
         <v>64</v>
@@ -9968,7 +9968,7 @@
         <v>12</v>
       </c>
       <c r="T11" s="13" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9997,7 +9997,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J12" s="10" t="s">
         <v>532</v>
@@ -10015,13 +10015,13 @@
         <v>150</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="P12" s="10" t="s">
         <v>67</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="R12" s="12" t="n">
         <v>64</v>
@@ -10030,7 +10030,7 @@
         <v>12</v>
       </c>
       <c r="T12" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10059,7 +10059,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J13" s="13" t="s">
         <v>532</v>
@@ -10077,13 +10077,13 @@
         <v>150</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="P13" s="13" t="s">
         <v>67</v>
       </c>
       <c r="Q13" s="13" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="R13" s="15" t="n">
         <v>128</v>
@@ -10092,7 +10092,7 @@
         <v>12</v>
       </c>
       <c r="T13" s="13" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10121,7 +10121,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J14" s="10" t="s">
         <v>532</v>
@@ -10139,13 +10139,13 @@
         <v>150</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="P14" s="10" t="s">
         <v>67</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="R14" s="12" t="n">
         <v>128</v>
@@ -10154,7 +10154,7 @@
         <v>12</v>
       </c>
       <c r="T14" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10183,7 +10183,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J15" s="13" t="s">
         <v>532</v>
@@ -10201,13 +10201,13 @@
         <v>150</v>
       </c>
       <c r="O15" s="13" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="P15" s="13" t="s">
         <v>67</v>
       </c>
       <c r="Q15" s="13" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="R15" s="15" t="n">
         <v>256</v>
@@ -10216,7 +10216,7 @@
         <v>12</v>
       </c>
       <c r="T15" s="13" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10245,7 +10245,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J16" s="10" t="s">
         <v>532</v>
@@ -10263,13 +10263,13 @@
         <v>150</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="P16" s="10" t="s">
         <v>67</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="R16" s="12" t="n">
         <v>256</v>
@@ -10278,7 +10278,7 @@
         <v>12</v>
       </c>
       <c r="T16" s="10" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10307,7 +10307,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J17" s="13" t="s">
         <v>532</v>
@@ -10325,13 +10325,13 @@
         <v>150</v>
       </c>
       <c r="O17" s="13" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="P17" s="13" t="s">
         <v>67</v>
       </c>
       <c r="Q17" s="13" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="R17" s="15" t="n">
         <v>256</v>
@@ -10340,7 +10340,7 @@
         <v>12</v>
       </c>
       <c r="T17" s="13" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10387,7 +10387,7 @@
         <v>67</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="R18" s="12" t="n">
         <v>64</v>
@@ -10443,7 +10443,7 @@
         <v>163</v>
       </c>
       <c r="Q19" s="13" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="R19" s="15" t="n">
         <v>64</v>
@@ -10499,7 +10499,7 @@
         <v>67</v>
       </c>
       <c r="Q20" s="10" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="R20" s="12" t="n">
         <v>64</v>
@@ -10519,7 +10519,7 @@
         <v>285</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>313</v>
@@ -10555,7 +10555,7 @@
         <v>67</v>
       </c>
       <c r="Q21" s="13" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="R21" s="15" t="n">
         <v>64</v>
@@ -10611,7 +10611,7 @@
         <v>67</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="R22" s="12" t="n">
         <v>64</v>
@@ -10669,7 +10669,7 @@
         <v>67</v>
       </c>
       <c r="Q23" s="13" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="R23" s="15" t="n">
         <v>64</v>
@@ -10683,7 +10683,7 @@
     </row>
     <row r="24" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>112</v>
@@ -10729,7 +10729,7 @@
     </row>
     <row r="25" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>112</v>
@@ -10775,7 +10775,7 @@
     </row>
     <row r="26" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>112</v>
@@ -10821,7 +10821,7 @@
     </row>
     <row r="27" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>112</v>
@@ -10867,7 +10867,7 @@
     </row>
     <row r="28" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>112</v>
@@ -10897,13 +10897,13 @@
         <v>532</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="N28" s="10"/>
       <c r="O28" s="10" t="s">
@@ -10913,7 +10913,7 @@
         <v>67</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="R28" s="12" t="n">
         <v>64</v>
@@ -10922,21 +10922,21 @@
         <v>10</v>
       </c>
       <c r="T28" s="10" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>465</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E29" s="13" t="s">
         <v>94</v>
@@ -10957,13 +10957,13 @@
         <v>532</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="N29" s="13"/>
       <c r="O29" s="13" t="s">
@@ -10973,7 +10973,7 @@
         <v>67</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="R29" s="15" t="n">
         <v>64</v>
@@ -10982,12 +10982,12 @@
         <v>10</v>
       </c>
       <c r="T29" s="13" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>112</v>
@@ -11017,13 +11017,13 @@
         <v>532</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="N30" s="10"/>
       <c r="O30" s="10" t="s">
@@ -11033,7 +11033,7 @@
         <v>67</v>
       </c>
       <c r="Q30" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="R30" s="12" t="n">
         <v>64</v>
@@ -11042,12 +11042,12 @@
         <v>10</v>
       </c>
       <c r="T30" s="10" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>112</v>
@@ -11077,23 +11077,23 @@
         <v>532</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="L31" s="13" t="s">
+        <v>770</v>
+      </c>
+      <c r="M31" s="13" t="s">
         <v>771</v>
-      </c>
-      <c r="M31" s="13" t="s">
-        <v>772</v>
       </c>
       <c r="N31" s="13"/>
       <c r="O31" s="13" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="P31" s="13" t="s">
         <v>67</v>
       </c>
       <c r="Q31" s="13" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="R31" s="15" t="n">
         <v>64</v>
@@ -11102,7 +11102,7 @@
         <v>12</v>
       </c>
       <c r="T31" s="13" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
   </sheetData>
@@ -11124,7 +11124,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="Q2:Q23 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11157,7 +11157,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
-      <selection pane="bottomRight" activeCell="J24" activeCellId="1" sqref="Q2:Q23 J24"/>
+      <selection pane="bottomRight" activeCell="J24" activeCellId="0" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11229,13 +11229,13 @@
         <v>523</v>
       </c>
       <c r="J2" s="8" t="s">
+        <v>827</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>828</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>644</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>829</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>525</v>
@@ -11244,7 +11244,7 @@
         <v>495</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="P2" s="8" t="s">
         <v>62</v>
@@ -11252,16 +11252,16 @@
     </row>
     <row r="3" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>646</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>647</v>
-      </c>
       <c r="D3" s="10" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>618</v>
@@ -11273,20 +11273,20 @@
         <v>400</v>
       </c>
       <c r="H3" s="10" t="s">
+        <v>831</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>832</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>833</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="10" t="s">
+        <v>833</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" s="10" t="s">
         <v>834</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>835</v>
       </c>
       <c r="N3" s="11" t="n">
         <v>1001</v>
@@ -11298,22 +11298,22 @@
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>646</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>647</v>
-      </c>
       <c r="D4" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G4" s="15" t="n">
         <v>400</v>
@@ -11328,13 +11328,13 @@
         <v>17.5</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="L4" s="13" t="s">
         <v>67</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N4" s="14" t="n">
         <v>512</v>
@@ -11343,27 +11343,27 @@
         <v>444</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>646</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>647</v>
-      </c>
       <c r="D5" s="10" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G5" s="12" t="n">
         <v>400</v>
@@ -11378,42 +11378,42 @@
         <v>17.5</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="L5" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N5" s="11" t="n">
         <v>512</v>
       </c>
       <c r="O5" s="10" t="s">
+        <v>838</v>
+      </c>
+      <c r="P5" s="10" t="s">
         <v>839</v>
-      </c>
-      <c r="P5" s="10" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
+        <v>840</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>841</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>842</v>
-      </c>
       <c r="C6" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G6" s="15" t="n">
         <v>400</v>
@@ -11428,13 +11428,13 @@
         <v>17.5</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="L6" s="13" t="s">
         <v>67</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N6" s="14" t="n">
         <v>512</v>
@@ -11443,27 +11443,27 @@
         <v>480</v>
       </c>
       <c r="P6" s="13" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>646</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>647</v>
-      </c>
       <c r="D7" s="10" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G7" s="12" t="n">
         <v>400</v>
@@ -11478,42 +11478,42 @@
         <v>17.5</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N7" s="11" t="n">
         <v>512</v>
       </c>
       <c r="O7" s="10" t="s">
+        <v>846</v>
+      </c>
+      <c r="P7" s="10" t="s">
         <v>847</v>
-      </c>
-      <c r="P7" s="10" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>646</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>647</v>
-      </c>
       <c r="D8" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G8" s="15" t="n">
         <v>400</v>
@@ -11522,69 +11522,69 @@
         <v>235</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="J8" s="25" t="n">
         <v>17.5</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N8" s="14" t="n">
         <v>512</v>
       </c>
       <c r="O8" s="13" t="s">
+        <v>846</v>
+      </c>
+      <c r="P8" s="13" t="s">
         <v>847</v>
-      </c>
-      <c r="P8" s="13" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>646</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>647</v>
-      </c>
       <c r="D9" s="10" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G9" s="12" t="n">
         <v>400</v>
       </c>
       <c r="H9" s="10" t="s">
+        <v>851</v>
+      </c>
+      <c r="I9" s="10" t="s">
         <v>852</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>853</v>
       </c>
       <c r="J9" s="17" t="n">
         <v>17.5</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N9" s="11" t="n">
         <v>512</v>
@@ -11593,48 +11593,48 @@
         <v>554</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B10" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>646</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>647</v>
-      </c>
       <c r="D10" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G10" s="15" t="n">
         <v>400</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="J10" s="25" t="n">
         <v>17.5</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N10" s="14" t="n">
         <v>512</v>
@@ -11643,98 +11643,98 @@
         <v>554</v>
       </c>
       <c r="P10" s="13" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>646</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>647</v>
-      </c>
       <c r="D11" s="10" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G11" s="12" t="n">
         <v>400</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="J11" s="17" t="n">
         <v>17.5</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N11" s="11" t="n">
         <v>512</v>
       </c>
       <c r="O11" s="10" t="s">
+        <v>846</v>
+      </c>
+      <c r="P11" s="10" t="s">
         <v>847</v>
-      </c>
-      <c r="P11" s="10" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
+        <v>858</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>859</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="C12" s="13" t="s">
         <v>860</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>861</v>
-      </c>
       <c r="D12" s="13" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G12" s="15" t="n">
         <v>400</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="J12" s="25" t="n">
         <v>17.5</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N12" s="14" t="n">
         <v>512</v>
@@ -11743,48 +11743,48 @@
         <v>554</v>
       </c>
       <c r="P12" s="13" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>859</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>860</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>861</v>
-      </c>
       <c r="D13" s="10" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G13" s="12" t="n">
         <v>400</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="J13" s="17" t="n">
         <v>17.5</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N13" s="11" t="n">
         <v>512</v>
@@ -11793,48 +11793,48 @@
         <v>554</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B14" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>704</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>705</v>
-      </c>
       <c r="D14" s="13" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G14" s="15" t="n">
         <v>400</v>
       </c>
       <c r="H14" s="13" t="s">
+        <v>864</v>
+      </c>
+      <c r="I14" s="13" t="s">
         <v>865</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>866</v>
       </c>
       <c r="J14" s="25" t="n">
         <v>17.5</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N14" s="14" t="n">
         <v>512</v>
@@ -11843,48 +11843,48 @@
         <v>554</v>
       </c>
       <c r="P14" s="13" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>704</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>705</v>
-      </c>
       <c r="D15" s="10" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G15" s="12" t="n">
         <v>400</v>
       </c>
       <c r="H15" s="10" t="s">
+        <v>867</v>
+      </c>
+      <c r="I15" s="10" t="s">
         <v>868</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>869</v>
       </c>
       <c r="J15" s="17" t="n">
         <v>17.5</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N15" s="11" t="n">
         <v>512</v>
@@ -11893,48 +11893,48 @@
         <v>554</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B16" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>704</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>705</v>
-      </c>
       <c r="D16" s="13" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G16" s="15" t="n">
         <v>400</v>
       </c>
       <c r="H16" s="13" t="s">
+        <v>870</v>
+      </c>
+      <c r="I16" s="13" t="s">
         <v>871</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>872</v>
       </c>
       <c r="J16" s="25" t="n">
         <v>17.5</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="M16" s="13" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N16" s="14" t="n">
         <v>512</v>
@@ -11943,48 +11943,48 @@
         <v>554</v>
       </c>
       <c r="P16" s="13" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>704</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>705</v>
-      </c>
       <c r="D17" s="10" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G17" s="12" t="n">
         <v>400</v>
       </c>
       <c r="H17" s="10" t="s">
+        <v>870</v>
+      </c>
+      <c r="I17" s="10" t="s">
         <v>871</v>
       </c>
-      <c r="I17" s="10" t="s">
-        <v>872</v>
-      </c>
       <c r="J17" s="10" t="s">
+        <v>874</v>
+      </c>
+      <c r="K17" s="10" t="s">
         <v>875</v>
       </c>
-      <c r="K17" s="10" t="s">
-        <v>876</v>
-      </c>
       <c r="L17" s="10" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N17" s="14" t="n">
         <v>128</v>
@@ -11993,48 +11993,48 @@
         <v>554</v>
       </c>
       <c r="P17" s="10" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B18" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>704</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>705</v>
-      </c>
       <c r="D18" s="13" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G18" s="15" t="n">
         <v>400</v>
       </c>
       <c r="H18" s="13" t="s">
+        <v>867</v>
+      </c>
+      <c r="I18" s="13" t="s">
         <v>868</v>
       </c>
-      <c r="I18" s="13" t="s">
-        <v>869</v>
-      </c>
       <c r="J18" s="13" t="s">
+        <v>874</v>
+      </c>
+      <c r="K18" s="13" t="s">
         <v>875</v>
       </c>
-      <c r="K18" s="13" t="s">
-        <v>876</v>
-      </c>
       <c r="L18" s="13" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="M18" s="13" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N18" s="14" t="n">
         <v>64</v>
@@ -12043,48 +12043,48 @@
         <v>554</v>
       </c>
       <c r="P18" s="13" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>704</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>705</v>
-      </c>
       <c r="D19" s="10" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G19" s="12" t="n">
         <v>400</v>
       </c>
       <c r="H19" s="10" t="s">
+        <v>878</v>
+      </c>
+      <c r="I19" s="10" t="s">
         <v>879</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>880</v>
       </c>
       <c r="J19" s="17" t="n">
         <v>25</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N19" s="14" t="n">
         <v>64</v>
@@ -12093,48 +12093,48 @@
         <v>554</v>
       </c>
       <c r="P19" s="10" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B20" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>704</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>705</v>
-      </c>
       <c r="D20" s="13" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G20" s="15" t="n">
         <v>400</v>
       </c>
       <c r="H20" s="13" t="s">
+        <v>881</v>
+      </c>
+      <c r="I20" s="13" t="s">
         <v>882</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>883</v>
       </c>
       <c r="J20" s="25" t="n">
         <v>25</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="L20" s="13" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="M20" s="13" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N20" s="14" t="n">
         <v>64</v>
@@ -12143,48 +12143,48 @@
         <v>554</v>
       </c>
       <c r="P20" s="13" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B21" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>704</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>705</v>
-      </c>
       <c r="D21" s="10" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G21" s="12" t="n">
         <v>400</v>
       </c>
       <c r="H21" s="10" t="s">
+        <v>885</v>
+      </c>
+      <c r="I21" s="10" t="s">
         <v>886</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>887</v>
       </c>
       <c r="J21" s="17" t="n">
         <v>25</v>
       </c>
       <c r="K21" s="10" t="s">
+        <v>887</v>
+      </c>
+      <c r="L21" s="10" t="s">
         <v>888</v>
       </c>
-      <c r="L21" s="10" t="s">
-        <v>889</v>
-      </c>
       <c r="M21" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N21" s="14" t="n">
         <v>64</v>
@@ -12193,36 +12193,36 @@
         <v>554</v>
       </c>
       <c r="P21" s="10" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B22" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>704</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>705</v>
-      </c>
       <c r="D22" s="13" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G22" s="15" t="n">
         <v>400</v>
       </c>
       <c r="H22" s="13" t="s">
+        <v>889</v>
+      </c>
+      <c r="I22" s="13" t="s">
         <v>890</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>891</v>
       </c>
       <c r="J22" s="25" t="n">
         <v>25</v>
@@ -12234,57 +12234,57 @@
         <v>67</v>
       </c>
       <c r="M22" s="13" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N22" s="14" t="n">
         <v>512</v>
       </c>
       <c r="O22" s="13" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="P22" s="13" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B23" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>704</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>705</v>
-      </c>
       <c r="D23" s="13" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G23" s="15" t="n">
         <v>400</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="J23" s="25" t="n">
         <v>25</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="L23" s="13" t="s">
         <v>67</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N23" s="14" t="n">
         <v>64</v>
@@ -12293,27 +12293,27 @@
         <v>554</v>
       </c>
       <c r="P23" s="13" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B24" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>646</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>647</v>
-      </c>
       <c r="D24" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G24" s="15" t="n">
         <v>400</v>
@@ -12328,13 +12328,13 @@
         <v>17.5</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="L24" s="13" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="M24" s="13" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N24" s="14" t="n">
         <v>512</v>
@@ -12343,27 +12343,27 @@
         <v>444</v>
       </c>
       <c r="P24" s="13" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
+        <v>895</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>896</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="D25" s="10" t="s">
         <v>646</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>897</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>647</v>
-      </c>
       <c r="E25" s="10" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G25" s="12" t="n">
         <v>400</v>
@@ -12378,13 +12378,13 @@
         <v>17.5</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="L25" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N25" s="11" t="n">
         <v>512</v>
@@ -12393,21 +12393,21 @@
         <v>444</v>
       </c>
       <c r="P25" s="10" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B26" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>646</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>647</v>
-      </c>
       <c r="D26" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>618</v>
@@ -12419,20 +12419,20 @@
         <v>400</v>
       </c>
       <c r="H26" s="13" t="s">
+        <v>898</v>
+      </c>
+      <c r="I26" s="13" t="s">
         <v>899</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>900</v>
       </c>
       <c r="J26" s="13"/>
       <c r="K26" s="13" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="L26" s="13" t="s">
         <v>67</v>
       </c>
       <c r="M26" s="13" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N26" s="14" t="n">
         <v>1001</v>
@@ -12444,16 +12444,16 @@
     </row>
     <row r="27" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>646</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>647</v>
-      </c>
       <c r="D27" s="10" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>618</v>
@@ -12465,20 +12465,20 @@
         <v>400</v>
       </c>
       <c r="H27" s="10" t="s">
+        <v>898</v>
+      </c>
+      <c r="I27" s="10" t="s">
         <v>899</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>900</v>
       </c>
       <c r="J27" s="10"/>
       <c r="K27" s="10" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="L27" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N27" s="11" t="n">
         <v>1001</v>
@@ -12487,27 +12487,27 @@
         <v>554</v>
       </c>
       <c r="P27" s="10" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B28" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>646</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>647</v>
-      </c>
       <c r="D28" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G28" s="15" t="n">
         <v>400</v>
@@ -12522,13 +12522,13 @@
         <v>22.5</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="L28" s="13" t="s">
         <v>67</v>
       </c>
       <c r="M28" s="13" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N28" s="14" t="n">
         <v>512</v>
@@ -12537,27 +12537,27 @@
         <v>444</v>
       </c>
       <c r="P28" s="13" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B29" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>646</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>647</v>
-      </c>
       <c r="D29" s="10" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G29" s="12" t="n">
         <v>400</v>
@@ -12572,13 +12572,13 @@
         <v>22.5</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N29" s="11" t="n">
         <v>512</v>
@@ -12587,27 +12587,27 @@
         <v>444</v>
       </c>
       <c r="P29" s="10" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B30" s="13" t="s">
+        <v>859</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>860</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>861</v>
-      </c>
       <c r="D30" s="13" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G30" s="15" t="n">
         <v>400</v>
@@ -12622,13 +12622,13 @@
         <v>22.5</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="L30" s="13" t="s">
         <v>67</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N30" s="14" t="n">
         <v>256</v>
@@ -12637,27 +12637,27 @@
         <v>554</v>
       </c>
       <c r="P30" s="13" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G31" s="12" t="n">
         <v>400</v>
@@ -12672,13 +12672,13 @@
         <v>22.5</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="L31" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N31" s="11" t="n">
         <v>256</v>
@@ -12687,27 +12687,27 @@
         <v>554</v>
       </c>
       <c r="P31" s="10" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G32" s="15" t="n">
         <v>400</v>
@@ -12722,13 +12722,13 @@
         <v>22.5</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="L32" s="13" t="s">
         <v>67</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N32" s="14" t="n">
         <v>256</v>
@@ -12737,27 +12737,27 @@
         <v>554</v>
       </c>
       <c r="P32" s="13" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G33" s="12" t="n">
         <v>400</v>
@@ -12772,42 +12772,42 @@
         <v>22.5</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="L33" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M33" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N33" s="11" t="n">
         <v>512</v>
       </c>
       <c r="O33" s="10" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="P33" s="10" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B34" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>646</v>
       </c>
-      <c r="C34" s="13" t="s">
-        <v>647</v>
-      </c>
       <c r="D34" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G34" s="15" t="n">
         <v>400</v>
@@ -12816,48 +12816,48 @@
         <v>250</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="J34" s="25" t="n">
         <v>22.5</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="L34" s="13" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="M34" s="13" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N34" s="14" t="n">
         <v>512</v>
       </c>
       <c r="O34" s="13" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="P34" s="13" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B35" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>646</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>647</v>
-      </c>
       <c r="D35" s="10" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G35" s="12" t="n">
         <v>400</v>
@@ -12866,19 +12866,19 @@
         <v>250</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="J35" s="17" t="n">
         <v>22.5</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N35" s="11" t="n">
         <v>512</v>
@@ -12887,33 +12887,33 @@
         <v>554</v>
       </c>
       <c r="P35" s="10" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B36" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="C36" s="13" t="s">
         <v>646</v>
       </c>
-      <c r="C36" s="13" t="s">
-        <v>647</v>
-      </c>
       <c r="D36" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G36" s="15" t="n">
         <v>400</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="I36" s="13" t="s">
         <v>542</v>
@@ -12922,13 +12922,13 @@
         <v>22.5</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="L36" s="13" t="s">
         <v>445</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N36" s="14" t="n">
         <v>512</v>
@@ -12937,48 +12937,48 @@
         <v>554</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B37" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>646</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>647</v>
-      </c>
       <c r="D37" s="10" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G37" s="12" t="n">
         <v>400</v>
       </c>
       <c r="H37" s="10" t="s">
+        <v>926</v>
+      </c>
+      <c r="I37" s="10" t="s">
         <v>927</v>
-      </c>
-      <c r="I37" s="10" t="s">
-        <v>928</v>
       </c>
       <c r="J37" s="17" t="n">
         <v>22.5</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="L37" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M37" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N37" s="11" t="n">
         <v>512</v>
@@ -12987,48 +12987,48 @@
         <v>554</v>
       </c>
       <c r="P37" s="10" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B38" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>646</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>647</v>
-      </c>
       <c r="D38" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G38" s="15" t="n">
         <v>400</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="J38" s="25" t="n">
         <v>22.5</v>
       </c>
       <c r="K38" s="13" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="L38" s="13" t="s">
         <v>445</v>
       </c>
       <c r="M38" s="13" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N38" s="14" t="n">
         <v>512</v>
@@ -13037,48 +13037,48 @@
         <v>554</v>
       </c>
       <c r="P38" s="13" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B39" s="10" t="s">
+        <v>859</v>
+      </c>
+      <c r="C39" s="10" t="s">
         <v>860</v>
       </c>
-      <c r="C39" s="10" t="s">
-        <v>861</v>
-      </c>
       <c r="D39" s="10" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G39" s="12" t="n">
         <v>400</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="J39" s="17" t="n">
         <v>22.5</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="L39" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N39" s="11" t="n">
         <v>512</v>
@@ -13087,48 +13087,48 @@
         <v>554</v>
       </c>
       <c r="P39" s="10" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B40" s="13" t="s">
+        <v>859</v>
+      </c>
+      <c r="C40" s="13" t="s">
         <v>860</v>
       </c>
-      <c r="C40" s="13" t="s">
-        <v>861</v>
-      </c>
       <c r="D40" s="13" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G40" s="15" t="n">
         <v>400</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="J40" s="25" t="n">
         <v>22.5</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="L40" s="13" t="s">
         <v>445</v>
       </c>
       <c r="M40" s="13" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N40" s="14" t="n">
         <v>512</v>
@@ -13137,48 +13137,48 @@
         <v>554</v>
       </c>
       <c r="P40" s="13" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B41" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="C41" s="10" t="s">
         <v>704</v>
       </c>
-      <c r="C41" s="10" t="s">
-        <v>705</v>
-      </c>
       <c r="D41" s="10" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G41" s="12" t="n">
         <v>400</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="J41" s="17" t="n">
         <v>22.5</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="M41" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N41" s="11" t="n">
         <v>512</v>
@@ -13187,48 +13187,48 @@
         <v>554</v>
       </c>
       <c r="P41" s="10" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B42" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="C42" s="13" t="s">
         <v>704</v>
       </c>
-      <c r="C42" s="13" t="s">
-        <v>705</v>
-      </c>
       <c r="D42" s="13" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G42" s="15" t="n">
         <v>400</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="J42" s="13" t="s">
+        <v>938</v>
+      </c>
+      <c r="K42" s="13" t="s">
         <v>939</v>
       </c>
-      <c r="K42" s="13" t="s">
-        <v>940</v>
-      </c>
       <c r="L42" s="13" t="s">
         <v>67</v>
       </c>
       <c r="M42" s="13" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N42" s="14" t="n">
         <v>64</v>
@@ -13237,48 +13237,48 @@
         <v>554</v>
       </c>
       <c r="P42" s="13" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B43" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>704</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>705</v>
-      </c>
       <c r="D43" s="10" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G43" s="12" t="n">
         <v>400</v>
       </c>
       <c r="H43" s="10" t="s">
+        <v>941</v>
+      </c>
+      <c r="I43" s="10" t="s">
         <v>942</v>
-      </c>
-      <c r="I43" s="10" t="s">
-        <v>943</v>
       </c>
       <c r="J43" s="17" t="n">
         <v>25</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="L43" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M43" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N43" s="14" t="n">
         <v>64</v>
@@ -13287,48 +13287,48 @@
         <v>554</v>
       </c>
       <c r="P43" s="10" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B44" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="C44" s="13" t="s">
         <v>704</v>
       </c>
-      <c r="C44" s="13" t="s">
-        <v>705</v>
-      </c>
       <c r="D44" s="13" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G44" s="15" t="n">
         <v>400</v>
       </c>
       <c r="H44" s="13" t="s">
+        <v>945</v>
+      </c>
+      <c r="I44" s="13" t="s">
         <v>946</v>
       </c>
-      <c r="I44" s="13" t="s">
-        <v>947</v>
-      </c>
       <c r="J44" s="13" t="s">
+        <v>938</v>
+      </c>
+      <c r="K44" s="13" t="s">
         <v>939</v>
       </c>
-      <c r="K44" s="13" t="s">
-        <v>940</v>
-      </c>
       <c r="L44" s="13" t="s">
         <v>67</v>
       </c>
       <c r="M44" s="13" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N44" s="14" t="n">
         <v>64</v>
@@ -13337,27 +13337,27 @@
         <v>554</v>
       </c>
       <c r="P44" s="13" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D45" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G45" s="12" t="n">
         <v>400</v>
@@ -13372,13 +13372,13 @@
         <v>22.5</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="L45" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M45" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N45" s="11" t="n">
         <v>256</v>
@@ -13387,27 +13387,27 @@
         <v>554</v>
       </c>
       <c r="P45" s="10" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="8" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D46" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G46" s="15" t="n">
         <v>400</v>
@@ -13422,13 +13422,13 @@
         <v>22.5</v>
       </c>
       <c r="K46" s="13" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="L46" s="13" t="s">
         <v>67</v>
       </c>
       <c r="M46" s="13" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N46" s="14" t="n">
         <v>256</v>
@@ -13437,7 +13437,7 @@
         <v>554</v>
       </c>
       <c r="P46" s="13" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
   </sheetData>
@@ -13466,7 +13466,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="Q2:Q23 A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13503,10 +13503,10 @@
         <v>519</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>951</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>952</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>953</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>55</v>
@@ -13529,22 +13529,22 @@
     </row>
     <row r="2" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
+        <v>953</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>954</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>704</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>647</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>647</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>694</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>955</v>
       </c>
       <c r="G2" s="12" t="n">
         <v>9</v>
@@ -13553,10 +13553,10 @@
         <v>400</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="K2" s="11" t="n">
         <v>512</v>
@@ -13565,39 +13565,39 @@
         <v>554</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
+        <v>956</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>957</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C3" s="13" t="s">
+        <v>646</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>646</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>693</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>954</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>958</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>647</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>647</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>694</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>955</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>959</v>
       </c>
       <c r="H3" s="15" t="n">
         <v>400</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="K3" s="14" t="n">
         <v>512</v>
@@ -13606,27 +13606,27 @@
         <v>554</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
+        <v>959</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>960</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>704</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>647</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>647</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>694</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>961</v>
       </c>
       <c r="G4" s="12" t="n">
         <v>9</v>
@@ -13635,10 +13635,10 @@
         <v>400</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="K4" s="11" t="n">
         <v>512</v>
@@ -13647,39 +13647,39 @@
         <v>554</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>957</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>646</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>646</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>693</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>960</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>958</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>647</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>647</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>694</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>961</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>959</v>
       </c>
       <c r="H5" s="15" t="n">
         <v>400</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="K5" s="14" t="n">
         <v>512</v>
@@ -13688,39 +13688,39 @@
         <v>554</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
+        <v>962</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>859</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>960</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>963</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>860</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>861</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>861</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>694</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>961</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>964</v>
       </c>
       <c r="H6" s="12" t="n">
         <v>400</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="K6" s="11" t="n">
         <v>256</v>
@@ -13753,7 +13753,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="Q2:Q23 A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13800,7 +13800,7 @@
         <v>518</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>527</v>
+        <v>964</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>965</v>
@@ -13812,7 +13812,7 @@
         <v>966</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>55</v>
@@ -13859,16 +13859,16 @@
         <v>975</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>896</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>646</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>897</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>647</v>
-      </c>
       <c r="E2" s="10" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>976</v>
@@ -13880,7 +13880,7 @@
         <v>977</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>67</v>
@@ -13898,7 +13898,7 @@
         <v>17.5</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="P2" s="12" t="n">
         <v>250</v>
@@ -13910,10 +13910,10 @@
         <v>22.5</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="U2" s="11" t="n">
         <v>512</v>
@@ -13930,16 +13930,16 @@
         <v>979</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>646</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>647</v>
       </c>
       <c r="D3" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F3" s="14" t="n">
         <v>340</v>
@@ -13951,7 +13951,7 @@
         <v>977</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J3" s="13" t="s">
         <v>67</v>
@@ -13969,7 +13969,7 @@
         <v>17.5</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="P3" s="15" t="n">
         <v>250</v>
@@ -13981,10 +13981,10 @@
         <v>22.5</v>
       </c>
       <c r="S3" s="13" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="T3" s="13" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="U3" s="14" t="n">
         <v>256</v>
@@ -14001,16 +14001,16 @@
         <v>981</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>646</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>647</v>
       </c>
       <c r="D4" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F4" s="11" t="n">
         <v>340</v>
@@ -14022,7 +14022,7 @@
         <v>977</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>67</v>
@@ -14040,7 +14040,7 @@
         <v>17.5</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="P4" s="12" t="n">
         <v>250</v>
@@ -14052,10 +14052,10 @@
         <v>22.5</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="T4" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="U4" s="11" t="n">
         <v>128</v>
@@ -14072,16 +14072,16 @@
         <v>984</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D5" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>985</v>
@@ -14096,7 +14096,7 @@
         <v>987</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="K5" s="15" t="n">
         <v>400</v>
@@ -14111,7 +14111,7 @@
         <v>67</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="P5" s="13" t="s">
         <v>67</v>
@@ -14123,10 +14123,10 @@
         <v>67</v>
       </c>
       <c r="S5" s="13" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="T5" s="13" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="U5" s="14" t="n">
         <v>256</v>
@@ -14141,16 +14141,16 @@
         <v>988</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D6" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>989</v>
@@ -14162,7 +14162,7 @@
         <v>977</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>67</v>
@@ -14180,7 +14180,7 @@
         <v>17.5</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="P6" s="12" t="n">
         <v>250</v>
@@ -14192,10 +14192,10 @@
         <v>22.5</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="T6" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="U6" s="11" t="n">
         <v>128</v>
@@ -14213,13 +14213,13 @@
         <v>992</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D7" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>989</v>
@@ -14231,7 +14231,7 @@
         <v>977</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J7" s="13" t="s">
         <v>67</v>
@@ -14249,7 +14249,7 @@
         <v>17.5</v>
       </c>
       <c r="O7" s="13" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="P7" s="15" t="n">
         <v>250</v>
@@ -14261,10 +14261,10 @@
         <v>22.5</v>
       </c>
       <c r="S7" s="13" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="T7" s="13" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="U7" s="14" t="n">
         <v>512</v>
@@ -14282,13 +14282,13 @@
         <v>992</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D8" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>989</v>
@@ -14300,7 +14300,7 @@
         <v>977</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>67</v>
@@ -14318,7 +14318,7 @@
         <v>17.5</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="P8" s="12" t="n">
         <v>250</v>
@@ -14330,16 +14330,16 @@
         <v>22.5</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="T8" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="U8" s="11" t="n">
         <v>512</v>
       </c>
       <c r="V8" s="10" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="W8" s="11"/>
     </row>
@@ -14348,16 +14348,16 @@
         <v>994</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>704</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>705</v>
       </c>
       <c r="D9" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>995</v>
@@ -14369,7 +14369,7 @@
         <v>977</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J9" s="13" t="s">
         <v>67</v>
@@ -14387,7 +14387,7 @@
         <v>17.5</v>
       </c>
       <c r="O9" s="13" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="P9" s="13" t="s">
         <v>997</v>
@@ -14399,10 +14399,10 @@
         <v>25</v>
       </c>
       <c r="S9" s="13" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="T9" s="13" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="U9" s="14" t="n">
         <v>512</v>
@@ -14417,16 +14417,16 @@
         <v>999</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>704</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>705</v>
       </c>
       <c r="D10" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>1000</v>
@@ -14438,7 +14438,7 @@
         <v>977</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J10" s="10" t="s">
         <v>67</v>
@@ -14468,10 +14468,10 @@
         <v>25</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="T10" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="U10" s="11" t="n">
         <v>512</v>
@@ -14486,16 +14486,16 @@
         <v>1001</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D11" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>989</v>
@@ -14510,7 +14510,7 @@
         <v>1003</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="K11" s="15" t="n">
         <v>400</v>
@@ -14525,7 +14525,7 @@
         <v>17.5</v>
       </c>
       <c r="O11" s="13" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="P11" s="13" t="s">
         <v>67</v>
@@ -14537,10 +14537,10 @@
         <v>67</v>
       </c>
       <c r="S11" s="13" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="T11" s="13" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="U11" s="14" t="n">
         <v>128</v>
@@ -14569,7 +14569,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AB1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="Q2:Q23 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14600,7 +14600,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="Q2:Q23 A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15309,7 +15309,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="Q2:Q23 A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15384,7 +15384,7 @@
         <v>520</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>1006</v>
@@ -15396,13 +15396,13 @@
         <v>1008</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>527</v>
+        <v>964</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>177</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="P2" s="8" t="s">
         <v>61</v>
@@ -15422,7 +15422,7 @@
         <v>1011</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>1012</v>
@@ -15478,7 +15478,7 @@
         <v>1011</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>1012</v>
@@ -15532,7 +15532,7 @@
         <v>1011</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>1012</v>
@@ -15586,7 +15586,7 @@
         <v>1011</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>1012</v>
@@ -15595,7 +15595,7 @@
         <v>1012</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>1013</v>
@@ -15613,7 +15613,7 @@
         <v>1016</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="M6" s="13" t="s">
         <v>1023</v>
@@ -15640,7 +15640,7 @@
         <v>1011</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>1012</v>
@@ -15649,7 +15649,7 @@
         <v>1012</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>1013</v>
@@ -15667,7 +15667,7 @@
         <v>1016</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="M7" s="10" t="s">
         <v>1023</v>
@@ -15691,10 +15691,10 @@
         <v>1025</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>1012</v>
@@ -15743,10 +15743,10 @@
         <v>1026</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>1012</v>
@@ -15795,10 +15795,10 @@
         <v>1027</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>1012</v>
@@ -15807,7 +15807,7 @@
         <v>1012</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>1013</v>
@@ -15825,7 +15825,7 @@
         <v>1016</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="M10" s="13" t="s">
         <v>1023</v>
@@ -15849,10 +15849,10 @@
         <v>1028</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>1012</v>
@@ -15861,7 +15861,7 @@
         <v>1012</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>1013</v>
@@ -15879,7 +15879,7 @@
         <v>1016</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="M11" s="10" t="s">
         <v>1023</v>
@@ -15924,7 +15924,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="Q2:Q23 A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15969,7 +15969,7 @@
         <v>492</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>1030</v>
@@ -15984,16 +15984,16 @@
         <v>177</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>61</v>
       </c>
       <c r="O1" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="P1" s="8" t="s">
         <v>679</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>680</v>
       </c>
       <c r="Q1" s="8" t="s">
         <v>62</v>
@@ -16029,7 +16029,7 @@
         <v>1039</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>1040</v>
@@ -16043,7 +16043,7 @@
       <c r="O2" s="12"/>
       <c r="P2" s="17"/>
       <c r="Q2" s="10" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16054,7 +16054,7 @@
         <v>1042</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>1043</v>
@@ -16180,7 +16180,7 @@
         <v>67</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="L5" s="13" t="s">
         <v>1056</v>
@@ -16329,7 +16329,7 @@
         <v>1039</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="L8" s="10" t="s">
         <v>1040</v>
@@ -16343,7 +16343,7 @@
       <c r="O8" s="12"/>
       <c r="P8" s="17"/>
       <c r="Q8" s="10" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16401,7 +16401,7 @@
         <v>1033</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>1043</v>
@@ -16557,7 +16557,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J2" activeCellId="1" sqref="Q2:Q23 J2"/>
+      <selection pane="bottomRight" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16618,7 +16618,7 @@
         <v>523</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>644</v>
+        <v>524</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>525</v>
@@ -16638,13 +16638,13 @@
         <v>1078</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>1044</v>
@@ -16682,10 +16682,10 @@
         <v>1085</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>1044</v>
@@ -16720,7 +16720,7 @@
         <v>1088</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>1089</v>
@@ -16744,7 +16744,7 @@
         <v>1092</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="K5" s="12" t="n">
         <v>128</v>
@@ -16761,7 +16761,7 @@
         <v>1094</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>1089</v>
@@ -16785,7 +16785,7 @@
         <v>1092</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="K6" s="15" t="n">
         <v>128</v>
@@ -16823,7 +16823,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="Q2:Q23 A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16864,7 +16864,7 @@
         <v>518</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>527</v>
+        <v>964</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>519</v>
@@ -16882,7 +16882,7 @@
         <v>493</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>107</v>
@@ -16941,10 +16941,10 @@
         <v>70</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="P2" s="11" t="n">
         <v>64</v>
@@ -16997,10 +16997,10 @@
         <v>70</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="P3" s="14" t="n">
         <v>64</v>
@@ -17051,10 +17051,10 @@
         <v>70</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="P4" s="11" t="n">
         <v>64</v>
@@ -17108,7 +17108,7 @@
         <v>1111</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="P5" s="14" t="n">
         <v>64</v>
@@ -17162,7 +17162,7 @@
         <v>1114</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="P6" s="11" t="n">
         <v>64</v>
@@ -17216,7 +17216,7 @@
         <v>1114</v>
       </c>
       <c r="O7" s="13" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="P7" s="14" t="n">
         <v>64</v>
@@ -17249,7 +17249,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="Q2:Q23 A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18526,7 +18526,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="Q2:Q23 A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20859,7 +20859,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="Q2:Q23 A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21585,7 +21585,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="Q2:Q23 A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21871,7 +21871,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="T1" activeCellId="0" sqref="T1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I2" activeCellId="1" sqref="Q2:Q23 I2"/>
+      <selection pane="bottomRight" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22606,7 +22606,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="Q2:Q23 A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22887,7 +22887,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="Q2:Q23 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/project_overview.xlsx
+++ b/project_overview.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Export Summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4002" uniqueCount="1118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4002" uniqueCount="1119">
   <si>
     <t xml:space="preserve">This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -2767,6 +2767,9 @@
   </si>
   <si>
     <t xml:space="preserve">[0,1,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chi_RotWire_1_rounded_Ti_m_highres</t>
   </si>
   <si>
     <t xml:space="preserve">240</t>
@@ -3926,7 +3929,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>207720</xdr:colOff>
+      <xdr:colOff>207360</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>31680</xdr:rowOff>
     </xdr:to>
@@ -3938,7 +3941,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="3029400" cy="526680"/>
+          <a:ext cx="3029040" cy="526680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3991,7 +3994,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>207720</xdr:colOff>
+      <xdr:colOff>207360</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>15120</xdr:rowOff>
     </xdr:to>
@@ -4003,7 +4006,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="7247880"/>
-          <a:ext cx="3029400" cy="526680"/>
+          <a:ext cx="3029040" cy="526680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4061,7 +4064,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>44280</xdr:colOff>
       <xdr:row>108</xdr:row>
       <xdr:rowOff>75960</xdr:rowOff>
     </xdr:to>
@@ -4073,7 +4076,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="60120" y="16951680"/>
-          <a:ext cx="6333840" cy="952200"/>
+          <a:ext cx="6333480" cy="952200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4126,7 +4129,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
+      <xdr:colOff>91080</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>129240</xdr:rowOff>
     </xdr:to>
@@ -4138,7 +4141,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="60120" y="0"/>
-          <a:ext cx="7085880" cy="952200"/>
+          <a:ext cx="7085520" cy="952200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4196,7 +4199,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>260280</xdr:colOff>
+      <xdr:colOff>259920</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>126720</xdr:rowOff>
     </xdr:to>
@@ -4208,7 +4211,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4493160" cy="952200"/>
+          <a:ext cx="4492800" cy="952200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4261,7 +4264,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>260280</xdr:colOff>
+      <xdr:colOff>259920</xdr:colOff>
       <xdr:row>114</xdr:row>
       <xdr:rowOff>160200</xdr:rowOff>
     </xdr:to>
@@ -4273,7 +4276,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="18454680"/>
-          <a:ext cx="4493160" cy="526680"/>
+          <a:ext cx="4492800" cy="526680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4326,7 +4329,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>260280</xdr:colOff>
+      <xdr:colOff>259920</xdr:colOff>
       <xdr:row>134</xdr:row>
       <xdr:rowOff>88560</xdr:rowOff>
     </xdr:to>
@@ -4338,7 +4341,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="21684960"/>
-          <a:ext cx="4493160" cy="526680"/>
+          <a:ext cx="4492800" cy="526680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4769,7 +4772,7 @@
   </sheetPr>
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -11152,12 +11155,12 @@
   </sheetPr>
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
-      <selection pane="bottomRight" activeCell="J24" activeCellId="0" sqref="J24"/>
+      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12198,7 +12201,7 @@
     </row>
     <row r="22" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>884</v>
+        <v>889</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>703</v>
@@ -12219,10 +12222,10 @@
         <v>400</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="J22" s="25" t="n">
         <v>25</v>
@@ -12243,12 +12246,12 @@
         <v>846</v>
       </c>
       <c r="P22" s="13" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>703</v>
@@ -12272,7 +12275,7 @@
         <v>864</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="J23" s="25" t="n">
         <v>25</v>
@@ -12293,12 +12296,12 @@
         <v>554</v>
       </c>
       <c r="P23" s="13" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>645</v>
@@ -12343,18 +12346,18 @@
         <v>444</v>
       </c>
       <c r="P24" s="13" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>645</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>646</v>
@@ -12393,12 +12396,12 @@
         <v>444</v>
       </c>
       <c r="P25" s="10" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>645</v>
@@ -12419,14 +12422,14 @@
         <v>400</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="J26" s="13"/>
       <c r="K26" s="13" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="L26" s="13" t="s">
         <v>67</v>
@@ -12444,7 +12447,7 @@
     </row>
     <row r="27" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>645</v>
@@ -12465,14 +12468,14 @@
         <v>400</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="J27" s="10"/>
       <c r="K27" s="10" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="L27" s="10" t="s">
         <v>67</v>
@@ -12487,12 +12490,12 @@
         <v>554</v>
       </c>
       <c r="P27" s="10" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>645</v>
@@ -12537,12 +12540,12 @@
         <v>444</v>
       </c>
       <c r="P28" s="13" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>645</v>
@@ -12575,7 +12578,7 @@
         <v>871</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="M29" s="10" t="s">
         <v>834</v>
@@ -12587,12 +12590,12 @@
         <v>444</v>
       </c>
       <c r="P29" s="10" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>859</v>
@@ -12622,7 +12625,7 @@
         <v>22.5</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="L30" s="13" t="s">
         <v>67</v>
@@ -12637,12 +12640,12 @@
         <v>554</v>
       </c>
       <c r="P30" s="13" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>703</v>
@@ -12672,7 +12675,7 @@
         <v>22.5</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="L31" s="10" t="s">
         <v>67</v>
@@ -12687,12 +12690,12 @@
         <v>554</v>
       </c>
       <c r="P31" s="10" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>703</v>
@@ -12722,7 +12725,7 @@
         <v>22.5</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="L32" s="13" t="s">
         <v>67</v>
@@ -12737,12 +12740,12 @@
         <v>554</v>
       </c>
       <c r="P32" s="13" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>841</v>
@@ -12772,7 +12775,7 @@
         <v>22.5</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="L33" s="10" t="s">
         <v>67</v>
@@ -12787,12 +12790,12 @@
         <v>846</v>
       </c>
       <c r="P33" s="10" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>645</v>
@@ -12816,16 +12819,16 @@
         <v>250</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="J34" s="25" t="n">
         <v>22.5</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="L34" s="13" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="M34" s="13" t="s">
         <v>834</v>
@@ -12837,12 +12840,12 @@
         <v>846</v>
       </c>
       <c r="P34" s="13" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>645</v>
@@ -12866,16 +12869,16 @@
         <v>250</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="J35" s="17" t="n">
         <v>22.5</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="M35" s="10" t="s">
         <v>834</v>
@@ -12887,12 +12890,12 @@
         <v>554</v>
       </c>
       <c r="P35" s="10" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>645</v>
@@ -12913,7 +12916,7 @@
         <v>400</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="I36" s="13" t="s">
         <v>542</v>
@@ -12922,7 +12925,7 @@
         <v>22.5</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="L36" s="13" t="s">
         <v>445</v>
@@ -12937,12 +12940,12 @@
         <v>554</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>645</v>
@@ -12963,16 +12966,16 @@
         <v>400</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="J37" s="17" t="n">
         <v>22.5</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="L37" s="10" t="s">
         <v>445</v>
@@ -12987,12 +12990,12 @@
         <v>554</v>
       </c>
       <c r="P37" s="10" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>645</v>
@@ -13013,16 +13016,16 @@
         <v>400</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="J38" s="25" t="n">
         <v>22.5</v>
       </c>
       <c r="K38" s="13" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="L38" s="13" t="s">
         <v>445</v>
@@ -13037,12 +13040,12 @@
         <v>554</v>
       </c>
       <c r="P38" s="13" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>859</v>
@@ -13063,16 +13066,16 @@
         <v>400</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="J39" s="17" t="n">
         <v>22.5</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="L39" s="10" t="s">
         <v>445</v>
@@ -13087,12 +13090,12 @@
         <v>554</v>
       </c>
       <c r="P39" s="10" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>859</v>
@@ -13113,16 +13116,16 @@
         <v>400</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="J40" s="25" t="n">
         <v>22.5</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="L40" s="13" t="s">
         <v>445</v>
@@ -13137,12 +13140,12 @@
         <v>554</v>
       </c>
       <c r="P40" s="13" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>703</v>
@@ -13163,7 +13166,7 @@
         <v>400</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>852</v>
@@ -13172,10 +13175,10 @@
         <v>22.5</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="M41" s="10" t="s">
         <v>834</v>
@@ -13187,12 +13190,12 @@
         <v>554</v>
       </c>
       <c r="P41" s="10" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>703</v>
@@ -13219,10 +13222,10 @@
         <v>865</v>
       </c>
       <c r="J42" s="13" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="K42" s="13" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="L42" s="13" t="s">
         <v>67</v>
@@ -13237,12 +13240,12 @@
         <v>554</v>
       </c>
       <c r="P42" s="13" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>703</v>
@@ -13263,16 +13266,16 @@
         <v>400</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="J43" s="17" t="n">
         <v>25</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="L43" s="10" t="s">
         <v>67</v>
@@ -13287,12 +13290,12 @@
         <v>554</v>
       </c>
       <c r="P43" s="10" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B44" s="13" t="s">
         <v>703</v>
@@ -13313,16 +13316,16 @@
         <v>400</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="K44" s="13" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="L44" s="13" t="s">
         <v>67</v>
@@ -13337,12 +13340,12 @@
         <v>554</v>
       </c>
       <c r="P44" s="13" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>703</v>
@@ -13372,7 +13375,7 @@
         <v>22.5</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="L45" s="10" t="s">
         <v>67</v>
@@ -13387,12 +13390,12 @@
         <v>554</v>
       </c>
       <c r="P45" s="10" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="8" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>703</v>
@@ -13422,7 +13425,7 @@
         <v>22.5</v>
       </c>
       <c r="K46" s="13" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="L46" s="13" t="s">
         <v>67</v>
@@ -13437,7 +13440,7 @@
         <v>554</v>
       </c>
       <c r="P46" s="13" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
   </sheetData>
@@ -13503,10 +13506,10 @@
         <v>519</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>55</v>
@@ -13529,7 +13532,7 @@
     </row>
     <row r="2" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>703</v>
@@ -13544,7 +13547,7 @@
         <v>693</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="G2" s="12" t="n">
         <v>9</v>
@@ -13565,15 +13568,15 @@
         <v>554</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>646</v>
@@ -13585,10 +13588,10 @@
         <v>693</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H3" s="15" t="n">
         <v>400</v>
@@ -13606,12 +13609,12 @@
         <v>554</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>703</v>
@@ -13626,7 +13629,7 @@
         <v>693</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="G4" s="12" t="n">
         <v>9</v>
@@ -13635,7 +13638,7 @@
         <v>400</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>834</v>
@@ -13647,15 +13650,15 @@
         <v>554</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>646</v>
@@ -13667,16 +13670,16 @@
         <v>693</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H5" s="15" t="n">
         <v>400</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>834</v>
@@ -13688,12 +13691,12 @@
         <v>554</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>859</v>
@@ -13708,16 +13711,16 @@
         <v>693</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="H6" s="12" t="n">
         <v>400</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>834</v>
@@ -13800,46 +13803,46 @@
         <v>518</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>519</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>55</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="T1" s="8" t="s">
         <v>432</v>
@@ -13856,13 +13859,13 @@
     </row>
     <row r="2" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>645</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>646</v>
@@ -13871,13 +13874,13 @@
         <v>646</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="G2" s="11" t="n">
         <v>500</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>764</v>
@@ -13922,12 +13925,12 @@
         <v>444</v>
       </c>
       <c r="W2" s="10" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>645</v>
@@ -13948,7 +13951,7 @@
         <v>840</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>764</v>
@@ -13993,12 +13996,12 @@
         <v>444</v>
       </c>
       <c r="W3" s="13" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>645</v>
@@ -14019,7 +14022,7 @@
         <v>840</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>764</v>
@@ -14061,18 +14064,18 @@
         <v>128</v>
       </c>
       <c r="V4" s="10" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="W4" s="10" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>646</v>
@@ -14084,19 +14087,19 @@
         <v>646</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="G5" s="14" t="n">
         <v>840</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="K5" s="15" t="n">
         <v>400</v>
@@ -14123,7 +14126,7 @@
         <v>67</v>
       </c>
       <c r="S5" s="13" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="T5" s="13" t="s">
         <v>834</v>
@@ -14138,7 +14141,7 @@
     </row>
     <row r="6" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>859</v>
@@ -14153,13 +14156,13 @@
         <v>646</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>764</v>
@@ -14192,7 +14195,7 @@
         <v>22.5</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="T6" s="10" t="s">
         <v>834</v>
@@ -14207,10 +14210,10 @@
     </row>
     <row r="7" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>646</v>
@@ -14222,13 +14225,13 @@
         <v>646</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="G7" s="14" t="n">
         <v>920</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>764</v>
@@ -14261,7 +14264,7 @@
         <v>22.5</v>
       </c>
       <c r="S7" s="13" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="T7" s="13" t="s">
         <v>834</v>
@@ -14276,10 +14279,10 @@
     </row>
     <row r="8" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
+        <v>994</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>993</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>992</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>646</v>
@@ -14291,13 +14294,13 @@
         <v>646</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="G8" s="11" t="n">
         <v>920</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>764</v>
@@ -14330,7 +14333,7 @@
         <v>22.5</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="T8" s="10" t="s">
         <v>834</v>
@@ -14345,7 +14348,7 @@
     </row>
     <row r="9" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>703</v>
@@ -14360,13 +14363,13 @@
         <v>704</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>764</v>
@@ -14390,16 +14393,16 @@
         <v>731</v>
       </c>
       <c r="P9" s="13" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="Q9" s="13" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="R9" s="25" t="n">
         <v>25</v>
       </c>
       <c r="S9" s="13" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="T9" s="13" t="s">
         <v>834</v>
@@ -14414,7 +14417,7 @@
     </row>
     <row r="10" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>703</v>
@@ -14429,13 +14432,13 @@
         <v>704</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="G10" s="11" t="n">
         <v>900</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>764</v>
@@ -14483,7 +14486,7 @@
     </row>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>859</v>
@@ -14498,19 +14501,19 @@
         <v>646</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="K11" s="15" t="n">
         <v>400</v>
@@ -14537,7 +14540,7 @@
         <v>67</v>
       </c>
       <c r="S11" s="13" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="T11" s="13" t="s">
         <v>834</v>
@@ -15363,7 +15366,7 @@
         <v>49</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>423</v>
@@ -15375,7 +15378,7 @@
         <v>518</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>519</v>
@@ -15387,16 +15390,16 @@
         <v>675</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>177</v>
@@ -15408,7 +15411,7 @@
         <v>61</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="R2" s="8" t="s">
         <v>62</v>
@@ -15416,16 +15419,16 @@
     </row>
     <row r="3" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>659</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>67</v>
@@ -15434,19 +15437,19 @@
         <v>67</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>625</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="L3" s="10" t="s">
         <v>67</v>
@@ -15455,7 +15458,7 @@
         <v>67</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="O3" s="12" t="n">
         <v>128</v>
@@ -15472,16 +15475,16 @@
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>659</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>67</v>
@@ -15490,19 +15493,19 @@
         <v>67</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>625</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="L4" s="13" t="s">
         <v>67</v>
@@ -15511,7 +15514,7 @@
         <v>67</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="O4" s="15" t="n">
         <v>128</v>
@@ -15526,16 +15529,16 @@
     </row>
     <row r="5" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>659</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>67</v>
@@ -15544,19 +15547,19 @@
         <v>67</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>625</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="L5" s="10" t="s">
         <v>67</v>
@@ -15565,7 +15568,7 @@
         <v>67</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="O5" s="12" t="n">
         <v>128</v>
@@ -15580,46 +15583,46 @@
     </row>
     <row r="6" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>659</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>703</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>625</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="L6" s="13" t="s">
         <v>735</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="O6" s="15" t="n">
         <v>128</v>
@@ -15634,46 +15637,46 @@
     </row>
     <row r="7" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>659</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>703</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>625</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="L7" s="10" t="s">
         <v>735</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="O7" s="12" t="n">
         <v>128</v>
@@ -15688,7 +15691,7 @@
     </row>
     <row r="8" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>703</v>
@@ -15697,7 +15700,7 @@
         <v>659</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>67</v>
@@ -15706,19 +15709,19 @@
         <v>67</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>625</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="L8" s="13" t="s">
         <v>67</v>
@@ -15727,7 +15730,7 @@
         <v>67</v>
       </c>
       <c r="N8" s="13" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="O8" s="15" t="n">
         <v>128</v>
@@ -15740,7 +15743,7 @@
     </row>
     <row r="9" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>703</v>
@@ -15749,7 +15752,7 @@
         <v>659</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>67</v>
@@ -15758,19 +15761,19 @@
         <v>67</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>625</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="L9" s="10" t="s">
         <v>67</v>
@@ -15779,7 +15782,7 @@
         <v>67</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="O9" s="12" t="n">
         <v>128</v>
@@ -15792,7 +15795,7 @@
     </row>
     <row r="10" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>703</v>
@@ -15801,37 +15804,37 @@
         <v>659</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>703</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>625</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="L10" s="13" t="s">
         <v>735</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="N10" s="13" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="O10" s="15" t="n">
         <v>128</v>
@@ -15846,7 +15849,7 @@
     </row>
     <row r="11" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>703</v>
@@ -15855,37 +15858,37 @@
         <v>659</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>703</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>625</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="L11" s="10" t="s">
         <v>735</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="O11" s="12" t="n">
         <v>128</v>
@@ -15957,7 +15960,7 @@
         <v>51</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>52</v>
@@ -15972,10 +15975,10 @@
         <v>675</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>107</v>
@@ -16001,38 +16004,38 @@
     </row>
     <row r="2" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="10" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>276</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>700</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="M2" s="12" t="n">
         <v>32</v>
@@ -16048,19 +16051,19 @@
     </row>
     <row r="3" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>681</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>549</v>
@@ -16069,19 +16072,19 @@
         <v>532</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="J3" s="13" t="s">
         <v>67</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="M3" s="15" t="n">
         <v>64</v>
@@ -16096,45 +16099,45 @@
         <v>37.1</v>
       </c>
       <c r="Q3" s="13" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>549</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>67</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="M4" s="12" t="n">
         <v>64</v>
@@ -16150,31 +16153,31 @@
     </row>
     <row r="5" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="D5" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>549</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>67</v>
@@ -16183,7 +16186,7 @@
         <v>700</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="M5" s="15" t="n">
         <v>512</v>
@@ -16196,45 +16199,45 @@
       </c>
       <c r="P5" s="25"/>
       <c r="Q5" s="13" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>549</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>67</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="M6" s="12" t="n">
         <v>64</v>
@@ -16250,40 +16253,40 @@
     </row>
     <row r="7" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="M7" s="15" t="n">
         <v>64</v>
@@ -16299,40 +16302,40 @@
     </row>
     <row r="8" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D8" s="12" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>276</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>700</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="M8" s="12" t="n">
         <v>32</v>
@@ -16348,40 +16351,40 @@
     </row>
     <row r="9" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>1067</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>1043</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>1065</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>1066</v>
-      </c>
       <c r="G9" s="13" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="M9" s="15" t="n">
         <v>64</v>
@@ -16395,40 +16398,40 @@
     </row>
     <row r="10" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>646</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="M10" s="12" t="n">
         <v>64</v>
@@ -16442,16 +16445,16 @@
     </row>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>94</v>
@@ -16460,22 +16463,22 @@
         <v>632</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="J11" s="13" t="s">
         <v>67</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="M11" s="15" t="n">
         <v>64</v>
@@ -16489,16 +16492,16 @@
     </row>
     <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>94</v>
@@ -16507,22 +16510,22 @@
         <v>632</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="J12" s="10" t="s">
         <v>67</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="M12" s="12" t="n">
         <v>64</v>
@@ -16612,7 +16615,7 @@
         <v>425</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>523</v>
@@ -16635,7 +16638,7 @@
     </row>
     <row r="3" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>703</v>
@@ -16647,22 +16650,22 @@
         <v>646</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>549</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="K3" s="12" t="n">
         <v>128</v>
@@ -16671,15 +16674,15 @@
         <v>11</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>646</v>
@@ -16688,22 +16691,22 @@
         <v>646</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>549</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="K4" s="15" t="n">
         <v>128</v>
@@ -16712,36 +16715,36 @@
         <v>11</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>703</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>549</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="J5" s="10" t="s">
         <v>654</v>
@@ -16753,36 +16756,36 @@
         <v>11</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>703</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>549</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="J6" s="13" t="s">
         <v>654</v>
@@ -16794,7 +16797,7 @@
         <v>11</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
   </sheetData>
@@ -16849,7 +16852,7 @@
         <v>49</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>517</v>
@@ -16864,7 +16867,7 @@
         <v>518</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>519</v>
@@ -16902,19 +16905,19 @@
     </row>
     <row r="2" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>112</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>67</v>
@@ -16953,24 +16956,24 @@
         <v>554</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>112</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>67</v>
@@ -16979,16 +16982,16 @@
         <v>67</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="J3" s="13" t="s">
         <v>532</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>67</v>
@@ -17012,19 +17015,19 @@
     </row>
     <row r="4" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>112</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>67</v>
@@ -17033,7 +17036,7 @@
         <v>67</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>632</v>
@@ -17066,31 +17069,31 @@
     </row>
     <row r="5" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>112</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="G5" s="14" t="n">
         <v>500</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>67</v>
@@ -17099,13 +17102,13 @@
         <v>600</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="O5" s="13" t="s">
         <v>697</v>
@@ -17120,19 +17123,19 @@
     </row>
     <row r="6" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>112</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>67</v>
@@ -17150,7 +17153,7 @@
         <v>532</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="L6" s="12" t="n">
         <v>195</v>
@@ -17159,7 +17162,7 @@
         <v>90</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="O6" s="10" t="s">
         <v>697</v>
@@ -17174,19 +17177,19 @@
     </row>
     <row r="7" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>112</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>67</v>
@@ -17195,10 +17198,10 @@
         <v>67</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="J7" s="13" t="s">
         <v>532</v>
@@ -17213,7 +17216,7 @@
         <v>90</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="O7" s="13" t="s">
         <v>697</v>

--- a/project_overview.xlsx
+++ b/project_overview.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Export Summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -1847,7 +1847,7 @@
     <t xml:space="preserve">[10 30 50]</t>
   </si>
   <si>
-    <t xml:space="preserve">'</t>
+    <t xml:space="preserve">antiSquare_single_conv</t>
   </si>
   <si>
     <t xml:space="preserve">all the odd orders converge starting add 11 orders; even orders always deviate</t>
@@ -1911,7 +1911,7 @@
     <t xml:space="preserve">antiwire_single_ob_3</t>
   </si>
   <si>
-    <t xml:space="preserve">linspace(0,45,23)</t>
+    <t xml:space="preserve">[0 2.045 4.091 6.136 8.182 10.227 12.273 14.318 16.364 18.409 20.455 22.500 24.545 26.591 28.636 30.682 32.727 34.773 36.818 38.864 40.909 42.955 45.000]</t>
   </si>
   <si>
     <t xml:space="preserve">Bar_single_4</t>
@@ -3929,7 +3929,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>207360</xdr:colOff>
+      <xdr:colOff>207000</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>31680</xdr:rowOff>
     </xdr:to>
@@ -3941,7 +3941,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="3029040" cy="526680"/>
+          <a:ext cx="3028680" cy="526680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3994,7 +3994,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>207360</xdr:colOff>
+      <xdr:colOff>207000</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>15120</xdr:rowOff>
     </xdr:to>
@@ -4006,7 +4006,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="7247880"/>
-          <a:ext cx="3029040" cy="526680"/>
+          <a:ext cx="3028680" cy="526680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4064,7 +4064,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>44280</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>108</xdr:row>
       <xdr:rowOff>75960</xdr:rowOff>
     </xdr:to>
@@ -4076,7 +4076,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="60120" y="16951680"/>
-          <a:ext cx="6333480" cy="952200"/>
+          <a:ext cx="6333120" cy="952200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4129,7 +4129,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>91080</xdr:colOff>
+      <xdr:colOff>90720</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>129240</xdr:rowOff>
     </xdr:to>
@@ -4141,7 +4141,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="60120" y="0"/>
-          <a:ext cx="7085520" cy="952200"/>
+          <a:ext cx="7085160" cy="952200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4199,7 +4199,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>259920</xdr:colOff>
+      <xdr:colOff>259560</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>126720</xdr:rowOff>
     </xdr:to>
@@ -4211,7 +4211,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4492800" cy="952200"/>
+          <a:ext cx="4492440" cy="952200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4264,7 +4264,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>259920</xdr:colOff>
+      <xdr:colOff>259560</xdr:colOff>
       <xdr:row>114</xdr:row>
       <xdr:rowOff>160200</xdr:rowOff>
     </xdr:to>
@@ -4276,7 +4276,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="18454680"/>
-          <a:ext cx="4492800" cy="526680"/>
+          <a:ext cx="4492440" cy="526680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4329,7 +4329,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>259920</xdr:colOff>
+      <xdr:colOff>259560</xdr:colOff>
       <xdr:row>134</xdr:row>
       <xdr:rowOff>88560</xdr:rowOff>
     </xdr:to>
@@ -4341,7 +4341,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="21684960"/>
-          <a:ext cx="4492800" cy="526680"/>
+          <a:ext cx="4492440" cy="526680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4772,12 +4772,12 @@
   </sheetPr>
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+      <selection pane="bottomRight" activeCell="K44" activeCellId="0" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7507,10 +7507,10 @@
   <dimension ref="A1:P1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
       <selection pane="bottomRight" activeCell="H29" activeCellId="0" sqref="H29"/>
     </sheetView>
   </sheetViews>
@@ -9278,10 +9278,10 @@
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
       <selection pane="bottomRight" activeCell="Q2" activeCellId="0" sqref="Q2"/>
     </sheetView>
   </sheetViews>
@@ -11155,11 +11155,11 @@
   </sheetPr>
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
       <selection pane="bottomRight" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -13756,7 +13756,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="N19" activeCellId="0" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/project_overview.xlsx
+++ b/project_overview.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Export Summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -1911,7 +1911,7 @@
     <t xml:space="preserve">antiwire_single_ob_3</t>
   </si>
   <si>
-    <t xml:space="preserve">[0 2.045 4.091 6.136 8.182 10.227 12.273 14.318 16.364 18.409 20.455 22.500 24.545 26.591 28.636 30.682 32.727 34.773 36.818 38.864 40.909 42.955 45.000]</t>
+    <t xml:space="preserve">0 2.045 4.091 6.136 8.182 10.227 12.273 14.318 16.364 18.409 20.455 22.500 24.545 26.591 28.636 30.682 32.727 34.773 36.818 38.864 40.909 42.955 45.000</t>
   </si>
   <si>
     <t xml:space="preserve">Bar_single_4</t>
@@ -2733,7 +2733,7 @@
     <t xml:space="preserve">Chi_RotWire_1_rounded_Ti_j</t>
   </si>
   <si>
-    <t xml:space="preserve">Chi_RotWire_1_rounded_Ti_k</t>
+    <t xml:space="preserve">skipChi_RotWire_1_rounded_Ti_k</t>
   </si>
   <si>
     <t xml:space="preserve">245</t>
@@ -2742,7 +2742,7 @@
     <t xml:space="preserve">70</t>
   </si>
   <si>
-    <t xml:space="preserve">Chi_RotWire_1_rounded_Ti_l</t>
+    <t xml:space="preserve">skipChi_RotWire_1_rounded_Ti_l</t>
   </si>
   <si>
     <t xml:space="preserve">240, 245, 250</t>
@@ -3929,7 +3929,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>207000</xdr:colOff>
+      <xdr:colOff>206640</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>31680</xdr:rowOff>
     </xdr:to>
@@ -3941,7 +3941,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="3028680" cy="526680"/>
+          <a:ext cx="3028320" cy="526680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3994,7 +3994,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>207000</xdr:colOff>
+      <xdr:colOff>206640</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>15120</xdr:rowOff>
     </xdr:to>
@@ -4006,7 +4006,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="7247880"/>
-          <a:ext cx="3028680" cy="526680"/>
+          <a:ext cx="3028320" cy="526680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4064,7 +4064,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>108</xdr:row>
       <xdr:rowOff>75960</xdr:rowOff>
     </xdr:to>
@@ -4076,7 +4076,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="60120" y="16951680"/>
-          <a:ext cx="6333120" cy="952200"/>
+          <a:ext cx="6332760" cy="952200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4129,7 +4129,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>90720</xdr:colOff>
+      <xdr:colOff>90360</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>129240</xdr:rowOff>
     </xdr:to>
@@ -4141,7 +4141,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="60120" y="0"/>
-          <a:ext cx="7085160" cy="952200"/>
+          <a:ext cx="7084800" cy="952200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4199,7 +4199,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>259560</xdr:colOff>
+      <xdr:colOff>259200</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>126720</xdr:rowOff>
     </xdr:to>
@@ -4211,7 +4211,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4492440" cy="952200"/>
+          <a:ext cx="4492080" cy="952200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4264,7 +4264,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>259560</xdr:colOff>
+      <xdr:colOff>259200</xdr:colOff>
       <xdr:row>114</xdr:row>
       <xdr:rowOff>160200</xdr:rowOff>
     </xdr:to>
@@ -4276,7 +4276,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="18454680"/>
-          <a:ext cx="4492440" cy="526680"/>
+          <a:ext cx="4492080" cy="526680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4329,7 +4329,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>259560</xdr:colOff>
+      <xdr:colOff>259200</xdr:colOff>
       <xdr:row>134</xdr:row>
       <xdr:rowOff>88560</xdr:rowOff>
     </xdr:to>
@@ -4341,7 +4341,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="21684960"/>
-          <a:ext cx="4492440" cy="526680"/>
+          <a:ext cx="4492080" cy="526680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4772,12 +4772,12 @@
   </sheetPr>
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
-      <selection pane="bottomRight" activeCell="K44" activeCellId="0" sqref="K44"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11155,12 +11155,12 @@
   </sheetPr>
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
-      <selection pane="bottomRight" activeCell="A22" activeCellId="0" sqref="A22"/>
+      <selection pane="bottomLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21870,9 +21870,9 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="T1" activeCellId="0" sqref="T1"/>
+      <selection pane="topRight" activeCell="R1" activeCellId="0" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
       <selection pane="bottomRight" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>

--- a/project_overview.xlsx
+++ b/project_overview.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Export Summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4002" uniqueCount="1119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3998" uniqueCount="1116">
   <si>
     <t xml:space="preserve">This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -2037,19 +2037,34 @@
     <t xml:space="preserve">[149 159 188]</t>
   </si>
   <si>
-    <t xml:space="preserve">SF_wire_ALL_ORD_4</t>
+    <t xml:space="preserve">SF_wire_ALL_ORD_4skip</t>
   </si>
   <si>
     <t xml:space="preserve">air</t>
   </si>
   <si>
-    <t xml:space="preserve">skip1000</t>
-  </si>
-  <si>
     <t xml:space="preserve">zeroth order only!</t>
   </si>
   <si>
-    <t xml:space="preserve">SF_wire_ALL_ORD_final</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">SF_wire_ALL_ORD_final</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">skip</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">[185, 275, 385]</t>
@@ -2073,13 +2088,28 @@
     <t xml:space="preserve">max thresh layer</t>
   </si>
   <si>
-    <t xml:space="preserve">SF_wire_SASA_test1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SF_wire_SASA_test2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skip500</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">SF_wire_SASA_test1</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">skip</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">SF_wire_SASA_test2skip</t>
   </si>
   <si>
     <t xml:space="preserve">SF_wire_SASA_test3</t>
@@ -2733,7 +2763,7 @@
     <t xml:space="preserve">Chi_RotWire_1_rounded_Ti_j</t>
   </si>
   <si>
-    <t xml:space="preserve">skipChi_RotWire_1_rounded_Ti_k</t>
+    <t xml:space="preserve">Chi_RotWire_1_rounded_Ti_k</t>
   </si>
   <si>
     <t xml:space="preserve">245</t>
@@ -2754,7 +2784,7 @@
     <t xml:space="preserve">50, 55, 60</t>
   </si>
   <si>
-    <t xml:space="preserve">Chi_RotWire_1_rounded_Ti_m</t>
+    <t xml:space="preserve">skipChi_RotWire_1_rounded_Ti_m</t>
   </si>
   <si>
     <t xml:space="preserve">240, 242.5, 245</t>
@@ -3450,9 +3480,6 @@
     <t xml:space="preserve">HyperSpec_Agri_Squares_2</t>
   </si>
   <si>
-    <t xml:space="preserve">period</t>
-  </si>
-  <si>
     <t xml:space="preserve">HyperVis_au_square_holes_1</t>
   </si>
   <si>
@@ -3468,7 +3495,23 @@
     <t xml:space="preserve">0.5 …  1</t>
   </si>
   <si>
-    <t xml:space="preserve">accidentally set ordbool to true!</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">accidentally set ordbool to true!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">250:50:500</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">HyperVis_al_square_holes_1</t>
@@ -3586,7 +3629,7 @@
     <numFmt numFmtId="169" formatCode="#,##0"/>
     <numFmt numFmtId="170" formatCode="HH:MM"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3656,6 +3699,12 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+    </font>
+    <font>
       <i val="true"/>
       <sz val="10"/>
       <name val="Cambria"/>
@@ -3668,6 +3717,11 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Cambria"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3737,7 +3791,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3842,8 +3896,16 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -4773,10 +4835,10 @@
   <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
       <selection pane="bottomRight" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -6733,7 +6795,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L2" activeCellId="0" sqref="L2"/>
+      <selection pane="bottomRight" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7011,8 +7073,8 @@
       <c r="G6" s="10" t="s">
         <v>619</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>660</v>
+      <c r="H6" s="12" t="n">
+        <v>1000</v>
       </c>
       <c r="I6" s="12" t="n">
         <v>682</v>
@@ -7033,12 +7095,12 @@
         <v>554</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>645</v>
@@ -7050,7 +7112,7 @@
         <v>659</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>618</v>
@@ -7058,8 +7120,8 @@
       <c r="G7" s="13" t="s">
         <v>619</v>
       </c>
-      <c r="H7" s="15" t="s">
-        <v>660</v>
+      <c r="H7" s="15" t="n">
+        <v>1000</v>
       </c>
       <c r="I7" s="15" t="n">
         <v>704</v>
@@ -7085,7 +7147,7 @@
     </row>
     <row r="8" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>645</v>
@@ -7100,10 +7162,10 @@
         <v>67</v>
       </c>
       <c r="F8" s="10" t="s">
+        <v>664</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>665</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>666</v>
       </c>
       <c r="H8" s="12" t="n">
         <v>1000</v>
@@ -7128,7 +7190,7 @@
     </row>
     <row r="9" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>645</v>
@@ -7143,10 +7205,10 @@
         <v>67</v>
       </c>
       <c r="F9" s="13" t="s">
+        <v>664</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>665</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>666</v>
       </c>
       <c r="H9" s="15" t="n">
         <v>1000</v>
@@ -7171,7 +7233,7 @@
     </row>
     <row r="10" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>645</v>
@@ -7186,10 +7248,10 @@
         <v>67</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H10" s="12" t="n">
         <v>1000</v>
@@ -7214,7 +7276,7 @@
     </row>
     <row r="11" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>645</v>
@@ -7234,8 +7296,8 @@
       <c r="G11" s="13" t="s">
         <v>619</v>
       </c>
-      <c r="H11" s="15" t="s">
-        <v>660</v>
+      <c r="H11" s="15" t="n">
+        <v>1000</v>
       </c>
       <c r="I11" s="15" t="n">
         <v>682</v>
@@ -7258,8 +7320,8 @@
       <c r="O11" s="14"/>
     </row>
     <row r="12" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
-        <v>671</v>
+      <c r="A12" s="19" t="s">
+        <v>670</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>645</v>
@@ -7279,8 +7341,8 @@
       <c r="G12" s="10" t="s">
         <v>619</v>
       </c>
-      <c r="H12" s="12" t="s">
-        <v>672</v>
+      <c r="H12" s="12" t="n">
+        <v>500</v>
       </c>
       <c r="I12" s="12" t="n">
         <v>341</v>
@@ -7304,7 +7366,7 @@
     </row>
     <row r="13" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>645</v>
@@ -7406,7 +7468,7 @@
         <v>52</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>425</v>
@@ -7415,10 +7477,10 @@
         <v>492</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>107</v>
@@ -7427,16 +7489,16 @@
         <v>177</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>61</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="P1" s="8" t="s">
         <v>62</v>
@@ -7444,13 +7506,13 @@
     </row>
     <row r="2" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>112</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>94</v>
@@ -7465,16 +7527,16 @@
         <v>532</v>
       </c>
       <c r="H2" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>682</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>683</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>684</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>685</v>
       </c>
       <c r="L2" s="12" t="n">
         <v>64</v>
@@ -7485,7 +7547,7 @@
       <c r="N2" s="12"/>
       <c r="O2" s="17"/>
       <c r="P2" s="10" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
   </sheetData>
@@ -7548,31 +7610,31 @@
         <v>52</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>687</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>675</v>
-      </c>
-      <c r="G1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>688</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>689</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>690</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>107</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>432</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>61</v>
@@ -7586,7 +7648,7 @@
     </row>
     <row r="2" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>645</v>
@@ -7595,29 +7657,29 @@
         <v>646</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>693</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>692</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>694</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>695</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>696</v>
       </c>
       <c r="K2" s="10"/>
       <c r="L2" s="10" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M2" s="12" t="n">
         <v>64</v>
@@ -7626,7 +7688,7 @@
         <v>19</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>646</v>
@@ -7634,7 +7696,7 @@
     </row>
     <row r="3" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>645</v>
@@ -7643,13 +7705,13 @@
         <v>646</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E3" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>692</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>694</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>67</v>
@@ -7661,11 +7723,11 @@
         <v>445</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="K3" s="13"/>
       <c r="L3" s="13" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M3" s="15" t="n">
         <v>64</v>
@@ -7674,7 +7736,7 @@
         <v>43112.4340277778</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>646</v>
@@ -7682,38 +7744,38 @@
     </row>
     <row r="4" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>702</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="D4" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>703</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="J4" s="10" t="s">
         <v>704</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>693</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>692</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>694</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>705</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>706</v>
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="10" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M4" s="12" t="n">
         <v>256</v>
@@ -7722,30 +7784,30 @@
         <v>19</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E5" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>692</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>694</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>67</v>
@@ -7757,11 +7819,11 @@
         <v>445</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="13" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M5" s="15" t="n">
         <v>512</v>
@@ -7770,30 +7832,30 @@
         <v>15</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E6" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>692</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>694</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>67</v>
@@ -7805,11 +7867,11 @@
         <v>445</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="K6" s="10"/>
       <c r="L6" s="10" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M6" s="12" t="n">
         <v>2</v>
@@ -7818,46 +7880,46 @@
         <v>43112.7666666667</v>
       </c>
       <c r="O6" s="24" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>701</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>702</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="13" t="s">
         <v>703</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="J7" s="13" t="s">
         <v>704</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>693</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>692</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>694</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>705</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>706</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="13" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M7" s="15" t="n">
         <v>512</v>
@@ -7866,46 +7928,46 @@
         <v>15</v>
       </c>
       <c r="O7" s="13" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>712</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>703</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>714</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>693</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>692</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>694</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>705</v>
-      </c>
       <c r="J8" s="10" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="K8" s="10"/>
       <c r="L8" s="10" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M8" s="12" t="n">
         <v>512</v>
@@ -7914,7 +7976,7 @@
         <v>15</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>646</v>
@@ -7922,38 +7984,38 @@
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>646</v>
       </c>
       <c r="D9" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="13" t="s">
         <v>693</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>692</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>694</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>695</v>
-      </c>
       <c r="J9" s="13" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="K9" s="13"/>
       <c r="L9" s="13" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M9" s="15" t="n">
         <v>512</v>
@@ -7962,46 +8024,46 @@
         <v>15</v>
       </c>
       <c r="O9" s="13" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="59.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>702</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="10" t="s">
         <v>703</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>704</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>693</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>692</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>694</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>705</v>
-      </c>
       <c r="J10" s="10" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="K10" s="10"/>
       <c r="L10" s="10" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M10" s="15" t="n">
         <v>64</v>
@@ -8010,10 +8072,10 @@
         <v>15</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="33" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8035,38 +8097,38 @@
     </row>
     <row r="12" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>701</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>702</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="13" t="s">
         <v>703</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>704</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>693</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>692</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>694</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>705</v>
-      </c>
       <c r="J12" s="13" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="K12" s="13"/>
       <c r="L12" s="13" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M12" s="15" t="n">
         <v>64</v>
@@ -8075,48 +8137,48 @@
         <v>15</v>
       </c>
       <c r="O12" s="13" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>702</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="K13" s="10" t="s">
         <v>721</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>703</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>704</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>693</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>692</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>694</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>705</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>722</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>723</v>
-      </c>
       <c r="L13" s="10" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M13" s="15" t="n">
         <v>64</v>
@@ -8125,31 +8187,31 @@
         <v>15</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E14" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>692</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>694</v>
-      </c>
       <c r="G14" s="13" t="s">
         <v>67</v>
       </c>
@@ -8157,16 +8219,16 @@
         <v>67</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M14" s="15" t="n">
         <v>64</v>
@@ -8175,48 +8237,48 @@
         <v>15</v>
       </c>
       <c r="O14" s="13" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>702</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>726</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="J15" s="10" t="s">
         <v>727</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>703</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>704</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>693</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>728</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>694</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>705</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>729</v>
-      </c>
       <c r="K15" s="10" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M15" s="15" t="n">
         <v>64</v>
@@ -8225,48 +8287,48 @@
         <v>15</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
+        <v>728</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>701</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>702</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>726</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>729</v>
+      </c>
+      <c r="K16" s="13" t="s">
         <v>730</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>704</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>693</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>728</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>694</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>705</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>731</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>732</v>
-      </c>
       <c r="L16" s="13" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M16" s="15" t="n">
         <v>512</v>
@@ -8275,15 +8337,15 @@
         <v>19</v>
       </c>
       <c r="O16" s="13" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>645</v>
@@ -8292,29 +8354,29 @@
         <v>646</v>
       </c>
       <c r="D17" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>732</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="10" t="s">
         <v>693</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="J17" s="10" t="s">
         <v>734</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>735</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>695</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>736</v>
       </c>
       <c r="K17" s="10"/>
       <c r="L17" s="10" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M17" s="12" t="n">
         <v>64</v>
@@ -8323,7 +8385,7 @@
         <v>23</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="P17" s="6" t="s">
         <v>646</v>
@@ -8331,7 +8393,7 @@
     </row>
     <row r="18" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>645</v>
@@ -8340,13 +8402,13 @@
         <v>646</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>67</v>
@@ -8355,14 +8417,14 @@
         <v>67</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="K18" s="13"/>
       <c r="L18" s="13" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M18" s="15" t="n">
         <v>64</v>
@@ -8371,7 +8433,7 @@
         <v>43112.4340277778</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="P18" s="6" t="s">
         <v>646</v>
@@ -8379,22 +8441,22 @@
     </row>
     <row r="19" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>67</v>
@@ -8406,11 +8468,11 @@
         <v>445</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="K19" s="10"/>
       <c r="L19" s="10" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M19" s="12" t="n">
         <v>512</v>
@@ -8419,46 +8481,46 @@
         <v>15</v>
       </c>
       <c r="O19" s="10" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="P19" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B20" s="13" t="s">
+        <v>701</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>702</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>737</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>733</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="13" t="s">
         <v>703</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>704</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>693</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>739</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>735</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>705</v>
-      </c>
       <c r="J20" s="13" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="K20" s="13"/>
       <c r="L20" s="13" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M20" s="15" t="n">
         <v>512</v>
@@ -8467,30 +8529,30 @@
         <v>15</v>
       </c>
       <c r="O20" s="13" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>646</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>67</v>
@@ -8499,14 +8561,14 @@
         <v>67</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="K21" s="10"/>
       <c r="L21" s="10" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M21" s="12" t="n">
         <v>512</v>
@@ -8515,7 +8577,7 @@
         <v>15</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="P21" s="6" t="s">
         <v>646</v>
@@ -8523,38 +8585,38 @@
     </row>
     <row r="22" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B22" s="13" t="s">
+        <v>701</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>702</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>737</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>733</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" s="13" t="s">
         <v>703</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>704</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>693</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>739</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>735</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>705</v>
-      </c>
       <c r="J22" s="13" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="K22" s="13"/>
       <c r="L22" s="13" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M22" s="15" t="n">
         <v>512</v>
@@ -8563,30 +8625,30 @@
         <v>22</v>
       </c>
       <c r="O22" s="13" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>646</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>67</v>
@@ -8595,14 +8657,14 @@
         <v>67</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="K23" s="10"/>
       <c r="L23" s="10" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M23" s="12" t="n">
         <v>512</v>
@@ -8611,46 +8673,46 @@
         <v>15</v>
       </c>
       <c r="O23" s="10" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B24" s="13" t="s">
+        <v>701</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>702</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>737</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>733</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" s="13" t="s">
         <v>703</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>704</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>693</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>739</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>735</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>705</v>
-      </c>
       <c r="J24" s="13" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="K24" s="13"/>
       <c r="L24" s="13" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M24" s="15" t="n">
         <v>64</v>
@@ -8659,46 +8721,46 @@
         <v>15</v>
       </c>
       <c r="O24" s="13" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B25" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>702</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I25" s="10" t="s">
         <v>703</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>704</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>693</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>750</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>735</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>705</v>
-      </c>
       <c r="J25" s="10" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="K25" s="10"/>
       <c r="L25" s="10" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M25" s="15" t="n">
         <v>64</v>
@@ -8707,48 +8769,48 @@
         <v>15</v>
       </c>
       <c r="O25" s="10" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="P25" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B26" s="13" t="s">
+        <v>701</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>702</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>737</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>733</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I26" s="13" t="s">
         <v>703</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>704</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>693</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>739</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>735</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>705</v>
-      </c>
       <c r="J26" s="13" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="L26" s="13" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M26" s="15" t="n">
         <v>64</v>
@@ -8757,48 +8819,48 @@
         <v>15</v>
       </c>
       <c r="O26" s="13" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>702</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>752</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I27" s="10" t="s">
         <v>703</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>704</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>693</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>754</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>735</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>705</v>
-      </c>
       <c r="J27" s="10" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M27" s="15" t="n">
         <v>64</v>
@@ -8807,46 +8869,46 @@
         <v>15</v>
       </c>
       <c r="O27" s="10" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B28" s="13" t="s">
+        <v>701</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>702</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>752</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>733</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I28" s="13" t="s">
         <v>703</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>704</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>693</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>754</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>735</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>705</v>
-      </c>
       <c r="J28" s="13" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="K28" s="13"/>
       <c r="L28" s="13" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M28" s="15" t="n">
         <v>512</v>
@@ -8855,42 +8917,42 @@
         <v>22</v>
       </c>
       <c r="O28" s="13" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="P28" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
       <c r="I29" s="13" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="K29" s="13"/>
       <c r="L29" s="13" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M29" s="15" t="n">
         <v>512</v>
@@ -8899,15 +8961,15 @@
         <v>22</v>
       </c>
       <c r="O29" s="13" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="P29" s="6" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>645</v>
@@ -8922,13 +8984,13 @@
         <v>619</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="I30" s="13" t="s">
         <v>67</v>
@@ -8938,7 +9000,7 @@
       </c>
       <c r="K30" s="13"/>
       <c r="L30" s="13" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M30" s="15" t="n">
         <v>64</v>
@@ -8947,43 +9009,43 @@
         <v>10</v>
       </c>
       <c r="O30" s="13" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>702</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>761</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>762</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>703</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>704</v>
-      </c>
-      <c r="D31" s="10" t="s">
+      <c r="F31" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="G31" s="10" t="s">
         <v>763</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="H31" s="10" t="s">
         <v>764</v>
       </c>
-      <c r="F31" s="10" t="s">
-        <v>694</v>
-      </c>
-      <c r="G31" s="10" t="s">
+      <c r="I31" s="10" t="s">
         <v>765</v>
       </c>
-      <c r="H31" s="10" t="s">
-        <v>766</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>767</v>
-      </c>
       <c r="J31" s="10" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="K31" s="10"/>
       <c r="L31" s="10" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M31" s="12" t="n">
         <v>512</v>
@@ -8992,15 +9054,15 @@
         <v>15</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>645</v>
@@ -9015,23 +9077,23 @@
         <v>619</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G32" s="13" t="s">
+        <v>768</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>769</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J32" s="13" t="s">
         <v>770</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>771</v>
-      </c>
-      <c r="I32" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="J32" s="13" t="s">
-        <v>772</v>
       </c>
       <c r="K32" s="13"/>
       <c r="L32" s="13" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M32" s="15" t="n">
         <v>64</v>
@@ -9040,46 +9102,46 @@
         <v>12</v>
       </c>
       <c r="O32" s="13" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P32" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
+        <v>771</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>702</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>772</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>762</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="G33" s="10" t="s">
         <v>773</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>703</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>704</v>
-      </c>
-      <c r="D33" s="10" t="s">
+      <c r="H33" s="10" t="s">
         <v>774</v>
       </c>
-      <c r="E33" s="10" t="s">
-        <v>764</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>735</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>775</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>776</v>
-      </c>
       <c r="I33" s="10" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="K33" s="10"/>
       <c r="L33" s="10" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M33" s="15" t="n">
         <v>64</v>
@@ -9088,46 +9150,46 @@
         <v>15</v>
       </c>
       <c r="O33" s="10" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="P33" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
+        <v>775</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>701</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>702</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>772</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>762</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>733</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>776</v>
+      </c>
+      <c r="H34" s="13" t="s">
         <v>777</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>704</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>774</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>764</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>735</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>778</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>779</v>
       </c>
       <c r="I34" s="13" t="s">
         <v>485</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="K34" s="13"/>
       <c r="L34" s="13" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M34" s="15" t="n">
         <v>64</v>
@@ -9136,46 +9198,46 @@
         <v>15</v>
       </c>
       <c r="O34" s="13" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="P34" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
+        <v>778</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>702</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>779</v>
+      </c>
+      <c r="E35" s="10" t="s">
         <v>780</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>703</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>704</v>
-      </c>
-      <c r="D35" s="10" t="s">
+      <c r="F35" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="G35" s="10" t="s">
         <v>781</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="H35" s="10" t="s">
         <v>782</v>
       </c>
-      <c r="F35" s="10" t="s">
-        <v>735</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>783</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>784</v>
-      </c>
       <c r="I35" s="10" t="s">
         <v>67</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="K35" s="10"/>
       <c r="L35" s="10" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M35" s="15" t="n">
         <v>64</v>
@@ -9184,46 +9246,46 @@
         <v>43185.5166666667</v>
       </c>
       <c r="O35" s="10" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="P35" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
+        <v>784</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>701</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>702</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>779</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>780</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>733</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>785</v>
+      </c>
+      <c r="H36" s="13" t="s">
         <v>786</v>
       </c>
-      <c r="B36" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>704</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>781</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>782</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>735</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>787</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>788</v>
-      </c>
       <c r="I36" s="13" t="s">
         <v>67</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="K36" s="13"/>
       <c r="L36" s="13" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M36" s="15" t="n">
         <v>64</v>
@@ -9233,7 +9295,7 @@
       </c>
       <c r="O36" s="14"/>
       <c r="P36" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9255,7 +9317,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D40" s="6" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -9329,7 +9391,7 @@
         <v>110</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>425</v>
@@ -9347,7 +9409,7 @@
         <v>523</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="O1" s="8" t="s">
         <v>524</v>
@@ -9416,7 +9478,7 @@
         <v>67</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="R2" s="12" t="n">
         <v>64</v>
@@ -9461,7 +9523,7 @@
         <v>195</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="M3" s="13"/>
       <c r="N3" s="15" t="n">
@@ -9474,7 +9536,7 @@
         <v>67</v>
       </c>
       <c r="Q3" s="13" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="R3" s="15" t="n">
         <v>64</v>
@@ -9486,7 +9548,7 @@
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>112</v>
@@ -9532,7 +9594,7 @@
         <v>67</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="R4" s="12" t="n">
         <v>64</v>
@@ -9544,7 +9606,7 @@
     </row>
     <row r="5" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>112</v>
@@ -9556,7 +9618,7 @@
         <v>1.42</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F5" s="15" t="n">
         <v>0</v>
@@ -9568,7 +9630,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>532</v>
@@ -9586,13 +9648,13 @@
         <v>100</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="P5" s="13" t="s">
         <v>67</v>
       </c>
       <c r="Q5" s="13" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="R5" s="15" t="n">
         <v>64</v>
@@ -9604,7 +9666,7 @@
     </row>
     <row r="6" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>112</v>
@@ -9619,19 +9681,19 @@
         <v>134</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="H6" s="12" t="n">
         <v>2</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="K6" s="12" t="n">
         <v>600</v>
@@ -9652,7 +9714,7 @@
         <v>67</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="R6" s="12" t="n">
         <v>128</v>
@@ -9661,12 +9723,12 @@
         <v>12</v>
       </c>
       <c r="T6" s="10" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>112</v>
@@ -9681,19 +9743,19 @@
         <v>134</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="H7" s="15" t="n">
         <v>2</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="K7" s="15" t="n">
         <v>600</v>
@@ -9714,7 +9776,7 @@
         <v>67</v>
       </c>
       <c r="Q7" s="13" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="R7" s="15" t="n">
         <v>128</v>
@@ -9723,12 +9785,12 @@
         <v>12</v>
       </c>
       <c r="T7" s="13" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>112</v>
@@ -9743,19 +9805,19 @@
         <v>134</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="H8" s="12" t="n">
         <v>2</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="K8" s="12" t="n">
         <v>600</v>
@@ -9776,7 +9838,7 @@
         <v>67</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="R8" s="12" t="n">
         <v>128</v>
@@ -9785,12 +9847,12 @@
         <v>12</v>
       </c>
       <c r="T8" s="10" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>112</v>
@@ -9805,19 +9867,19 @@
         <v>134</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="H9" s="15" t="n">
         <v>2</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="K9" s="15" t="n">
         <v>600</v>
@@ -9838,7 +9900,7 @@
         <v>67</v>
       </c>
       <c r="Q9" s="13" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="R9" s="15" t="n">
         <v>128</v>
@@ -9847,7 +9909,7 @@
         <v>12</v>
       </c>
       <c r="T9" s="13" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9876,7 +9938,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="J10" s="10" t="s">
         <v>532</v>
@@ -9894,13 +9956,13 @@
         <v>100</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="P10" s="10" t="s">
         <v>67</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="R10" s="12" t="n">
         <v>64</v>
@@ -9909,7 +9971,7 @@
         <v>12</v>
       </c>
       <c r="T10" s="10" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9938,7 +10000,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="J11" s="13" t="s">
         <v>532</v>
@@ -9956,13 +10018,13 @@
         <v>100</v>
       </c>
       <c r="O11" s="13" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="P11" s="13" t="s">
         <v>67</v>
       </c>
       <c r="Q11" s="13" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="R11" s="15" t="n">
         <v>64</v>
@@ -9971,7 +10033,7 @@
         <v>12</v>
       </c>
       <c r="T11" s="13" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10000,7 +10062,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="J12" s="10" t="s">
         <v>532</v>
@@ -10018,13 +10080,13 @@
         <v>150</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="P12" s="10" t="s">
         <v>67</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="R12" s="12" t="n">
         <v>64</v>
@@ -10033,7 +10095,7 @@
         <v>12</v>
       </c>
       <c r="T12" s="10" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10062,7 +10124,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="J13" s="13" t="s">
         <v>532</v>
@@ -10080,13 +10142,13 @@
         <v>150</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="P13" s="13" t="s">
         <v>67</v>
       </c>
       <c r="Q13" s="13" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="R13" s="15" t="n">
         <v>128</v>
@@ -10095,7 +10157,7 @@
         <v>12</v>
       </c>
       <c r="T13" s="13" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10124,7 +10186,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="J14" s="10" t="s">
         <v>532</v>
@@ -10142,13 +10204,13 @@
         <v>150</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="P14" s="10" t="s">
         <v>67</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="R14" s="12" t="n">
         <v>128</v>
@@ -10157,7 +10219,7 @@
         <v>12</v>
       </c>
       <c r="T14" s="10" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10186,7 +10248,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="J15" s="13" t="s">
         <v>532</v>
@@ -10204,13 +10266,13 @@
         <v>150</v>
       </c>
       <c r="O15" s="13" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="P15" s="13" t="s">
         <v>67</v>
       </c>
       <c r="Q15" s="13" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="R15" s="15" t="n">
         <v>256</v>
@@ -10219,7 +10281,7 @@
         <v>12</v>
       </c>
       <c r="T15" s="13" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10248,7 +10310,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="J16" s="10" t="s">
         <v>532</v>
@@ -10266,13 +10328,13 @@
         <v>150</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="P16" s="10" t="s">
         <v>67</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="R16" s="12" t="n">
         <v>256</v>
@@ -10281,7 +10343,7 @@
         <v>12</v>
       </c>
       <c r="T16" s="10" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10310,7 +10372,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="J17" s="13" t="s">
         <v>532</v>
@@ -10328,13 +10390,13 @@
         <v>150</v>
       </c>
       <c r="O17" s="13" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="P17" s="13" t="s">
         <v>67</v>
       </c>
       <c r="Q17" s="13" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="R17" s="15" t="n">
         <v>256</v>
@@ -10343,7 +10405,7 @@
         <v>12</v>
       </c>
       <c r="T17" s="13" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10390,7 +10452,7 @@
         <v>67</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="R18" s="12" t="n">
         <v>64</v>
@@ -10446,7 +10508,7 @@
         <v>163</v>
       </c>
       <c r="Q19" s="13" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="R19" s="15" t="n">
         <v>64</v>
@@ -10502,7 +10564,7 @@
         <v>67</v>
       </c>
       <c r="Q20" s="10" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="R20" s="12" t="n">
         <v>64</v>
@@ -10522,7 +10584,7 @@
         <v>285</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>313</v>
@@ -10558,7 +10620,7 @@
         <v>67</v>
       </c>
       <c r="Q21" s="13" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="R21" s="15" t="n">
         <v>64</v>
@@ -10614,7 +10676,7 @@
         <v>67</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="R22" s="12" t="n">
         <v>64</v>
@@ -10672,7 +10734,7 @@
         <v>67</v>
       </c>
       <c r="Q23" s="13" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="R23" s="15" t="n">
         <v>64</v>
@@ -10686,7 +10748,7 @@
     </row>
     <row r="24" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>112</v>
@@ -10732,7 +10794,7 @@
     </row>
     <row r="25" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>112</v>
@@ -10778,7 +10840,7 @@
     </row>
     <row r="26" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>112</v>
@@ -10824,7 +10886,7 @@
     </row>
     <row r="27" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>112</v>
@@ -10870,7 +10932,7 @@
     </row>
     <row r="28" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>112</v>
@@ -10900,13 +10962,13 @@
         <v>532</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="N28" s="10"/>
       <c r="O28" s="10" t="s">
@@ -10916,7 +10978,7 @@
         <v>67</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="R28" s="12" t="n">
         <v>64</v>
@@ -10925,21 +10987,21 @@
         <v>10</v>
       </c>
       <c r="T28" s="10" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>465</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E29" s="13" t="s">
         <v>94</v>
@@ -10960,13 +11022,13 @@
         <v>532</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="N29" s="13"/>
       <c r="O29" s="13" t="s">
@@ -10976,7 +11038,7 @@
         <v>67</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="R29" s="15" t="n">
         <v>64</v>
@@ -10985,12 +11047,12 @@
         <v>10</v>
       </c>
       <c r="T29" s="13" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>112</v>
@@ -11020,13 +11082,13 @@
         <v>532</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="N30" s="10"/>
       <c r="O30" s="10" t="s">
@@ -11036,7 +11098,7 @@
         <v>67</v>
       </c>
       <c r="Q30" s="10" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="R30" s="12" t="n">
         <v>64</v>
@@ -11045,12 +11107,12 @@
         <v>10</v>
       </c>
       <c r="T30" s="10" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>112</v>
@@ -11080,23 +11142,23 @@
         <v>532</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="N31" s="13"/>
       <c r="O31" s="13" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="P31" s="13" t="s">
         <v>67</v>
       </c>
       <c r="Q31" s="13" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="R31" s="15" t="n">
         <v>64</v>
@@ -11105,7 +11167,7 @@
         <v>12</v>
       </c>
       <c r="T31" s="13" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
   </sheetData>
@@ -11155,12 +11217,12 @@
   </sheetPr>
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11232,13 +11294,13 @@
         <v>523</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>524</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>525</v>
@@ -11247,7 +11309,7 @@
         <v>495</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="P2" s="8" t="s">
         <v>62</v>
@@ -11255,7 +11317,7 @@
     </row>
     <row r="3" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>645</v>
@@ -11276,20 +11338,20 @@
         <v>400</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="10" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="L3" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N3" s="11" t="n">
         <v>1001</v>
@@ -11301,7 +11363,7 @@
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>645</v>
@@ -11313,10 +11375,10 @@
         <v>646</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G4" s="15" t="n">
         <v>400</v>
@@ -11331,13 +11393,13 @@
         <v>17.5</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="L4" s="13" t="s">
         <v>67</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N4" s="14" t="n">
         <v>512</v>
@@ -11346,12 +11408,12 @@
         <v>444</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>645</v>
@@ -11363,10 +11425,10 @@
         <v>646</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G5" s="12" t="n">
         <v>400</v>
@@ -11381,30 +11443,30 @@
         <v>17.5</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="L5" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N5" s="11" t="n">
         <v>512</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>646</v>
@@ -11413,10 +11475,10 @@
         <v>646</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G6" s="15" t="n">
         <v>400</v>
@@ -11431,13 +11493,13 @@
         <v>17.5</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="L6" s="13" t="s">
         <v>67</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N6" s="14" t="n">
         <v>512</v>
@@ -11446,12 +11508,12 @@
         <v>480</v>
       </c>
       <c r="P6" s="13" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>645</v>
@@ -11463,10 +11525,10 @@
         <v>646</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G7" s="12" t="n">
         <v>400</v>
@@ -11481,27 +11543,27 @@
         <v>17.5</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N7" s="11" t="n">
         <v>512</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>645</v>
@@ -11513,10 +11575,10 @@
         <v>646</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G8" s="15" t="n">
         <v>400</v>
@@ -11525,33 +11587,33 @@
         <v>235</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J8" s="25" t="n">
         <v>17.5</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N8" s="14" t="n">
         <v>512</v>
       </c>
       <c r="O8" s="13" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="P8" s="13" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>645</v>
@@ -11563,31 +11625,31 @@
         <v>646</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G9" s="12" t="n">
         <v>400</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="J9" s="17" t="n">
         <v>17.5</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N9" s="11" t="n">
         <v>512</v>
@@ -11596,12 +11658,12 @@
         <v>554</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>645</v>
@@ -11613,31 +11675,31 @@
         <v>646</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G10" s="15" t="n">
         <v>400</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="J10" s="25" t="n">
         <v>17.5</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N10" s="14" t="n">
         <v>512</v>
@@ -11646,12 +11708,12 @@
         <v>554</v>
       </c>
       <c r="P10" s="13" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>645</v>
@@ -11663,81 +11725,81 @@
         <v>646</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G11" s="12" t="n">
         <v>400</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="J11" s="17" t="n">
         <v>17.5</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N11" s="11" t="n">
         <v>512</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="P11" s="10" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
+        <v>856</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>857</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>858</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>859</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>860</v>
-      </c>
       <c r="D12" s="13" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G12" s="15" t="n">
         <v>400</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="J12" s="25" t="n">
         <v>17.5</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N12" s="14" t="n">
         <v>512</v>
@@ -11746,48 +11808,48 @@
         <v>554</v>
       </c>
       <c r="P12" s="13" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G13" s="12" t="n">
         <v>400</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="J13" s="17" t="n">
         <v>17.5</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N13" s="11" t="n">
         <v>512</v>
@@ -11796,48 +11858,48 @@
         <v>554</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G14" s="15" t="n">
         <v>400</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="J14" s="25" t="n">
         <v>17.5</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N14" s="14" t="n">
         <v>512</v>
@@ -11846,48 +11908,48 @@
         <v>554</v>
       </c>
       <c r="P14" s="13" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G15" s="12" t="n">
         <v>400</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="J15" s="17" t="n">
         <v>17.5</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N15" s="11" t="n">
         <v>512</v>
@@ -11896,48 +11958,48 @@
         <v>554</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G16" s="15" t="n">
         <v>400</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="J16" s="25" t="n">
         <v>17.5</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="M16" s="13" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N16" s="14" t="n">
         <v>512</v>
@@ -11946,48 +12008,48 @@
         <v>554</v>
       </c>
       <c r="P16" s="13" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G17" s="12" t="n">
         <v>400</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N17" s="14" t="n">
         <v>128</v>
@@ -11996,48 +12058,48 @@
         <v>554</v>
       </c>
       <c r="P17" s="10" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G18" s="15" t="n">
         <v>400</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="L18" s="13" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="M18" s="13" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N18" s="14" t="n">
         <v>64</v>
@@ -12046,48 +12108,48 @@
         <v>554</v>
       </c>
       <c r="P18" s="13" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G19" s="12" t="n">
         <v>400</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="J19" s="17" t="n">
         <v>25</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N19" s="14" t="n">
         <v>64</v>
@@ -12096,48 +12158,48 @@
         <v>554</v>
       </c>
       <c r="P19" s="10" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G20" s="15" t="n">
         <v>400</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="J20" s="25" t="n">
         <v>25</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="L20" s="13" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="M20" s="13" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N20" s="14" t="n">
         <v>64</v>
@@ -12146,48 +12208,48 @@
         <v>554</v>
       </c>
       <c r="P20" s="13" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G21" s="12" t="n">
         <v>400</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="J21" s="17" t="n">
         <v>25</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N21" s="14" t="n">
         <v>64</v>
@@ -12196,36 +12258,36 @@
         <v>554</v>
       </c>
       <c r="P21" s="10" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G22" s="15" t="n">
         <v>400</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="J22" s="25" t="n">
         <v>25</v>
@@ -12237,57 +12299,57 @@
         <v>67</v>
       </c>
       <c r="M22" s="13" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N22" s="14" t="n">
         <v>512</v>
       </c>
       <c r="O22" s="13" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="P22" s="13" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G23" s="15" t="n">
         <v>400</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="J23" s="25" t="n">
         <v>25</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="L23" s="13" t="s">
         <v>67</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N23" s="14" t="n">
         <v>64</v>
@@ -12296,12 +12358,12 @@
         <v>554</v>
       </c>
       <c r="P23" s="13" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>645</v>
@@ -12313,10 +12375,10 @@
         <v>646</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G24" s="15" t="n">
         <v>400</v>
@@ -12331,13 +12393,13 @@
         <v>17.5</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="L24" s="13" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="M24" s="13" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N24" s="14" t="n">
         <v>512</v>
@@ -12346,27 +12408,27 @@
         <v>444</v>
       </c>
       <c r="P24" s="13" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>645</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>646</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G25" s="12" t="n">
         <v>400</v>
@@ -12381,13 +12443,13 @@
         <v>17.5</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="L25" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N25" s="11" t="n">
         <v>512</v>
@@ -12396,12 +12458,12 @@
         <v>444</v>
       </c>
       <c r="P25" s="10" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>645</v>
@@ -12422,20 +12484,20 @@
         <v>400</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="J26" s="13"/>
       <c r="K26" s="13" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="L26" s="13" t="s">
         <v>67</v>
       </c>
       <c r="M26" s="13" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N26" s="14" t="n">
         <v>1001</v>
@@ -12447,7 +12509,7 @@
     </row>
     <row r="27" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>645</v>
@@ -12468,20 +12530,20 @@
         <v>400</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="J27" s="10"/>
       <c r="K27" s="10" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="L27" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N27" s="11" t="n">
         <v>1001</v>
@@ -12490,12 +12552,12 @@
         <v>554</v>
       </c>
       <c r="P27" s="10" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>645</v>
@@ -12507,10 +12569,10 @@
         <v>646</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G28" s="15" t="n">
         <v>400</v>
@@ -12525,13 +12587,13 @@
         <v>22.5</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="L28" s="13" t="s">
         <v>67</v>
       </c>
       <c r="M28" s="13" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N28" s="14" t="n">
         <v>512</v>
@@ -12540,12 +12602,12 @@
         <v>444</v>
       </c>
       <c r="P28" s="13" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>645</v>
@@ -12557,10 +12619,10 @@
         <v>646</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G29" s="12" t="n">
         <v>400</v>
@@ -12575,13 +12637,13 @@
         <v>22.5</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N29" s="11" t="n">
         <v>512</v>
@@ -12590,27 +12652,27 @@
         <v>444</v>
       </c>
       <c r="P29" s="10" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G30" s="15" t="n">
         <v>400</v>
@@ -12625,13 +12687,13 @@
         <v>22.5</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="L30" s="13" t="s">
         <v>67</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N30" s="14" t="n">
         <v>256</v>
@@ -12640,15 +12702,15 @@
         <v>554</v>
       </c>
       <c r="P30" s="13" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>646</v>
@@ -12657,10 +12719,10 @@
         <v>646</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G31" s="12" t="n">
         <v>400</v>
@@ -12675,13 +12737,13 @@
         <v>22.5</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="L31" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N31" s="11" t="n">
         <v>256</v>
@@ -12690,15 +12752,15 @@
         <v>554</v>
       </c>
       <c r="P31" s="10" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>646</v>
@@ -12707,10 +12769,10 @@
         <v>646</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G32" s="15" t="n">
         <v>400</v>
@@ -12725,13 +12787,13 @@
         <v>22.5</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="L32" s="13" t="s">
         <v>67</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N32" s="14" t="n">
         <v>256</v>
@@ -12740,27 +12802,27 @@
         <v>554</v>
       </c>
       <c r="P32" s="13" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G33" s="12" t="n">
         <v>400</v>
@@ -12775,27 +12837,27 @@
         <v>22.5</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="L33" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M33" s="10" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N33" s="11" t="n">
         <v>512</v>
       </c>
       <c r="O33" s="10" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="P33" s="10" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>645</v>
@@ -12807,10 +12869,10 @@
         <v>646</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G34" s="15" t="n">
         <v>400</v>
@@ -12819,33 +12881,33 @@
         <v>250</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="J34" s="25" t="n">
         <v>22.5</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="L34" s="13" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="M34" s="13" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N34" s="14" t="n">
         <v>512</v>
       </c>
       <c r="O34" s="13" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="P34" s="13" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>645</v>
@@ -12857,10 +12919,10 @@
         <v>646</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G35" s="12" t="n">
         <v>400</v>
@@ -12869,19 +12931,19 @@
         <v>250</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="J35" s="17" t="n">
         <v>22.5</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N35" s="11" t="n">
         <v>512</v>
@@ -12890,12 +12952,12 @@
         <v>554</v>
       </c>
       <c r="P35" s="10" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>645</v>
@@ -12907,16 +12969,16 @@
         <v>646</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G36" s="15" t="n">
         <v>400</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I36" s="13" t="s">
         <v>542</v>
@@ -12925,13 +12987,13 @@
         <v>22.5</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="L36" s="13" t="s">
         <v>445</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N36" s="14" t="n">
         <v>512</v>
@@ -12940,12 +13002,12 @@
         <v>554</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>645</v>
@@ -12957,31 +13019,31 @@
         <v>646</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G37" s="12" t="n">
         <v>400</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="J37" s="17" t="n">
         <v>22.5</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="L37" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M37" s="10" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N37" s="11" t="n">
         <v>512</v>
@@ -12990,12 +13052,12 @@
         <v>554</v>
       </c>
       <c r="P37" s="10" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>645</v>
@@ -13007,31 +13069,31 @@
         <v>646</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G38" s="15" t="n">
         <v>400</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="J38" s="25" t="n">
         <v>22.5</v>
       </c>
       <c r="K38" s="13" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="L38" s="13" t="s">
         <v>445</v>
       </c>
       <c r="M38" s="13" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N38" s="14" t="n">
         <v>512</v>
@@ -13040,48 +13102,48 @@
         <v>554</v>
       </c>
       <c r="P38" s="13" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G39" s="12" t="n">
         <v>400</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="J39" s="17" t="n">
         <v>22.5</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="L39" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N39" s="11" t="n">
         <v>512</v>
@@ -13090,48 +13152,48 @@
         <v>554</v>
       </c>
       <c r="P39" s="10" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G40" s="15" t="n">
         <v>400</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="J40" s="25" t="n">
         <v>22.5</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="L40" s="13" t="s">
         <v>445</v>
       </c>
       <c r="M40" s="13" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N40" s="14" t="n">
         <v>512</v>
@@ -13140,48 +13202,48 @@
         <v>554</v>
       </c>
       <c r="P40" s="13" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G41" s="12" t="n">
         <v>400</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="J41" s="17" t="n">
         <v>22.5</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="M41" s="10" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N41" s="11" t="n">
         <v>512</v>
@@ -13190,48 +13252,48 @@
         <v>554</v>
       </c>
       <c r="P41" s="10" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G42" s="15" t="n">
         <v>400</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="J42" s="13" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="K42" s="13" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="L42" s="13" t="s">
         <v>67</v>
       </c>
       <c r="M42" s="13" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N42" s="14" t="n">
         <v>64</v>
@@ -13240,48 +13302,48 @@
         <v>554</v>
       </c>
       <c r="P42" s="13" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G43" s="12" t="n">
         <v>400</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="J43" s="17" t="n">
         <v>25</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="L43" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M43" s="10" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N43" s="14" t="n">
         <v>64</v>
@@ -13290,48 +13352,48 @@
         <v>554</v>
       </c>
       <c r="P43" s="10" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G44" s="15" t="n">
         <v>400</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="K44" s="13" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="L44" s="13" t="s">
         <v>67</v>
       </c>
       <c r="M44" s="13" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N44" s="14" t="n">
         <v>64</v>
@@ -13340,27 +13402,27 @@
         <v>554</v>
       </c>
       <c r="P44" s="13" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D45" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G45" s="12" t="n">
         <v>400</v>
@@ -13375,13 +13437,13 @@
         <v>22.5</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="L45" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M45" s="10" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N45" s="11" t="n">
         <v>256</v>
@@ -13390,15 +13452,15 @@
         <v>554</v>
       </c>
       <c r="P45" s="10" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="8" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>646</v>
@@ -13407,10 +13469,10 @@
         <v>1</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G46" s="15" t="n">
         <v>400</v>
@@ -13425,13 +13487,13 @@
         <v>22.5</v>
       </c>
       <c r="K46" s="13" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="L46" s="13" t="s">
         <v>67</v>
       </c>
       <c r="M46" s="13" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N46" s="14" t="n">
         <v>256</v>
@@ -13440,7 +13502,7 @@
         <v>554</v>
       </c>
       <c r="P46" s="13" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
   </sheetData>
@@ -13506,10 +13568,10 @@
         <v>519</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>55</v>
@@ -13532,10 +13594,10 @@
     </row>
     <row r="2" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>646</v>
@@ -13544,10 +13606,10 @@
         <v>646</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="G2" s="12" t="n">
         <v>9</v>
@@ -13556,10 +13618,10 @@
         <v>400</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="K2" s="11" t="n">
         <v>512</v>
@@ -13568,15 +13630,15 @@
         <v>554</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>646</v>
@@ -13585,22 +13647,22 @@
         <v>646</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="H3" s="15" t="n">
         <v>400</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="K3" s="14" t="n">
         <v>512</v>
@@ -13609,15 +13671,15 @@
         <v>554</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>646</v>
@@ -13626,10 +13688,10 @@
         <v>646</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="G4" s="12" t="n">
         <v>9</v>
@@ -13638,10 +13700,10 @@
         <v>400</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="K4" s="11" t="n">
         <v>512</v>
@@ -13650,15 +13712,15 @@
         <v>554</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>646</v>
@@ -13667,22 +13729,22 @@
         <v>646</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="H5" s="15" t="n">
         <v>400</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="K5" s="14" t="n">
         <v>512</v>
@@ -13691,39 +13753,39 @@
         <v>554</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="H6" s="12" t="n">
         <v>400</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="K6" s="11" t="n">
         <v>256</v>
@@ -13803,46 +13865,46 @@
         <v>518</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>519</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>55</v>
       </c>
       <c r="L1" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>967</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>968</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>969</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>970</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>971</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>972</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>973</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>974</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>975</v>
       </c>
       <c r="T1" s="8" t="s">
         <v>432</v>
@@ -13859,13 +13921,13 @@
     </row>
     <row r="2" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>645</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>646</v>
@@ -13874,16 +13936,16 @@
         <v>646</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="G2" s="11" t="n">
         <v>500</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>67</v>
@@ -13901,7 +13963,7 @@
         <v>17.5</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="P2" s="12" t="n">
         <v>250</v>
@@ -13913,10 +13975,10 @@
         <v>22.5</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="U2" s="11" t="n">
         <v>512</v>
@@ -13925,12 +13987,12 @@
         <v>444</v>
       </c>
       <c r="W2" s="10" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>645</v>
@@ -13951,10 +14013,10 @@
         <v>840</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="J3" s="13" t="s">
         <v>67</v>
@@ -13972,7 +14034,7 @@
         <v>17.5</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="P3" s="15" t="n">
         <v>250</v>
@@ -13984,10 +14046,10 @@
         <v>22.5</v>
       </c>
       <c r="S3" s="13" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="T3" s="13" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="U3" s="14" t="n">
         <v>256</v>
@@ -13996,12 +14058,12 @@
         <v>444</v>
       </c>
       <c r="W3" s="13" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>645</v>
@@ -14022,10 +14084,10 @@
         <v>840</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>67</v>
@@ -14043,7 +14105,7 @@
         <v>17.5</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="P4" s="12" t="n">
         <v>250</v>
@@ -14055,27 +14117,27 @@
         <v>22.5</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="T4" s="10" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="U4" s="11" t="n">
         <v>128</v>
       </c>
       <c r="V4" s="10" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="W4" s="10" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>646</v>
@@ -14087,19 +14149,19 @@
         <v>646</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="G5" s="14" t="n">
         <v>840</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="K5" s="15" t="n">
         <v>400</v>
@@ -14114,7 +14176,7 @@
         <v>67</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="P5" s="13" t="s">
         <v>67</v>
@@ -14126,10 +14188,10 @@
         <v>67</v>
       </c>
       <c r="S5" s="13" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="T5" s="13" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="U5" s="14" t="n">
         <v>256</v>
@@ -14141,10 +14203,10 @@
     </row>
     <row r="6" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>646</v>
@@ -14156,16 +14218,16 @@
         <v>646</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>67</v>
@@ -14183,7 +14245,7 @@
         <v>17.5</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="P6" s="12" t="n">
         <v>250</v>
@@ -14195,10 +14257,10 @@
         <v>22.5</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="T6" s="10" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="U6" s="11" t="n">
         <v>128</v>
@@ -14210,10 +14272,10 @@
     </row>
     <row r="7" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>646</v>
@@ -14225,16 +14287,16 @@
         <v>646</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="G7" s="14" t="n">
         <v>920</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="J7" s="13" t="s">
         <v>67</v>
@@ -14252,7 +14314,7 @@
         <v>17.5</v>
       </c>
       <c r="O7" s="13" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="P7" s="15" t="n">
         <v>250</v>
@@ -14264,10 +14326,10 @@
         <v>22.5</v>
       </c>
       <c r="S7" s="13" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="T7" s="13" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="U7" s="14" t="n">
         <v>512</v>
@@ -14279,10 +14341,10 @@
     </row>
     <row r="8" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>646</v>
@@ -14294,16 +14356,16 @@
         <v>646</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="G8" s="11" t="n">
         <v>920</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>67</v>
@@ -14321,7 +14383,7 @@
         <v>17.5</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="P8" s="12" t="n">
         <v>250</v>
@@ -14333,46 +14395,46 @@
         <v>22.5</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="T8" s="10" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="U8" s="11" t="n">
         <v>512</v>
       </c>
       <c r="V8" s="10" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="W8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D9" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="J9" s="13" t="s">
         <v>67</v>
@@ -14390,22 +14452,22 @@
         <v>17.5</v>
       </c>
       <c r="O9" s="13" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="P9" s="13" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="Q9" s="13" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="R9" s="25" t="n">
         <v>25</v>
       </c>
       <c r="S9" s="13" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="T9" s="13" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="U9" s="14" t="n">
         <v>512</v>
@@ -14417,31 +14479,31 @@
     </row>
     <row r="10" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D10" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="G10" s="11" t="n">
         <v>900</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="J10" s="10" t="s">
         <v>67</v>
@@ -14471,10 +14533,10 @@
         <v>25</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="T10" s="10" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="U10" s="11" t="n">
         <v>512</v>
@@ -14486,10 +14548,10 @@
     </row>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>646</v>
@@ -14501,19 +14563,19 @@
         <v>646</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="K11" s="15" t="n">
         <v>400</v>
@@ -14528,7 +14590,7 @@
         <v>17.5</v>
       </c>
       <c r="O11" s="13" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="P11" s="13" t="s">
         <v>67</v>
@@ -14540,10 +14602,10 @@
         <v>67</v>
       </c>
       <c r="S11" s="13" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="T11" s="13" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="U11" s="14" t="n">
         <v>128</v>
@@ -15366,7 +15428,7 @@
         <v>49</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>423</v>
@@ -15378,7 +15440,7 @@
         <v>518</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>519</v>
@@ -15387,31 +15449,31 @@
         <v>520</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="J2" s="8" t="s">
+        <v>1005</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>1006</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>1007</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>1008</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>1009</v>
-      </c>
       <c r="M2" s="8" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>177</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="P2" s="8" t="s">
         <v>61</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="R2" s="8" t="s">
         <v>62</v>
@@ -15419,16 +15481,16 @@
     </row>
     <row r="3" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>659</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>67</v>
@@ -15437,28 +15499,28 @@
         <v>67</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>625</v>
       </c>
       <c r="I3" s="10" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>1014</v>
+      </c>
+      <c r="K3" s="10" t="s">
         <v>1015</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="L3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" s="10" t="s">
         <v>1016</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>1017</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>1018</v>
       </c>
       <c r="O3" s="12" t="n">
         <v>128</v>
@@ -15475,16 +15537,16 @@
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>659</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>67</v>
@@ -15493,28 +15555,28 @@
         <v>67</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>625</v>
       </c>
       <c r="I4" s="13" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>1014</v>
+      </c>
+      <c r="K4" s="13" t="s">
         <v>1015</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="L4" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="N4" s="13" t="s">
         <v>1016</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>1017</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>1018</v>
       </c>
       <c r="O4" s="15" t="n">
         <v>128</v>
@@ -15529,16 +15591,16 @@
     </row>
     <row r="5" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>659</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>67</v>
@@ -15547,19 +15609,19 @@
         <v>67</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>625</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="L5" s="10" t="s">
         <v>67</v>
@@ -15568,7 +15630,7 @@
         <v>67</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="O5" s="12" t="n">
         <v>128</v>
@@ -15583,46 +15645,46 @@
     </row>
     <row r="6" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>659</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>625</v>
       </c>
       <c r="I6" s="13" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>1014</v>
+      </c>
+      <c r="K6" s="13" t="s">
         <v>1015</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="L6" s="13" t="s">
+        <v>733</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>1022</v>
+      </c>
+      <c r="N6" s="13" t="s">
         <v>1016</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>1017</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>735</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>1024</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>1018</v>
       </c>
       <c r="O6" s="15" t="n">
         <v>128</v>
@@ -15637,46 +15699,46 @@
     </row>
     <row r="7" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>659</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>625</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="J7" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>1015</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="M7" s="10" t="s">
         <v>1022</v>
       </c>
-      <c r="K7" s="10" t="s">
-        <v>1017</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>735</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>1024</v>
-      </c>
       <c r="N7" s="10" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="O7" s="12" t="n">
         <v>128</v>
@@ -15691,16 +15753,16 @@
     </row>
     <row r="8" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>659</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>67</v>
@@ -15709,28 +15771,28 @@
         <v>67</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>625</v>
       </c>
       <c r="I8" s="13" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>1014</v>
+      </c>
+      <c r="K8" s="13" t="s">
         <v>1015</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="L8" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="N8" s="13" t="s">
         <v>1016</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>1017</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>1018</v>
       </c>
       <c r="O8" s="15" t="n">
         <v>128</v>
@@ -15743,16 +15805,16 @@
     </row>
     <row r="9" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>659</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>67</v>
@@ -15761,19 +15823,19 @@
         <v>67</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>625</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="L9" s="10" t="s">
         <v>67</v>
@@ -15782,7 +15844,7 @@
         <v>67</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="O9" s="12" t="n">
         <v>128</v>
@@ -15795,46 +15857,46 @@
     </row>
     <row r="10" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>659</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>625</v>
       </c>
       <c r="I10" s="13" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>1014</v>
+      </c>
+      <c r="K10" s="13" t="s">
         <v>1015</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="L10" s="13" t="s">
+        <v>733</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>1022</v>
+      </c>
+      <c r="N10" s="13" t="s">
         <v>1016</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>1017</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>735</v>
-      </c>
-      <c r="M10" s="13" t="s">
-        <v>1024</v>
-      </c>
-      <c r="N10" s="13" t="s">
-        <v>1018</v>
       </c>
       <c r="O10" s="15" t="n">
         <v>128</v>
@@ -15849,46 +15911,46 @@
     </row>
     <row r="11" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>659</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>625</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="J11" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>1015</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="M11" s="10" t="s">
         <v>1022</v>
       </c>
-      <c r="K11" s="10" t="s">
-        <v>1017</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>735</v>
-      </c>
-      <c r="M11" s="10" t="s">
-        <v>1024</v>
-      </c>
       <c r="N11" s="10" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="O11" s="12" t="n">
         <v>128</v>
@@ -15960,7 +16022,7 @@
         <v>51</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>52</v>
@@ -15972,13 +16034,13 @@
         <v>492</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>107</v>
@@ -15987,16 +16049,16 @@
         <v>177</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>61</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="Q1" s="8" t="s">
         <v>62</v>
@@ -16004,38 +16066,38 @@
     </row>
     <row r="2" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>1033</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>1035</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="10" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>1036</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>1037</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>1038</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>276</v>
       </c>
       <c r="I2" s="10" t="s">
+        <v>1037</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>1038</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>698</v>
+      </c>
+      <c r="L2" s="10" t="s">
         <v>1039</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>1040</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>700</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>1041</v>
       </c>
       <c r="M2" s="12" t="n">
         <v>32</v>
@@ -16046,24 +16108,24 @@
       <c r="O2" s="12"/>
       <c r="P2" s="17"/>
       <c r="Q2" s="10" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>679</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>1042</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="E3" s="13" t="s">
         <v>1043</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>681</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>1045</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>549</v>
@@ -16072,19 +16134,19 @@
         <v>532</v>
       </c>
       <c r="H3" s="13" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>1045</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="13" t="s">
         <v>1046</v>
       </c>
-      <c r="I3" s="13" t="s">
-        <v>1047</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>1048</v>
-      </c>
       <c r="L3" s="13" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="M3" s="15" t="n">
         <v>64</v>
@@ -16099,45 +16161,45 @@
         <v>37.1</v>
       </c>
       <c r="Q3" s="13" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>549</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H4" s="10" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>1051</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="10" t="s">
         <v>1052</v>
       </c>
-      <c r="I4" s="10" t="s">
-        <v>1053</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>1054</v>
-      </c>
       <c r="L4" s="10" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="M4" s="12" t="n">
         <v>64</v>
@@ -16153,40 +16215,40 @@
     </row>
     <row r="5" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="D5" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>549</v>
       </c>
       <c r="G5" s="13" t="s">
+        <v>1036</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I5" s="13" t="s">
         <v>1038</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>1056</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>1040</v>
-      </c>
       <c r="J5" s="13" t="s">
         <v>67</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="M5" s="15" t="n">
         <v>512</v>
@@ -16199,45 +16261,45 @@
       </c>
       <c r="P5" s="25"/>
       <c r="Q5" s="13" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>1059</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>1061</v>
-      </c>
       <c r="D6" s="10" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>549</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H6" s="10" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>1051</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" s="10" t="s">
         <v>1052</v>
       </c>
-      <c r="I6" s="10" t="s">
-        <v>1053</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>1054</v>
-      </c>
       <c r="L6" s="10" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="M6" s="12" t="n">
         <v>64</v>
@@ -16253,40 +16315,40 @@
     </row>
     <row r="7" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>1062</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>1064</v>
-      </c>
       <c r="D7" s="13" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="E7" s="13" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>1036</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="H7" s="13" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I7" s="13" t="s">
         <v>1037</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="J7" s="13" t="s">
         <v>1038</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="K7" s="13" t="s">
         <v>1052</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="L7" s="13" t="s">
         <v>1039</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>1040</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>1054</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>1041</v>
       </c>
       <c r="M7" s="15" t="n">
         <v>64</v>
@@ -16302,40 +16364,40 @@
     </row>
     <row r="8" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="D8" s="12" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>276</v>
       </c>
       <c r="I8" s="10" t="s">
+        <v>1037</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>1038</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>698</v>
+      </c>
+      <c r="L8" s="10" t="s">
         <v>1039</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>1040</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>700</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>1041</v>
       </c>
       <c r="M8" s="12" t="n">
         <v>32</v>
@@ -16346,45 +16408,45 @@
       <c r="O8" s="12"/>
       <c r="P8" s="17"/>
       <c r="Q8" s="10" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>1036</v>
+      </c>
+      <c r="H9" s="13" t="s">
         <v>1068</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>1066</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>1067</v>
-      </c>
-      <c r="G9" s="13" t="s">
+      <c r="I9" s="13" t="s">
+        <v>1037</v>
+      </c>
+      <c r="J9" s="13" t="s">
         <v>1038</v>
       </c>
-      <c r="H9" s="13" t="s">
-        <v>1070</v>
-      </c>
-      <c r="I9" s="13" t="s">
+      <c r="K9" s="13" t="s">
+        <v>1052</v>
+      </c>
+      <c r="L9" s="13" t="s">
         <v>1039</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>1040</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>1054</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>1041</v>
       </c>
       <c r="M9" s="15" t="n">
         <v>64</v>
@@ -16398,40 +16460,40 @@
     </row>
     <row r="10" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>646</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="G10" s="10" t="s">
+        <v>1036</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>1070</v>
+      </c>
+      <c r="J10" s="10" t="s">
         <v>1038</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>1070</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>1072</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>1040</v>
-      </c>
       <c r="K10" s="10" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="M10" s="12" t="n">
         <v>64</v>
@@ -16445,16 +16507,16 @@
     </row>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>94</v>
@@ -16463,22 +16525,22 @@
         <v>632</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="J11" s="13" t="s">
         <v>67</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="M11" s="15" t="n">
         <v>64</v>
@@ -16492,16 +16554,16 @@
     </row>
     <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>94</v>
@@ -16510,22 +16572,22 @@
         <v>632</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="J12" s="10" t="s">
         <v>67</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="M12" s="12" t="n">
         <v>64</v>
@@ -16555,12 +16617,12 @@
   </sheetPr>
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J2" activeCellId="0" sqref="J2"/>
+      <selection pane="bottomRight" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16615,7 +16677,7 @@
         <v>425</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>1078</v>
+        <v>521</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>523</v>
@@ -16638,10 +16700,10 @@
     </row>
     <row r="3" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>646</v>
@@ -16650,22 +16712,22 @@
         <v>646</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="27" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>1078</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>1079</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>1080</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>1081</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>1082</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>1083</v>
       </c>
       <c r="K3" s="12" t="n">
         <v>128</v>
@@ -16674,15 +16736,15 @@
         <v>11</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>646</v>
@@ -16691,22 +16753,22 @@
         <v>646</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>549</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>1080</v>
+      <c r="G4" s="28" t="s">
+        <v>1077</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="K4" s="15" t="n">
         <v>128</v>
@@ -16715,36 +16777,36 @@
         <v>11</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>549</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="J5" s="10" t="s">
         <v>654</v>
@@ -16756,36 +16818,36 @@
         <v>11</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>549</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="J6" s="13" t="s">
         <v>654</v>
@@ -16797,7 +16859,7 @@
         <v>11</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
     </row>
   </sheetData>
@@ -16852,7 +16914,7 @@
         <v>49</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>517</v>
@@ -16867,7 +16929,7 @@
         <v>518</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>519</v>
@@ -16885,7 +16947,7 @@
         <v>493</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>107</v>
@@ -16905,19 +16967,19 @@
     </row>
     <row r="2" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>112</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>67</v>
@@ -16944,10 +17006,10 @@
         <v>70</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="P2" s="11" t="n">
         <v>64</v>
@@ -16956,42 +17018,42 @@
         <v>554</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>112</v>
       </c>
       <c r="D3" s="13" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>1099</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>1102</v>
-      </c>
       <c r="I3" s="13" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="J3" s="13" t="s">
         <v>532</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>67</v>
@@ -17000,10 +17062,10 @@
         <v>70</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="P3" s="14" t="n">
         <v>64</v>
@@ -17015,28 +17077,28 @@
     </row>
     <row r="4" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>112</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>1099</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>1102</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>632</v>
@@ -17054,10 +17116,10 @@
         <v>70</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="P4" s="11" t="n">
         <v>64</v>
@@ -17069,31 +17131,31 @@
     </row>
     <row r="5" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>112</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="G5" s="14" t="n">
         <v>500</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>67</v>
@@ -17102,16 +17164,16 @@
         <v>600</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="P5" s="14" t="n">
         <v>64</v>
@@ -17123,19 +17185,19 @@
     </row>
     <row r="6" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>112</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>67</v>
@@ -17153,7 +17215,7 @@
         <v>532</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="L6" s="12" t="n">
         <v>195</v>
@@ -17162,10 +17224,10 @@
         <v>90</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="P6" s="11" t="n">
         <v>64</v>
@@ -17177,19 +17239,19 @@
     </row>
     <row r="7" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>112</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>67</v>
@@ -17198,10 +17260,10 @@
         <v>67</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="J7" s="13" t="s">
         <v>532</v>
@@ -17216,10 +17278,10 @@
         <v>90</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="O7" s="13" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="P7" s="14" t="n">
         <v>64</v>

--- a/project_overview.xlsx
+++ b/project_overview.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="21"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Export Summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -2046,25 +2046,7 @@
     <t xml:space="preserve">zeroth order only!</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">SF_wire_ALL_ORD_final</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">skip</t>
-    </r>
+    <t xml:space="preserve">SF_wire_ALL_ORD_finalskip</t>
   </si>
   <si>
     <t xml:space="preserve">[185, 275, 385]</t>
@@ -2088,25 +2070,7 @@
     <t xml:space="preserve">max thresh layer</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">SF_wire_SASA_test1</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">skip</t>
-    </r>
+    <t xml:space="preserve">SF_wire_SASA_test1skip</t>
   </si>
   <si>
     <t xml:space="preserve">SF_wire_SASA_test2skip</t>
@@ -3495,23 +3459,7 @@
     <t xml:space="preserve">0.5 …  1</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">accidentally set ordbool to true!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">250:50:500</t>
-    </r>
+    <t xml:space="preserve">accidentally set ordbool to true!</t>
   </si>
   <si>
     <t xml:space="preserve">HyperVis_al_square_holes_1</t>
@@ -3629,7 +3577,7 @@
     <numFmt numFmtId="169" formatCode="#,##0"/>
     <numFmt numFmtId="170" formatCode="HH:MM"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3699,12 +3647,6 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Cambria"/>
-      <family val="0"/>
-    </font>
-    <font>
       <i val="true"/>
       <sz val="10"/>
       <name val="Cambria"/>
@@ -3717,11 +3659,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Cambria"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3791,7 +3728,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3896,16 +3833,8 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -3991,7 +3920,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>206640</xdr:colOff>
+      <xdr:colOff>206280</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>31680</xdr:rowOff>
     </xdr:to>
@@ -4003,7 +3932,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="3028320" cy="526680"/>
+          <a:ext cx="3027960" cy="526680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4056,7 +3985,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>206640</xdr:colOff>
+      <xdr:colOff>206280</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>15120</xdr:rowOff>
     </xdr:to>
@@ -4068,7 +3997,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="7247880"/>
-          <a:ext cx="3028320" cy="526680"/>
+          <a:ext cx="3027960" cy="526680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4126,7 +4055,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>108</xdr:row>
       <xdr:rowOff>75960</xdr:rowOff>
     </xdr:to>
@@ -4138,7 +4067,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="60120" y="16951680"/>
-          <a:ext cx="6332760" cy="952200"/>
+          <a:ext cx="6332400" cy="952200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4191,7 +4120,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>90360</xdr:colOff>
+      <xdr:colOff>90000</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>129240</xdr:rowOff>
     </xdr:to>
@@ -4203,7 +4132,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="60120" y="0"/>
-          <a:ext cx="7084800" cy="952200"/>
+          <a:ext cx="7084440" cy="952200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4261,7 +4190,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>259200</xdr:colOff>
+      <xdr:colOff>258840</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>126720</xdr:rowOff>
     </xdr:to>
@@ -4273,7 +4202,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4492080" cy="952200"/>
+          <a:ext cx="4491720" cy="952200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4326,7 +4255,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>259200</xdr:colOff>
+      <xdr:colOff>258840</xdr:colOff>
       <xdr:row>114</xdr:row>
       <xdr:rowOff>160200</xdr:rowOff>
     </xdr:to>
@@ -4338,7 +4267,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="18454680"/>
-          <a:ext cx="4492080" cy="526680"/>
+          <a:ext cx="4491720" cy="526680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4391,7 +4320,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>259200</xdr:colOff>
+      <xdr:colOff>258840</xdr:colOff>
       <xdr:row>134</xdr:row>
       <xdr:rowOff>88560</xdr:rowOff>
     </xdr:to>
@@ -4403,7 +4332,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="21684960"/>
-          <a:ext cx="4492080" cy="526680"/>
+          <a:ext cx="4491720" cy="526680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9339,11 +9268,11 @@
   </sheetPr>
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
       <selection pane="bottomRight" activeCell="Q2" activeCellId="0" sqref="Q2"/>
     </sheetView>
   </sheetViews>
@@ -16617,12 +16546,12 @@
   </sheetPr>
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="Q4" activeCellId="0" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16717,7 +16646,7 @@
       <c r="F3" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="10" t="s">
         <v>1077</v>
       </c>
       <c r="H3" s="10" t="s">
@@ -16758,7 +16687,7 @@
       <c r="F4" s="13" t="s">
         <v>549</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="13" t="s">
         <v>1077</v>
       </c>
       <c r="H4" s="13" t="s">

--- a/project_overview.xlsx
+++ b/project_overview.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Export Summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3998" uniqueCount="1116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3998" uniqueCount="1118">
   <si>
     <t xml:space="preserve">This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -2007,7 +2007,7 @@
     <t xml:space="preserve">0.5 … 1.2</t>
   </si>
   <si>
-    <t xml:space="preserve">SF_wire_ALL_ORD</t>
+    <t xml:space="preserve">SF_wire_ALL_ORDskip</t>
   </si>
   <si>
     <t xml:space="preserve">all diff. orders saved</t>
@@ -2469,6 +2469,9 @@
     <t xml:space="preserve">girth</t>
   </si>
   <si>
+    <t xml:space="preserve">30:70</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.7 … 0.47</t>
   </si>
   <si>
@@ -2548,6 +2551,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141.4, 314.2</t>
   </si>
   <si>
     <t xml:space="preserve">Square_single_11</t>
@@ -3920,7 +3926,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>206280</xdr:colOff>
+      <xdr:colOff>205920</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>31680</xdr:rowOff>
     </xdr:to>
@@ -3932,7 +3938,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="3027960" cy="526680"/>
+          <a:ext cx="3027600" cy="526680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3959,7 +3965,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="de-DE" sz="3000" spc="-1" strike="noStrike">
+            <a:rPr b="1" lang="en-US" sz="3000" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3968,7 +3974,7 @@
             </a:rPr>
             <a:t>Phasenplatte</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="de-DE" sz="3000" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="3000" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -3985,7 +3991,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>206280</xdr:colOff>
+      <xdr:colOff>205920</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>15120</xdr:rowOff>
     </xdr:to>
@@ -3997,7 +4003,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="7247880"/>
-          <a:ext cx="3027960" cy="526680"/>
+          <a:ext cx="3027600" cy="526680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4024,7 +4030,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="de-DE" sz="3000" spc="-1" strike="noStrike">
+            <a:rPr b="1" lang="en-US" sz="3000" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4033,7 +4039,7 @@
             </a:rPr>
             <a:t>Polarisator</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="de-DE" sz="3000" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="3000" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -4055,7 +4061,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>108</xdr:row>
       <xdr:rowOff>75960</xdr:rowOff>
     </xdr:to>
@@ -4067,7 +4073,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="60120" y="16951680"/>
-          <a:ext cx="6332400" cy="952200"/>
+          <a:ext cx="6332040" cy="952200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4094,7 +4100,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="de-DE" sz="3000" spc="-1" strike="noStrike">
+            <a:rPr b="1" lang="en-US" sz="3000" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4103,7 +4109,7 @@
             </a:rPr>
             <a:t>First tries on possible functionalities</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="de-DE" sz="3000" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="3000" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -4120,7 +4126,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>90000</xdr:colOff>
+      <xdr:colOff>89640</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>129240</xdr:rowOff>
     </xdr:to>
@@ -4132,7 +4138,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="60120" y="0"/>
-          <a:ext cx="7084440" cy="952200"/>
+          <a:ext cx="7084080" cy="952200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4159,7 +4165,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="de-DE" sz="3000" spc="-1" strike="noStrike">
+            <a:rPr b="1" lang="en-US" sz="3000" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4168,7 +4174,7 @@
             </a:rPr>
             <a:t>Matching of a fabricated patch-wire stack</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="de-DE" sz="3000" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="3000" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -4190,7 +4196,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>258840</xdr:colOff>
+      <xdr:colOff>258480</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>126720</xdr:rowOff>
     </xdr:to>
@@ -4202,7 +4208,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4491720" cy="952200"/>
+          <a:ext cx="4491360" cy="952200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4229,7 +4235,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="de-DE" sz="3000" spc="-1" strike="noStrike">
+            <a:rPr b="1" lang="en-US" sz="3000" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4238,7 +4244,7 @@
             </a:rPr>
             <a:t>Single layers - geometric</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="de-DE" sz="3000" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="3000" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -4255,7 +4261,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>258840</xdr:colOff>
+      <xdr:colOff>258480</xdr:colOff>
       <xdr:row>114</xdr:row>
       <xdr:rowOff>160200</xdr:rowOff>
     </xdr:to>
@@ -4267,7 +4273,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="18454680"/>
-          <a:ext cx="4491720" cy="526680"/>
+          <a:ext cx="4491360" cy="526680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4294,7 +4300,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="de-DE" sz="3000" spc="-1" strike="noStrike">
+            <a:rPr b="1" lang="en-US" sz="3000" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4303,7 +4309,7 @@
             </a:rPr>
             <a:t>Single layers - averaged</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="de-DE" sz="3000" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="3000" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -4320,7 +4326,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>258840</xdr:colOff>
+      <xdr:colOff>258480</xdr:colOff>
       <xdr:row>134</xdr:row>
       <xdr:rowOff>88560</xdr:rowOff>
     </xdr:to>
@@ -4332,7 +4338,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="21684960"/>
-          <a:ext cx="4491720" cy="526680"/>
+          <a:ext cx="4491360" cy="526680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4359,7 +4365,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="de-DE" sz="3000" spc="-1" strike="noStrike">
+            <a:rPr b="1" lang="en-US" sz="3000" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4368,7 +4374,7 @@
             </a:rPr>
             <a:t>Full stack simulations</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="de-DE" sz="3000" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="3000" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -6719,12 +6725,12 @@
   </sheetPr>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9268,12 +9274,12 @@
   </sheetPr>
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q2" activeCellId="0" sqref="Q2"/>
+      <selection pane="bottomRight" activeCell="Q9" activeCellId="0" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9401,13 +9407,13 @@
         <v>100</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>192</v>
+        <v>789</v>
       </c>
       <c r="P2" s="10" t="s">
         <v>67</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="R2" s="12" t="n">
         <v>64</v>
@@ -9452,7 +9458,7 @@
         <v>195</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="M3" s="13"/>
       <c r="N3" s="15" t="n">
@@ -9465,7 +9471,7 @@
         <v>67</v>
       </c>
       <c r="Q3" s="13" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="R3" s="15" t="n">
         <v>64</v>
@@ -9477,7 +9483,7 @@
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>112</v>
@@ -9523,7 +9529,7 @@
         <v>67</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="R4" s="12" t="n">
         <v>64</v>
@@ -9535,7 +9541,7 @@
     </row>
     <row r="5" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>112</v>
@@ -9547,7 +9553,7 @@
         <v>1.42</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="F5" s="15" t="n">
         <v>0</v>
@@ -9559,7 +9565,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>532</v>
@@ -9577,13 +9583,13 @@
         <v>100</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="P5" s="13" t="s">
         <v>67</v>
       </c>
       <c r="Q5" s="13" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="R5" s="15" t="n">
         <v>64</v>
@@ -9595,7 +9601,7 @@
     </row>
     <row r="6" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>112</v>
@@ -9610,19 +9616,19 @@
         <v>134</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H6" s="12" t="n">
         <v>2</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="K6" s="12" t="n">
         <v>600</v>
@@ -9643,7 +9649,7 @@
         <v>67</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="R6" s="12" t="n">
         <v>128</v>
@@ -9652,12 +9658,12 @@
         <v>12</v>
       </c>
       <c r="T6" s="10" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>112</v>
@@ -9672,19 +9678,19 @@
         <v>134</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H7" s="15" t="n">
         <v>2</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="K7" s="15" t="n">
         <v>600</v>
@@ -9705,7 +9711,7 @@
         <v>67</v>
       </c>
       <c r="Q7" s="13" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="R7" s="15" t="n">
         <v>128</v>
@@ -9714,12 +9720,12 @@
         <v>12</v>
       </c>
       <c r="T7" s="13" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>112</v>
@@ -9734,19 +9740,19 @@
         <v>134</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H8" s="12" t="n">
         <v>2</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="K8" s="12" t="n">
         <v>600</v>
@@ -9767,7 +9773,7 @@
         <v>67</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="R8" s="12" t="n">
         <v>128</v>
@@ -9776,12 +9782,12 @@
         <v>12</v>
       </c>
       <c r="T8" s="10" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>112</v>
@@ -9796,19 +9802,19 @@
         <v>134</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H9" s="15" t="n">
         <v>2</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="K9" s="15" t="n">
         <v>600</v>
@@ -9829,7 +9835,7 @@
         <v>67</v>
       </c>
       <c r="Q9" s="13" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="R9" s="15" t="n">
         <v>128</v>
@@ -9838,7 +9844,7 @@
         <v>12</v>
       </c>
       <c r="T9" s="13" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9867,7 +9873,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="J10" s="10" t="s">
         <v>532</v>
@@ -9885,13 +9891,13 @@
         <v>100</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="P10" s="10" t="s">
         <v>67</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="R10" s="12" t="n">
         <v>64</v>
@@ -9900,7 +9906,7 @@
         <v>12</v>
       </c>
       <c r="T10" s="10" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9929,7 +9935,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="J11" s="13" t="s">
         <v>532</v>
@@ -9947,13 +9953,13 @@
         <v>100</v>
       </c>
       <c r="O11" s="13" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="P11" s="13" t="s">
         <v>67</v>
       </c>
       <c r="Q11" s="13" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="R11" s="15" t="n">
         <v>64</v>
@@ -9962,7 +9968,7 @@
         <v>12</v>
       </c>
       <c r="T11" s="13" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9991,7 +9997,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="J12" s="10" t="s">
         <v>532</v>
@@ -10009,13 +10015,13 @@
         <v>150</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="P12" s="10" t="s">
         <v>67</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="R12" s="12" t="n">
         <v>64</v>
@@ -10024,7 +10030,7 @@
         <v>12</v>
       </c>
       <c r="T12" s="10" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10053,7 +10059,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="J13" s="13" t="s">
         <v>532</v>
@@ -10071,13 +10077,13 @@
         <v>150</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="P13" s="13" t="s">
         <v>67</v>
       </c>
       <c r="Q13" s="13" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="R13" s="15" t="n">
         <v>128</v>
@@ -10086,7 +10092,7 @@
         <v>12</v>
       </c>
       <c r="T13" s="13" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10115,7 +10121,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="J14" s="10" t="s">
         <v>532</v>
@@ -10133,13 +10139,13 @@
         <v>150</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="P14" s="10" t="s">
         <v>67</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="R14" s="12" t="n">
         <v>128</v>
@@ -10148,7 +10154,7 @@
         <v>12</v>
       </c>
       <c r="T14" s="10" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10177,7 +10183,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="J15" s="13" t="s">
         <v>532</v>
@@ -10195,13 +10201,13 @@
         <v>150</v>
       </c>
       <c r="O15" s="13" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="P15" s="13" t="s">
         <v>67</v>
       </c>
       <c r="Q15" s="13" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="R15" s="15" t="n">
         <v>256</v>
@@ -10210,7 +10216,7 @@
         <v>12</v>
       </c>
       <c r="T15" s="13" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10239,7 +10245,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="J16" s="10" t="s">
         <v>532</v>
@@ -10257,13 +10263,13 @@
         <v>150</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="P16" s="10" t="s">
         <v>67</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="R16" s="12" t="n">
         <v>256</v>
@@ -10272,7 +10278,7 @@
         <v>12</v>
       </c>
       <c r="T16" s="10" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10301,7 +10307,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="J17" s="13" t="s">
         <v>532</v>
@@ -10319,13 +10325,13 @@
         <v>150</v>
       </c>
       <c r="O17" s="13" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="P17" s="13" t="s">
         <v>67</v>
       </c>
       <c r="Q17" s="13" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="R17" s="15" t="n">
         <v>256</v>
@@ -10334,7 +10340,7 @@
         <v>12</v>
       </c>
       <c r="T17" s="13" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10381,7 +10387,7 @@
         <v>67</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="R18" s="12" t="n">
         <v>64</v>
@@ -10437,7 +10443,7 @@
         <v>163</v>
       </c>
       <c r="Q19" s="13" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="R19" s="15" t="n">
         <v>64</v>
@@ -10493,7 +10499,7 @@
         <v>67</v>
       </c>
       <c r="Q20" s="10" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="R20" s="12" t="n">
         <v>64</v>
@@ -10513,7 +10519,7 @@
         <v>285</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>313</v>
@@ -10549,7 +10555,7 @@
         <v>67</v>
       </c>
       <c r="Q21" s="13" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="R21" s="15" t="n">
         <v>64</v>
@@ -10593,7 +10599,7 @@
         <v>532</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>290</v>
+        <v>817</v>
       </c>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
@@ -10605,7 +10611,7 @@
         <v>67</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="R22" s="12" t="n">
         <v>64</v>
@@ -10663,7 +10669,7 @@
         <v>67</v>
       </c>
       <c r="Q23" s="13" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="R23" s="15" t="n">
         <v>64</v>
@@ -10677,7 +10683,7 @@
     </row>
     <row r="24" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>112</v>
@@ -10723,7 +10729,7 @@
     </row>
     <row r="25" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>112</v>
@@ -10769,7 +10775,7 @@
     </row>
     <row r="26" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>112</v>
@@ -10815,7 +10821,7 @@
     </row>
     <row r="27" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>112</v>
@@ -10861,7 +10867,7 @@
     </row>
     <row r="28" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>112</v>
@@ -10916,21 +10922,21 @@
         <v>10</v>
       </c>
       <c r="T28" s="10" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>465</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="E29" s="13" t="s">
         <v>94</v>
@@ -10976,7 +10982,7 @@
         <v>10</v>
       </c>
       <c r="T29" s="13" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11147,10 +11153,10 @@
   <dimension ref="A1:P46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
       <selection pane="bottomRight" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -11223,13 +11229,13 @@
         <v>523</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>524</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>525</v>
@@ -11238,7 +11244,7 @@
         <v>495</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="P2" s="8" t="s">
         <v>62</v>
@@ -11246,7 +11252,7 @@
     </row>
     <row r="3" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>645</v>
@@ -11267,20 +11273,20 @@
         <v>400</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="10" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="L3" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="N3" s="11" t="n">
         <v>1001</v>
@@ -11292,7 +11298,7 @@
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>645</v>
@@ -11328,7 +11334,7 @@
         <v>67</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="N4" s="14" t="n">
         <v>512</v>
@@ -11337,12 +11343,12 @@
         <v>444</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>645</v>
@@ -11378,24 +11384,24 @@
         <v>67</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="N5" s="11" t="n">
         <v>512</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>646</v>
@@ -11422,13 +11428,13 @@
         <v>17.5</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="L6" s="13" t="s">
         <v>67</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="N6" s="14" t="n">
         <v>512</v>
@@ -11437,12 +11443,12 @@
         <v>480</v>
       </c>
       <c r="P6" s="13" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>645</v>
@@ -11472,27 +11478,27 @@
         <v>17.5</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="L7" s="10" t="s">
         <v>730</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="N7" s="11" t="n">
         <v>512</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>645</v>
@@ -11516,33 +11522,33 @@
         <v>235</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="J8" s="25" t="n">
         <v>17.5</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="L8" s="13" t="s">
         <v>730</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="N8" s="14" t="n">
         <v>512</v>
       </c>
       <c r="O8" s="13" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="P8" s="13" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>645</v>
@@ -11563,22 +11569,22 @@
         <v>400</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="J9" s="17" t="n">
         <v>17.5</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="L9" s="10" t="s">
         <v>730</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="N9" s="11" t="n">
         <v>512</v>
@@ -11587,12 +11593,12 @@
         <v>554</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>645</v>
@@ -11613,22 +11619,22 @@
         <v>400</v>
       </c>
       <c r="H10" s="13" t="s">
+        <v>854</v>
+      </c>
+      <c r="I10" s="13" t="s">
         <v>852</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>850</v>
       </c>
       <c r="J10" s="25" t="n">
         <v>17.5</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="N10" s="14" t="n">
         <v>512</v>
@@ -11637,12 +11643,12 @@
         <v>554</v>
       </c>
       <c r="P10" s="13" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>645</v>
@@ -11663,45 +11669,45 @@
         <v>400</v>
       </c>
       <c r="H11" s="10" t="s">
+        <v>854</v>
+      </c>
+      <c r="I11" s="10" t="s">
         <v>852</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>850</v>
       </c>
       <c r="J11" s="17" t="n">
         <v>17.5</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="N11" s="11" t="n">
         <v>512</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="P11" s="10" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>772</v>
@@ -11713,22 +11719,22 @@
         <v>400</v>
       </c>
       <c r="H12" s="13" t="s">
+        <v>854</v>
+      </c>
+      <c r="I12" s="13" t="s">
         <v>852</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>850</v>
       </c>
       <c r="J12" s="25" t="n">
         <v>17.5</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="N12" s="14" t="n">
         <v>512</v>
@@ -11737,21 +11743,21 @@
         <v>554</v>
       </c>
       <c r="P12" s="13" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
+        <v>861</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>859</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>857</v>
-      </c>
       <c r="C13" s="10" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>772</v>
@@ -11763,22 +11769,22 @@
         <v>400</v>
       </c>
       <c r="H13" s="10" t="s">
+        <v>854</v>
+      </c>
+      <c r="I13" s="10" t="s">
         <v>852</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>850</v>
       </c>
       <c r="J13" s="17" t="n">
         <v>17.5</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="N13" s="11" t="n">
         <v>512</v>
@@ -11787,12 +11793,12 @@
         <v>554</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>701</v>
@@ -11813,22 +11819,22 @@
         <v>400</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="J14" s="25" t="n">
         <v>17.5</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="N14" s="14" t="n">
         <v>512</v>
@@ -11837,12 +11843,12 @@
         <v>554</v>
       </c>
       <c r="P14" s="13" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>701</v>
@@ -11863,22 +11869,22 @@
         <v>400</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="J15" s="17" t="n">
         <v>17.5</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="N15" s="11" t="n">
         <v>512</v>
@@ -11887,12 +11893,12 @@
         <v>554</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>701</v>
@@ -11913,22 +11919,22 @@
         <v>400</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="J16" s="25" t="n">
         <v>17.5</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="M16" s="13" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="N16" s="14" t="n">
         <v>512</v>
@@ -11937,12 +11943,12 @@
         <v>554</v>
       </c>
       <c r="P16" s="13" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>701</v>
@@ -11963,22 +11969,22 @@
         <v>400</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="N17" s="14" t="n">
         <v>128</v>
@@ -11987,12 +11993,12 @@
         <v>554</v>
       </c>
       <c r="P17" s="10" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>701</v>
@@ -12013,22 +12019,22 @@
         <v>400</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="L18" s="13" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="M18" s="13" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="N18" s="14" t="n">
         <v>64</v>
@@ -12037,12 +12043,12 @@
         <v>554</v>
       </c>
       <c r="P18" s="13" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>701</v>
@@ -12063,22 +12069,22 @@
         <v>400</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="J19" s="17" t="n">
         <v>25</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="N19" s="14" t="n">
         <v>64</v>
@@ -12087,12 +12093,12 @@
         <v>554</v>
       </c>
       <c r="P19" s="10" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>701</v>
@@ -12113,22 +12119,22 @@
         <v>400</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="J20" s="25" t="n">
         <v>25</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="L20" s="13" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="M20" s="13" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="N20" s="14" t="n">
         <v>64</v>
@@ -12137,12 +12143,12 @@
         <v>554</v>
       </c>
       <c r="P20" s="13" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>701</v>
@@ -12163,22 +12169,22 @@
         <v>400</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="J21" s="17" t="n">
         <v>25</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="N21" s="14" t="n">
         <v>64</v>
@@ -12187,12 +12193,12 @@
         <v>554</v>
       </c>
       <c r="P21" s="10" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>701</v>
@@ -12213,10 +12219,10 @@
         <v>400</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="J22" s="25" t="n">
         <v>25</v>
@@ -12228,21 +12234,21 @@
         <v>67</v>
       </c>
       <c r="M22" s="13" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="N22" s="14" t="n">
         <v>512</v>
       </c>
       <c r="O22" s="13" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="P22" s="13" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>701</v>
@@ -12263,22 +12269,22 @@
         <v>400</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="J23" s="25" t="n">
         <v>25</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="L23" s="13" t="s">
         <v>67</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="N23" s="14" t="n">
         <v>64</v>
@@ -12287,12 +12293,12 @@
         <v>554</v>
       </c>
       <c r="P23" s="13" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>645</v>
@@ -12325,10 +12331,10 @@
         <v>729</v>
       </c>
       <c r="L24" s="13" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="M24" s="13" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="N24" s="14" t="n">
         <v>512</v>
@@ -12337,18 +12343,18 @@
         <v>444</v>
       </c>
       <c r="P24" s="13" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>645</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>646</v>
@@ -12378,7 +12384,7 @@
         <v>67</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="N25" s="11" t="n">
         <v>512</v>
@@ -12387,12 +12393,12 @@
         <v>444</v>
       </c>
       <c r="P25" s="10" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>645</v>
@@ -12413,20 +12419,20 @@
         <v>400</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="J26" s="13"/>
       <c r="K26" s="13" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="L26" s="13" t="s">
         <v>67</v>
       </c>
       <c r="M26" s="13" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="N26" s="14" t="n">
         <v>1001</v>
@@ -12438,7 +12444,7 @@
     </row>
     <row r="27" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>645</v>
@@ -12459,20 +12465,20 @@
         <v>400</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="J27" s="10"/>
       <c r="K27" s="10" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="L27" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="N27" s="11" t="n">
         <v>1001</v>
@@ -12481,12 +12487,12 @@
         <v>554</v>
       </c>
       <c r="P27" s="10" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>645</v>
@@ -12516,13 +12522,13 @@
         <v>22.5</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="L28" s="13" t="s">
         <v>67</v>
       </c>
       <c r="M28" s="13" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="N28" s="14" t="n">
         <v>512</v>
@@ -12531,12 +12537,12 @@
         <v>444</v>
       </c>
       <c r="P28" s="13" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>645</v>
@@ -12566,13 +12572,13 @@
         <v>22.5</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="N29" s="11" t="n">
         <v>512</v>
@@ -12581,21 +12587,21 @@
         <v>444</v>
       </c>
       <c r="P29" s="10" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="E30" s="13" t="s">
         <v>772</v>
@@ -12616,13 +12622,13 @@
         <v>22.5</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="L30" s="13" t="s">
         <v>67</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="N30" s="14" t="n">
         <v>256</v>
@@ -12631,12 +12637,12 @@
         <v>554</v>
       </c>
       <c r="P30" s="13" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>701</v>
@@ -12666,13 +12672,13 @@
         <v>22.5</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="L31" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="N31" s="11" t="n">
         <v>256</v>
@@ -12681,12 +12687,12 @@
         <v>554</v>
       </c>
       <c r="P31" s="10" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>701</v>
@@ -12716,13 +12722,13 @@
         <v>22.5</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="L32" s="13" t="s">
         <v>67</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="N32" s="14" t="n">
         <v>256</v>
@@ -12731,21 +12737,21 @@
         <v>554</v>
       </c>
       <c r="P32" s="13" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>772</v>
@@ -12766,27 +12772,27 @@
         <v>22.5</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="L33" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M33" s="10" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="N33" s="11" t="n">
         <v>512</v>
       </c>
       <c r="O33" s="10" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="P33" s="10" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>645</v>
@@ -12810,33 +12816,33 @@
         <v>250</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="J34" s="25" t="n">
         <v>22.5</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="L34" s="13" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="M34" s="13" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="N34" s="14" t="n">
         <v>512</v>
       </c>
       <c r="O34" s="13" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="P34" s="13" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>645</v>
@@ -12860,19 +12866,19 @@
         <v>250</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="J35" s="17" t="n">
         <v>22.5</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="N35" s="11" t="n">
         <v>512</v>
@@ -12881,12 +12887,12 @@
         <v>554</v>
       </c>
       <c r="P35" s="10" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>645</v>
@@ -12907,7 +12913,7 @@
         <v>400</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="I36" s="13" t="s">
         <v>542</v>
@@ -12916,13 +12922,13 @@
         <v>22.5</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="L36" s="13" t="s">
         <v>445</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="N36" s="14" t="n">
         <v>512</v>
@@ -12931,12 +12937,12 @@
         <v>554</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>645</v>
@@ -12957,22 +12963,22 @@
         <v>400</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="J37" s="17" t="n">
         <v>22.5</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="L37" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M37" s="10" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="N37" s="11" t="n">
         <v>512</v>
@@ -12981,12 +12987,12 @@
         <v>554</v>
       </c>
       <c r="P37" s="10" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>645</v>
@@ -13007,22 +13013,22 @@
         <v>400</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="J38" s="25" t="n">
         <v>22.5</v>
       </c>
       <c r="K38" s="13" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="L38" s="13" t="s">
         <v>445</v>
       </c>
       <c r="M38" s="13" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="N38" s="14" t="n">
         <v>512</v>
@@ -13031,21 +13037,21 @@
         <v>554</v>
       </c>
       <c r="P38" s="13" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>772</v>
@@ -13057,22 +13063,22 @@
         <v>400</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="J39" s="17" t="n">
         <v>22.5</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="L39" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="N39" s="11" t="n">
         <v>512</v>
@@ -13081,21 +13087,21 @@
         <v>554</v>
       </c>
       <c r="P39" s="10" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="E40" s="13" t="s">
         <v>772</v>
@@ -13107,22 +13113,22 @@
         <v>400</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="J40" s="25" t="n">
         <v>22.5</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="L40" s="13" t="s">
         <v>445</v>
       </c>
       <c r="M40" s="13" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="N40" s="14" t="n">
         <v>512</v>
@@ -13131,12 +13137,12 @@
         <v>554</v>
       </c>
       <c r="P40" s="13" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>701</v>
@@ -13157,22 +13163,22 @@
         <v>400</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="J41" s="17" t="n">
         <v>22.5</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="M41" s="10" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="N41" s="11" t="n">
         <v>512</v>
@@ -13181,12 +13187,12 @@
         <v>554</v>
       </c>
       <c r="P41" s="10" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>701</v>
@@ -13207,22 +13213,22 @@
         <v>400</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="J42" s="13" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="K42" s="13" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="L42" s="13" t="s">
         <v>67</v>
       </c>
       <c r="M42" s="13" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="N42" s="14" t="n">
         <v>64</v>
@@ -13231,12 +13237,12 @@
         <v>554</v>
       </c>
       <c r="P42" s="13" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>701</v>
@@ -13257,22 +13263,22 @@
         <v>400</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="J43" s="17" t="n">
         <v>25</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="L43" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M43" s="10" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="N43" s="14" t="n">
         <v>64</v>
@@ -13281,12 +13287,12 @@
         <v>554</v>
       </c>
       <c r="P43" s="10" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="B44" s="13" t="s">
         <v>701</v>
@@ -13307,22 +13313,22 @@
         <v>400</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="K44" s="13" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="L44" s="13" t="s">
         <v>67</v>
       </c>
       <c r="M44" s="13" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="N44" s="14" t="n">
         <v>64</v>
@@ -13331,18 +13337,18 @@
         <v>554</v>
       </c>
       <c r="P44" s="13" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>701</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="D45" s="11" t="n">
         <v>1</v>
@@ -13366,13 +13372,13 @@
         <v>22.5</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="L45" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M45" s="10" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="N45" s="11" t="n">
         <v>256</v>
@@ -13381,12 +13387,12 @@
         <v>554</v>
       </c>
       <c r="P45" s="10" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="8" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>701</v>
@@ -13416,13 +13422,13 @@
         <v>22.5</v>
       </c>
       <c r="K46" s="13" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="L46" s="13" t="s">
         <v>67</v>
       </c>
       <c r="M46" s="13" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="N46" s="14" t="n">
         <v>256</v>
@@ -13431,7 +13437,7 @@
         <v>554</v>
       </c>
       <c r="P46" s="13" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
     </row>
   </sheetData>
@@ -13497,10 +13503,10 @@
         <v>519</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>55</v>
@@ -13523,7 +13529,7 @@
     </row>
     <row r="2" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>701</v>
@@ -13538,7 +13544,7 @@
         <v>691</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="G2" s="12" t="n">
         <v>9</v>
@@ -13547,10 +13553,10 @@
         <v>400</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="K2" s="11" t="n">
         <v>512</v>
@@ -13559,15 +13565,15 @@
         <v>554</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>646</v>
@@ -13579,19 +13585,19 @@
         <v>691</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="H3" s="15" t="n">
         <v>400</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="K3" s="14" t="n">
         <v>512</v>
@@ -13600,12 +13606,12 @@
         <v>554</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>701</v>
@@ -13620,7 +13626,7 @@
         <v>691</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="G4" s="12" t="n">
         <v>9</v>
@@ -13629,10 +13635,10 @@
         <v>400</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="K4" s="11" t="n">
         <v>512</v>
@@ -13641,15 +13647,15 @@
         <v>554</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>646</v>
@@ -13661,19 +13667,19 @@
         <v>691</v>
       </c>
       <c r="F5" s="13" t="s">
+        <v>961</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>959</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>957</v>
       </c>
       <c r="H5" s="15" t="n">
         <v>400</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="K5" s="14" t="n">
         <v>512</v>
@@ -13682,39 +13688,39 @@
         <v>554</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>691</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="H6" s="12" t="n">
         <v>400</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="K6" s="11" t="n">
         <v>256</v>
@@ -13794,46 +13800,46 @@
         <v>518</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>519</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>55</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="T1" s="8" t="s">
         <v>432</v>
@@ -13850,13 +13856,13 @@
     </row>
     <row r="2" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>645</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>646</v>
@@ -13865,13 +13871,13 @@
         <v>646</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="G2" s="11" t="n">
         <v>500</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>762</v>
@@ -13904,10 +13910,10 @@
         <v>22.5</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="U2" s="11" t="n">
         <v>512</v>
@@ -13916,12 +13922,12 @@
         <v>444</v>
       </c>
       <c r="W2" s="10" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>645</v>
@@ -13942,7 +13948,7 @@
         <v>840</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>762</v>
@@ -13975,10 +13981,10 @@
         <v>22.5</v>
       </c>
       <c r="S3" s="13" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="T3" s="13" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="U3" s="14" t="n">
         <v>256</v>
@@ -13987,12 +13993,12 @@
         <v>444</v>
       </c>
       <c r="W3" s="13" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>645</v>
@@ -14013,7 +14019,7 @@
         <v>840</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>762</v>
@@ -14046,27 +14052,27 @@
         <v>22.5</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="T4" s="10" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="U4" s="11" t="n">
         <v>128</v>
       </c>
       <c r="V4" s="10" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="W4" s="10" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>646</v>
@@ -14078,19 +14084,19 @@
         <v>646</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="G5" s="14" t="n">
         <v>840</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="K5" s="15" t="n">
         <v>400</v>
@@ -14105,7 +14111,7 @@
         <v>67</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="P5" s="13" t="s">
         <v>67</v>
@@ -14117,10 +14123,10 @@
         <v>67</v>
       </c>
       <c r="S5" s="13" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="T5" s="13" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="U5" s="14" t="n">
         <v>256</v>
@@ -14132,10 +14138,10 @@
     </row>
     <row r="6" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>646</v>
@@ -14147,13 +14153,13 @@
         <v>646</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>762</v>
@@ -14186,10 +14192,10 @@
         <v>22.5</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="T6" s="10" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="U6" s="11" t="n">
         <v>128</v>
@@ -14201,10 +14207,10 @@
     </row>
     <row r="7" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>646</v>
@@ -14216,13 +14222,13 @@
         <v>646</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="G7" s="14" t="n">
         <v>920</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>762</v>
@@ -14243,7 +14249,7 @@
         <v>17.5</v>
       </c>
       <c r="O7" s="13" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="P7" s="15" t="n">
         <v>250</v>
@@ -14255,10 +14261,10 @@
         <v>22.5</v>
       </c>
       <c r="S7" s="13" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="T7" s="13" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="U7" s="14" t="n">
         <v>512</v>
@@ -14270,10 +14276,10 @@
     </row>
     <row r="8" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>646</v>
@@ -14285,13 +14291,13 @@
         <v>646</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="G8" s="11" t="n">
         <v>920</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>762</v>
@@ -14312,7 +14318,7 @@
         <v>17.5</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="P8" s="12" t="n">
         <v>250</v>
@@ -14324,22 +14330,22 @@
         <v>22.5</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="T8" s="10" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="U8" s="11" t="n">
         <v>512</v>
       </c>
       <c r="V8" s="10" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="W8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>701</v>
@@ -14354,13 +14360,13 @@
         <v>702</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>762</v>
@@ -14384,19 +14390,19 @@
         <v>729</v>
       </c>
       <c r="P9" s="13" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="Q9" s="13" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="R9" s="25" t="n">
         <v>25</v>
       </c>
       <c r="S9" s="13" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="T9" s="13" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="U9" s="14" t="n">
         <v>512</v>
@@ -14408,7 +14414,7 @@
     </row>
     <row r="10" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>701</v>
@@ -14423,13 +14429,13 @@
         <v>702</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="G10" s="11" t="n">
         <v>900</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>762</v>
@@ -14462,10 +14468,10 @@
         <v>25</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="T10" s="10" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="U10" s="11" t="n">
         <v>512</v>
@@ -14477,10 +14483,10 @@
     </row>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>646</v>
@@ -14492,19 +14498,19 @@
         <v>646</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="K11" s="15" t="n">
         <v>400</v>
@@ -14531,10 +14537,10 @@
         <v>67</v>
       </c>
       <c r="S11" s="13" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="T11" s="13" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="U11" s="14" t="n">
         <v>128</v>
@@ -15357,7 +15363,7 @@
         <v>49</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>423</v>
@@ -15369,7 +15375,7 @@
         <v>518</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>519</v>
@@ -15381,16 +15387,16 @@
         <v>673</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>177</v>
@@ -15402,7 +15408,7 @@
         <v>61</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="R2" s="8" t="s">
         <v>62</v>
@@ -15410,16 +15416,16 @@
     </row>
     <row r="3" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>659</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>67</v>
@@ -15428,19 +15434,19 @@
         <v>67</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>625</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="L3" s="10" t="s">
         <v>67</v>
@@ -15449,7 +15455,7 @@
         <v>67</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="O3" s="12" t="n">
         <v>128</v>
@@ -15466,16 +15472,16 @@
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>659</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>67</v>
@@ -15484,19 +15490,19 @@
         <v>67</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>625</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="L4" s="13" t="s">
         <v>67</v>
@@ -15505,7 +15511,7 @@
         <v>67</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="O4" s="15" t="n">
         <v>128</v>
@@ -15520,16 +15526,16 @@
     </row>
     <row r="5" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>659</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>67</v>
@@ -15538,19 +15544,19 @@
         <v>67</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>625</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="L5" s="10" t="s">
         <v>67</v>
@@ -15559,7 +15565,7 @@
         <v>67</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="O5" s="12" t="n">
         <v>128</v>
@@ -15574,46 +15580,46 @@
     </row>
     <row r="6" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>659</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>701</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>625</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="L6" s="13" t="s">
         <v>733</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="O6" s="15" t="n">
         <v>128</v>
@@ -15628,46 +15634,46 @@
     </row>
     <row r="7" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>659</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>701</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>625</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="L7" s="10" t="s">
         <v>733</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="O7" s="12" t="n">
         <v>128</v>
@@ -15682,7 +15688,7 @@
     </row>
     <row r="8" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>701</v>
@@ -15691,7 +15697,7 @@
         <v>659</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>67</v>
@@ -15700,19 +15706,19 @@
         <v>67</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>625</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="L8" s="13" t="s">
         <v>67</v>
@@ -15721,7 +15727,7 @@
         <v>67</v>
       </c>
       <c r="N8" s="13" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="O8" s="15" t="n">
         <v>128</v>
@@ -15734,7 +15740,7 @@
     </row>
     <row r="9" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>701</v>
@@ -15743,7 +15749,7 @@
         <v>659</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>67</v>
@@ -15752,19 +15758,19 @@
         <v>67</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>625</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="L9" s="10" t="s">
         <v>67</v>
@@ -15773,7 +15779,7 @@
         <v>67</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="O9" s="12" t="n">
         <v>128</v>
@@ -15786,7 +15792,7 @@
     </row>
     <row r="10" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>701</v>
@@ -15795,37 +15801,37 @@
         <v>659</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>701</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>625</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="L10" s="13" t="s">
         <v>733</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="N10" s="13" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="O10" s="15" t="n">
         <v>128</v>
@@ -15840,7 +15846,7 @@
     </row>
     <row r="11" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>701</v>
@@ -15849,37 +15855,37 @@
         <v>659</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>701</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>625</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="L11" s="10" t="s">
         <v>733</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="O11" s="12" t="n">
         <v>128</v>
@@ -15951,7 +15957,7 @@
         <v>51</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>52</v>
@@ -15966,10 +15972,10 @@
         <v>673</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>107</v>
@@ -15995,38 +16001,38 @@
     </row>
     <row r="2" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="10" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>276</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>698</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="M2" s="12" t="n">
         <v>32</v>
@@ -16042,19 +16048,19 @@
     </row>
     <row r="3" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>679</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>549</v>
@@ -16063,19 +16069,19 @@
         <v>532</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="J3" s="13" t="s">
         <v>67</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="M3" s="15" t="n">
         <v>64</v>
@@ -16090,45 +16096,45 @@
         <v>37.1</v>
       </c>
       <c r="Q3" s="13" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>549</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>67</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="M4" s="12" t="n">
         <v>64</v>
@@ -16144,31 +16150,31 @@
     </row>
     <row r="5" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="D5" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>549</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>67</v>
@@ -16177,7 +16183,7 @@
         <v>698</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="M5" s="15" t="n">
         <v>512</v>
@@ -16190,45 +16196,45 @@
       </c>
       <c r="P5" s="25"/>
       <c r="Q5" s="13" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>549</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>67</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="M6" s="12" t="n">
         <v>64</v>
@@ -16244,40 +16250,40 @@
     </row>
     <row r="7" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="M7" s="15" t="n">
         <v>64</v>
@@ -16293,40 +16299,40 @@
     </row>
     <row r="8" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="D8" s="12" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>276</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>698</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="M8" s="12" t="n">
         <v>32</v>
@@ -16342,40 +16348,40 @@
     </row>
     <row r="9" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>1066</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C9" s="13" t="s">
+      <c r="F9" s="13" t="s">
         <v>1067</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>1064</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>1065</v>
-      </c>
       <c r="G9" s="13" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="M9" s="15" t="n">
         <v>64</v>
@@ -16389,40 +16395,40 @@
     </row>
     <row r="10" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>646</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="M10" s="12" t="n">
         <v>64</v>
@@ -16436,16 +16442,16 @@
     </row>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>94</v>
@@ -16454,22 +16460,22 @@
         <v>632</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="J11" s="13" t="s">
         <v>67</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="M11" s="15" t="n">
         <v>64</v>
@@ -16483,16 +16489,16 @@
     </row>
     <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>1075</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>1073</v>
-      </c>
       <c r="D12" s="10" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>94</v>
@@ -16501,22 +16507,22 @@
         <v>632</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="J12" s="10" t="s">
         <v>67</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="M12" s="12" t="n">
         <v>64</v>
@@ -16629,7 +16635,7 @@
     </row>
     <row r="3" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>701</v>
@@ -16641,22 +16647,22 @@
         <v>646</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>549</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="K3" s="12" t="n">
         <v>128</v>
@@ -16665,15 +16671,15 @@
         <v>11</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>646</v>
@@ -16682,22 +16688,22 @@
         <v>646</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>549</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="K4" s="15" t="n">
         <v>128</v>
@@ -16706,36 +16712,36 @@
         <v>11</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>701</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>549</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="J5" s="10" t="s">
         <v>654</v>
@@ -16747,36 +16753,36 @@
         <v>11</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>701</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>549</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="J6" s="13" t="s">
         <v>654</v>
@@ -16788,7 +16794,7 @@
         <v>11</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
   </sheetData>
@@ -16843,7 +16849,7 @@
         <v>49</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>517</v>
@@ -16858,7 +16864,7 @@
         <v>518</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>519</v>
@@ -16896,19 +16902,19 @@
     </row>
     <row r="2" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>112</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>67</v>
@@ -16947,24 +16953,24 @@
         <v>554</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>112</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>67</v>
@@ -16973,16 +16979,16 @@
         <v>67</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="J3" s="13" t="s">
         <v>532</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>67</v>
@@ -17006,19 +17012,19 @@
     </row>
     <row r="4" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>112</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>67</v>
@@ -17027,7 +17033,7 @@
         <v>67</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>632</v>
@@ -17060,31 +17066,31 @@
     </row>
     <row r="5" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>112</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="G5" s="14" t="n">
         <v>500</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>67</v>
@@ -17093,13 +17099,13 @@
         <v>600</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="O5" s="13" t="s">
         <v>695</v>
@@ -17114,19 +17120,19 @@
     </row>
     <row r="6" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>112</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>67</v>
@@ -17144,7 +17150,7 @@
         <v>532</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="L6" s="12" t="n">
         <v>195</v>
@@ -17153,7 +17159,7 @@
         <v>90</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="O6" s="10" t="s">
         <v>695</v>
@@ -17168,19 +17174,19 @@
     </row>
     <row r="7" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>112</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>67</v>
@@ -17189,10 +17195,10 @@
         <v>67</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="J7" s="13" t="s">
         <v>532</v>
@@ -17207,7 +17213,7 @@
         <v>90</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="O7" s="13" t="s">
         <v>695</v>

--- a/project_overview.xlsx
+++ b/project_overview.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Export Summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -3926,7 +3926,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>205920</xdr:colOff>
+      <xdr:colOff>205560</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>31680</xdr:rowOff>
     </xdr:to>
@@ -3938,7 +3938,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="3027600" cy="526680"/>
+          <a:ext cx="3027240" cy="526680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3991,7 +3991,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>205920</xdr:colOff>
+      <xdr:colOff>205560</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>15120</xdr:rowOff>
     </xdr:to>
@@ -4003,7 +4003,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="7247880"/>
-          <a:ext cx="3027600" cy="526680"/>
+          <a:ext cx="3027240" cy="526680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4061,7 +4061,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>108</xdr:row>
       <xdr:rowOff>75960</xdr:rowOff>
     </xdr:to>
@@ -4073,7 +4073,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="60120" y="16951680"/>
-          <a:ext cx="6332040" cy="952200"/>
+          <a:ext cx="6331680" cy="952200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4126,7 +4126,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>89640</xdr:colOff>
+      <xdr:colOff>89280</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>129240</xdr:rowOff>
     </xdr:to>
@@ -4138,7 +4138,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="60120" y="0"/>
-          <a:ext cx="7084080" cy="952200"/>
+          <a:ext cx="7083720" cy="952200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4196,7 +4196,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>258480</xdr:colOff>
+      <xdr:colOff>258120</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>126720</xdr:rowOff>
     </xdr:to>
@@ -4208,7 +4208,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4491360" cy="952200"/>
+          <a:ext cx="4491000" cy="952200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4261,7 +4261,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>258480</xdr:colOff>
+      <xdr:colOff>258120</xdr:colOff>
       <xdr:row>114</xdr:row>
       <xdr:rowOff>160200</xdr:rowOff>
     </xdr:to>
@@ -4273,7 +4273,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="18454680"/>
-          <a:ext cx="4491360" cy="526680"/>
+          <a:ext cx="4491000" cy="526680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4326,7 +4326,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>258480</xdr:colOff>
+      <xdr:colOff>258120</xdr:colOff>
       <xdr:row>134</xdr:row>
       <xdr:rowOff>88560</xdr:rowOff>
     </xdr:to>
@@ -4338,7 +4338,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="21684960"/>
-          <a:ext cx="4491360" cy="526680"/>
+          <a:ext cx="4491000" cy="526680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6725,7 +6725,7 @@
   </sheetPr>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -11153,10 +11153,10 @@
   <dimension ref="A1:P46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
       <selection pane="bottomRight" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -13749,9 +13749,9 @@
   <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="X1" activeCellId="0" sqref="X1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
       <selection pane="bottomRight" activeCell="N19" activeCellId="0" sqref="N19"/>
     </sheetView>
@@ -16552,12 +16552,12 @@
   </sheetPr>
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q4" activeCellId="0" sqref="Q4"/>
+      <selection pane="bottomRight" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/project_overview.xlsx
+++ b/project_overview.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="21"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Export Summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -2121,13 +2121,13 @@
     <t xml:space="preserve">draw files/ image source</t>
   </si>
   <si>
-    <t xml:space="preserve">length [nm] (in x-direction)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">width [nm] (in y-direction)</t>
+    <t xml:space="preserve">period</t>
   </si>
   <si>
     <t xml:space="preserve">corner rounding/ averaging threshold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thickness </t>
   </si>
   <si>
     <t xml:space="preserve">Ti thickness [nm]</t>
@@ -2268,10 +2268,10 @@
     <t xml:space="preserve">avg_glass_square_shape_9</t>
   </si>
   <si>
+    <t xml:space="preserve">vacuum</t>
+  </si>
+  <si>
     <t xml:space="preserve">GLASS RESIDUAL FROM CVD; average particle (unit cell) from binarised SEM image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vacuum</t>
   </si>
   <si>
     <t xml:space="preserve">avg_square_shape_10</t>
@@ -3734,7 +3734,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3820,6 +3820,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3926,7 +3930,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>205560</xdr:colOff>
+      <xdr:colOff>204840</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>31680</xdr:rowOff>
     </xdr:to>
@@ -3938,7 +3942,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="3027240" cy="526680"/>
+          <a:ext cx="3026520" cy="526680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3991,7 +3995,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>205560</xdr:colOff>
+      <xdr:colOff>204840</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>15120</xdr:rowOff>
     </xdr:to>
@@ -4003,7 +4007,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="7247880"/>
-          <a:ext cx="3027240" cy="526680"/>
+          <a:ext cx="3026520" cy="526680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4061,7 +4065,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>42480</xdr:colOff>
+      <xdr:colOff>41760</xdr:colOff>
       <xdr:row>108</xdr:row>
       <xdr:rowOff>75960</xdr:rowOff>
     </xdr:to>
@@ -4073,7 +4077,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="60120" y="16951680"/>
-          <a:ext cx="6331680" cy="952200"/>
+          <a:ext cx="6330960" cy="952200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4126,7 +4130,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>89280</xdr:colOff>
+      <xdr:colOff>88560</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>129240</xdr:rowOff>
     </xdr:to>
@@ -4138,7 +4142,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="60120" y="0"/>
-          <a:ext cx="7083720" cy="952200"/>
+          <a:ext cx="7083000" cy="952200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4196,7 +4200,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>258120</xdr:colOff>
+      <xdr:colOff>257400</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>126720</xdr:rowOff>
     </xdr:to>
@@ -4208,7 +4212,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4491000" cy="952200"/>
+          <a:ext cx="4490280" cy="952200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4261,7 +4265,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>258120</xdr:colOff>
+      <xdr:colOff>257400</xdr:colOff>
       <xdr:row>114</xdr:row>
       <xdr:rowOff>160200</xdr:rowOff>
     </xdr:to>
@@ -4273,7 +4277,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="18454680"/>
-          <a:ext cx="4491000" cy="526680"/>
+          <a:ext cx="4490280" cy="526680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4326,7 +4330,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>258120</xdr:colOff>
+      <xdr:colOff>257400</xdr:colOff>
       <xdr:row>134</xdr:row>
       <xdr:rowOff>88560</xdr:rowOff>
     </xdr:to>
@@ -4338,7 +4342,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="21684960"/>
-          <a:ext cx="4491000" cy="526680"/>
+          <a:ext cx="4490280" cy="526680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4393,7 +4397,7 @@
   <dimension ref="B3:D45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CN1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4770,11 +4774,11 @@
   <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="F22" activeCellId="0" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="A27" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6730,7 +6734,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="G21" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7367,7 +7371,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7501,34 +7505,36 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:P1048576"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
-      <selection pane="bottomRight" activeCell="H29" activeCellId="0" sqref="H29"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="25.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="10.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="13.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="10.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="16.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="12.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="6" width="14.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="6" width="13.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="6" width="15.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="6" width="12.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="6" width="13.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="6" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="6" width="8.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="6" width="25.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="256" min="16" style="6" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="257" style="0" width="10.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="10.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="16.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="6" width="12.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="6" width="14.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="6" width="13.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="6" width="15.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="6" width="12.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="6" width="13.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="6" width="9.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="6" width="8.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="6" width="25.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="257" min="18" style="6" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="258" style="0" width="10.84"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7536,49 +7542,49 @@
         <v>49</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>422</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>52</v>
+      <c r="D1" s="22" t="s">
+        <v>423</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>685</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>673</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>686</v>
       </c>
       <c r="H1" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>687</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>688</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>689</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>432</v>
-      </c>
       <c r="M1" s="8" t="s">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="N1" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="O1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7591,42 +7597,42 @@
       <c r="C2" s="10" t="s">
         <v>646</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>691</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>690</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>692</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>67</v>
-      </c>
       <c r="H2" s="10" t="s">
         <v>67</v>
       </c>
       <c r="I2" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>693</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>694</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="10"/>
+      <c r="M2" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="M2" s="12" t="n">
+      <c r="N2" s="12" t="n">
         <v>64</v>
       </c>
-      <c r="N2" s="12" t="n">
+      <c r="O2" s="12" t="n">
         <v>19</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>696</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7639,42 +7645,42 @@
       <c r="C3" s="13" t="s">
         <v>646</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>691</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>690</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="13" t="s">
         <v>692</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>67</v>
-      </c>
       <c r="H3" s="13" t="s">
         <v>67</v>
       </c>
       <c r="I3" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="K3" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="13"/>
+      <c r="M3" s="13" t="s">
         <v>695</v>
       </c>
-      <c r="M3" s="15" t="n">
+      <c r="N3" s="15" t="n">
         <v>64</v>
       </c>
-      <c r="N3" s="22" t="n">
+      <c r="O3" s="23" t="n">
         <v>43112.4340277778</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="P3" s="8" t="s">
         <v>699</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7687,42 +7693,42 @@
       <c r="C4" s="10" t="s">
         <v>702</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>691</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>690</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>692</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>67</v>
-      </c>
       <c r="H4" s="10" t="s">
         <v>67</v>
       </c>
       <c r="I4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>703</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="K4" s="10" t="s">
         <v>704</v>
       </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="10"/>
+      <c r="M4" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="M4" s="12" t="n">
+      <c r="N4" s="12" t="n">
         <v>256</v>
       </c>
-      <c r="N4" s="12" t="n">
+      <c r="O4" s="12" t="n">
         <v>19</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="P4" s="10" t="s">
         <v>696</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7735,42 +7741,42 @@
       <c r="C5" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>691</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="F5" s="13" t="s">
         <v>690</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="G5" s="13" t="s">
         <v>692</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>67</v>
-      </c>
       <c r="H5" s="13" t="s">
         <v>67</v>
       </c>
       <c r="I5" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="K5" s="13" t="s">
         <v>704</v>
       </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="13"/>
+      <c r="M5" s="13" t="s">
         <v>695</v>
       </c>
-      <c r="M5" s="15" t="n">
+      <c r="N5" s="15" t="n">
         <v>512</v>
       </c>
-      <c r="N5" s="15" t="n">
+      <c r="O5" s="15" t="n">
         <v>15</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="P5" s="13" t="s">
         <v>696</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7783,42 +7789,42 @@
       <c r="C6" s="10" t="s">
         <v>702</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>691</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>690</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="G6" s="10" t="s">
         <v>692</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>67</v>
-      </c>
       <c r="H6" s="10" t="s">
         <v>67</v>
       </c>
       <c r="I6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="K6" s="10" t="s">
         <v>707</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="10"/>
+      <c r="M6" s="10" t="s">
         <v>708</v>
       </c>
-      <c r="M6" s="12" t="n">
+      <c r="N6" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="N6" s="23" t="n">
+      <c r="O6" s="24" t="n">
         <v>43112.7666666667</v>
       </c>
-      <c r="O6" s="24" t="s">
+      <c r="P6" s="25" t="s">
         <v>709</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7831,42 +7837,42 @@
       <c r="C7" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>691</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="F7" s="13" t="s">
         <v>690</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="G7" s="13" t="s">
         <v>692</v>
       </c>
-      <c r="G7" s="13" t="s">
-        <v>67</v>
-      </c>
       <c r="H7" s="13" t="s">
         <v>67</v>
       </c>
       <c r="I7" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="13" t="s">
         <v>703</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="K7" s="13" t="s">
         <v>704</v>
       </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="13"/>
+      <c r="M7" s="13" t="s">
         <v>695</v>
       </c>
-      <c r="M7" s="15" t="n">
+      <c r="N7" s="15" t="n">
         <v>512</v>
       </c>
-      <c r="N7" s="15" t="n">
+      <c r="O7" s="15" t="n">
         <v>15</v>
       </c>
-      <c r="O7" s="13" t="s">
+      <c r="P7" s="13" t="s">
         <v>696</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7879,42 +7885,42 @@
       <c r="C8" s="10" t="s">
         <v>712</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>691</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="F8" s="10" t="s">
         <v>690</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="G8" s="10" t="s">
         <v>692</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>67</v>
-      </c>
       <c r="H8" s="10" t="s">
         <v>67</v>
       </c>
       <c r="I8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>703</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="K8" s="10" t="s">
         <v>704</v>
       </c>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="10"/>
+      <c r="M8" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="M8" s="12" t="n">
+      <c r="N8" s="12" t="n">
         <v>512</v>
       </c>
-      <c r="N8" s="12" t="n">
+      <c r="O8" s="12" t="n">
         <v>15</v>
       </c>
-      <c r="O8" s="10" t="s">
+      <c r="P8" s="10" t="s">
         <v>696</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7927,42 +7933,42 @@
       <c r="C9" s="13" t="s">
         <v>646</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>691</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="F9" s="13" t="s">
         <v>690</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="G9" s="13" t="s">
         <v>692</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>67</v>
-      </c>
       <c r="H9" s="13" t="s">
         <v>67</v>
       </c>
       <c r="I9" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="13" t="s">
         <v>693</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="K9" s="13" t="s">
         <v>704</v>
       </c>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="13"/>
+      <c r="M9" s="13" t="s">
         <v>695</v>
       </c>
-      <c r="M9" s="15" t="n">
+      <c r="N9" s="15" t="n">
         <v>512</v>
       </c>
-      <c r="N9" s="15" t="n">
+      <c r="O9" s="15" t="n">
         <v>15</v>
       </c>
-      <c r="O9" s="13" t="s">
+      <c r="P9" s="13" t="s">
         <v>696</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="59.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7975,49 +7981,48 @@
       <c r="C10" s="10" t="s">
         <v>702</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>691</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>690</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="G10" s="10" t="s">
         <v>692</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>67</v>
-      </c>
       <c r="H10" s="10" t="s">
         <v>67</v>
       </c>
       <c r="I10" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="10" t="s">
         <v>703</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="K10" s="10" t="s">
         <v>716</v>
       </c>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10" t="s">
+      <c r="L10" s="10"/>
+      <c r="M10" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="M10" s="15" t="n">
+      <c r="N10" s="15" t="n">
         <v>64</v>
       </c>
-      <c r="N10" s="12" t="n">
+      <c r="O10" s="12" t="n">
         <v>15</v>
       </c>
-      <c r="O10" s="10" t="s">
+      <c r="P10" s="10" t="s">
         <v>696</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="33" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
@@ -8026,9 +8031,10 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
-      <c r="M11" s="15"/>
+      <c r="M11" s="13"/>
       <c r="N11" s="15"/>
-      <c r="O11" s="13"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
@@ -8040,42 +8046,42 @@
       <c r="C12" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>691</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="F12" s="13" t="s">
         <v>690</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="G12" s="13" t="s">
         <v>692</v>
       </c>
-      <c r="G12" s="13" t="s">
-        <v>67</v>
-      </c>
       <c r="H12" s="13" t="s">
         <v>67</v>
       </c>
       <c r="I12" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="13" t="s">
         <v>703</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="K12" s="13" t="s">
         <v>718</v>
       </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13" t="s">
+      <c r="L12" s="13"/>
+      <c r="M12" s="13" t="s">
         <v>695</v>
       </c>
-      <c r="M12" s="15" t="n">
+      <c r="N12" s="15" t="n">
         <v>64</v>
       </c>
-      <c r="N12" s="15" t="n">
+      <c r="O12" s="15" t="n">
         <v>15</v>
       </c>
-      <c r="O12" s="13" t="s">
+      <c r="P12" s="13" t="s">
         <v>696</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8088,44 +8094,44 @@
       <c r="C13" s="10" t="s">
         <v>702</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>691</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="F13" s="10" t="s">
         <v>690</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="G13" s="10" t="s">
         <v>692</v>
       </c>
-      <c r="G13" s="10" t="s">
-        <v>67</v>
-      </c>
       <c r="H13" s="10" t="s">
         <v>67</v>
       </c>
       <c r="I13" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="10" t="s">
         <v>703</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="K13" s="10" t="s">
         <v>720</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="L13" s="10" t="s">
         <v>721</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="M13" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="M13" s="15" t="n">
+      <c r="N13" s="15" t="n">
         <v>64</v>
       </c>
-      <c r="N13" s="12" t="n">
+      <c r="O13" s="12" t="n">
         <v>15</v>
       </c>
-      <c r="O13" s="10" t="s">
+      <c r="P13" s="10" t="s">
         <v>696</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8138,43 +8144,43 @@
       <c r="C14" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>691</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="F14" s="13" t="s">
         <v>690</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="G14" s="13" t="s">
         <v>692</v>
       </c>
-      <c r="G14" s="13" t="s">
-        <v>67</v>
-      </c>
       <c r="H14" s="13" t="s">
         <v>67</v>
       </c>
       <c r="I14" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="13" t="s">
         <v>703</v>
       </c>
-      <c r="J14" s="13" t="s">
+      <c r="K14" s="13" t="s">
         <v>720</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="L14" s="13" t="s">
         <v>721</v>
       </c>
-      <c r="L14" s="13" t="s">
+      <c r="M14" s="13" t="s">
         <v>695</v>
       </c>
-      <c r="M14" s="15" t="n">
+      <c r="N14" s="15" t="n">
         <v>64</v>
       </c>
-      <c r="N14" s="15" t="n">
+      <c r="O14" s="15" t="n">
         <v>15</v>
       </c>
-      <c r="O14" s="13" t="s">
-        <v>723</v>
-      </c>
-      <c r="P14" s="6" t="s">
+      <c r="P14" s="13" t="s">
         <v>724</v>
       </c>
     </row>
@@ -8188,44 +8194,44 @@
       <c r="C15" s="10" t="s">
         <v>702</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>691</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="F15" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="G15" s="10" t="s">
         <v>692</v>
       </c>
-      <c r="G15" s="10" t="s">
-        <v>67</v>
-      </c>
       <c r="H15" s="10" t="s">
         <v>67</v>
       </c>
       <c r="I15" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="10" t="s">
         <v>703</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="K15" s="10" t="s">
         <v>727</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="L15" s="10" t="s">
         <v>721</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="M15" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="M15" s="15" t="n">
+      <c r="N15" s="15" t="n">
         <v>64</v>
       </c>
-      <c r="N15" s="12" t="n">
+      <c r="O15" s="12" t="n">
         <v>15</v>
       </c>
-      <c r="O15" s="10" t="s">
+      <c r="P15" s="10" t="s">
         <v>696</v>
-      </c>
-      <c r="P15" s="6" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8238,44 +8244,44 @@
       <c r="C16" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>691</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="F16" s="13" t="s">
         <v>726</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="G16" s="13" t="s">
         <v>692</v>
       </c>
-      <c r="G16" s="13" t="s">
-        <v>67</v>
-      </c>
       <c r="H16" s="13" t="s">
         <v>67</v>
       </c>
       <c r="I16" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="13" t="s">
         <v>703</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="K16" s="13" t="s">
         <v>729</v>
       </c>
-      <c r="K16" s="13" t="s">
+      <c r="L16" s="13" t="s">
         <v>730</v>
       </c>
-      <c r="L16" s="13" t="s">
+      <c r="M16" s="13" t="s">
         <v>695</v>
       </c>
-      <c r="M16" s="15" t="n">
+      <c r="N16" s="15" t="n">
         <v>512</v>
       </c>
-      <c r="N16" s="15" t="n">
+      <c r="O16" s="15" t="n">
         <v>19</v>
       </c>
-      <c r="O16" s="13" t="s">
+      <c r="P16" s="13" t="s">
         <v>696</v>
-      </c>
-      <c r="P16" s="6" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8288,42 +8294,42 @@
       <c r="C17" s="10" t="s">
         <v>646</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>691</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="F17" s="10" t="s">
         <v>732</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="G17" s="10" t="s">
         <v>733</v>
       </c>
-      <c r="G17" s="10" t="s">
-        <v>67</v>
-      </c>
       <c r="H17" s="10" t="s">
         <v>67</v>
       </c>
       <c r="I17" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" s="10" t="s">
         <v>693</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="K17" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10" t="s">
+      <c r="L17" s="10"/>
+      <c r="M17" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="M17" s="12" t="n">
+      <c r="N17" s="12" t="n">
         <v>64</v>
       </c>
-      <c r="N17" s="12" t="n">
+      <c r="O17" s="12" t="n">
         <v>23</v>
       </c>
-      <c r="O17" s="10" t="s">
+      <c r="P17" s="10" t="s">
         <v>696</v>
-      </c>
-      <c r="P17" s="6" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8336,42 +8342,42 @@
       <c r="C18" s="13" t="s">
         <v>646</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>691</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="F18" s="13" t="s">
         <v>732</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="G18" s="13" t="s">
         <v>733</v>
       </c>
-      <c r="G18" s="13" t="s">
-        <v>67</v>
-      </c>
       <c r="H18" s="13" t="s">
         <v>67</v>
       </c>
       <c r="I18" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="13" t="s">
         <v>703</v>
       </c>
-      <c r="J18" s="13" t="s">
+      <c r="K18" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13" t="s">
+      <c r="L18" s="13"/>
+      <c r="M18" s="13" t="s">
         <v>695</v>
       </c>
-      <c r="M18" s="15" t="n">
+      <c r="N18" s="15" t="n">
         <v>64</v>
       </c>
-      <c r="N18" s="22" t="n">
+      <c r="O18" s="23" t="n">
         <v>43112.4340277778</v>
       </c>
-      <c r="O18" s="8" t="s">
+      <c r="P18" s="8" t="s">
         <v>699</v>
-      </c>
-      <c r="P18" s="6" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8384,42 +8390,42 @@
       <c r="C19" s="10" t="s">
         <v>702</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>691</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="F19" s="10" t="s">
         <v>737</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="G19" s="10" t="s">
         <v>733</v>
       </c>
-      <c r="G19" s="10" t="s">
-        <v>67</v>
-      </c>
       <c r="H19" s="10" t="s">
         <v>67</v>
       </c>
       <c r="I19" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J19" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="K19" s="10" t="s">
         <v>738</v>
       </c>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10" t="s">
+      <c r="L19" s="10"/>
+      <c r="M19" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="M19" s="12" t="n">
+      <c r="N19" s="12" t="n">
         <v>512</v>
       </c>
-      <c r="N19" s="12" t="n">
+      <c r="O19" s="12" t="n">
         <v>15</v>
       </c>
-      <c r="O19" s="10" t="s">
+      <c r="P19" s="10" t="s">
         <v>696</v>
-      </c>
-      <c r="P19" s="6" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8432,42 +8438,42 @@
       <c r="C20" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>691</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="F20" s="13" t="s">
         <v>737</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="G20" s="13" t="s">
         <v>733</v>
       </c>
-      <c r="G20" s="13" t="s">
-        <v>67</v>
-      </c>
       <c r="H20" s="13" t="s">
         <v>67</v>
       </c>
       <c r="I20" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20" s="13" t="s">
         <v>703</v>
       </c>
-      <c r="J20" s="13" t="s">
+      <c r="K20" s="13" t="s">
         <v>738</v>
       </c>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13" t="s">
+      <c r="L20" s="13"/>
+      <c r="M20" s="13" t="s">
         <v>695</v>
       </c>
-      <c r="M20" s="15" t="n">
+      <c r="N20" s="15" t="n">
         <v>512</v>
       </c>
-      <c r="N20" s="15" t="n">
+      <c r="O20" s="15" t="n">
         <v>15</v>
       </c>
-      <c r="O20" s="13" t="s">
+      <c r="P20" s="13" t="s">
         <v>696</v>
-      </c>
-      <c r="P20" s="6" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8480,42 +8486,42 @@
       <c r="C21" s="10" t="s">
         <v>646</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>691</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="F21" s="10" t="s">
         <v>737</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="G21" s="10" t="s">
         <v>733</v>
       </c>
-      <c r="G21" s="10" t="s">
-        <v>67</v>
-      </c>
       <c r="H21" s="10" t="s">
         <v>67</v>
       </c>
       <c r="I21" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" s="10" t="s">
         <v>703</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="K21" s="10" t="s">
         <v>738</v>
       </c>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10" t="s">
+      <c r="L21" s="10"/>
+      <c r="M21" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="M21" s="12" t="n">
+      <c r="N21" s="12" t="n">
         <v>512</v>
       </c>
-      <c r="N21" s="12" t="n">
+      <c r="O21" s="12" t="n">
         <v>15</v>
       </c>
-      <c r="O21" s="10" t="s">
+      <c r="P21" s="10" t="s">
         <v>696</v>
-      </c>
-      <c r="P21" s="6" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8528,42 +8534,42 @@
       <c r="C22" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>691</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="F22" s="13" t="s">
         <v>737</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="G22" s="13" t="s">
         <v>733</v>
       </c>
-      <c r="G22" s="13" t="s">
-        <v>67</v>
-      </c>
       <c r="H22" s="13" t="s">
         <v>67</v>
       </c>
       <c r="I22" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J22" s="13" t="s">
         <v>703</v>
       </c>
-      <c r="J22" s="13" t="s">
+      <c r="K22" s="13" t="s">
         <v>742</v>
       </c>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13" t="s">
+      <c r="L22" s="13"/>
+      <c r="M22" s="13" t="s">
         <v>695</v>
       </c>
-      <c r="M22" s="15" t="n">
+      <c r="N22" s="15" t="n">
         <v>512</v>
       </c>
-      <c r="N22" s="15" t="n">
+      <c r="O22" s="15" t="n">
         <v>22</v>
       </c>
-      <c r="O22" s="13" t="s">
+      <c r="P22" s="13" t="s">
         <v>696</v>
-      </c>
-      <c r="P22" s="6" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8576,42 +8582,42 @@
       <c r="C23" s="10" t="s">
         <v>646</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>691</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="F23" s="10" t="s">
         <v>737</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="G23" s="10" t="s">
         <v>733</v>
       </c>
-      <c r="G23" s="10" t="s">
-        <v>67</v>
-      </c>
       <c r="H23" s="10" t="s">
         <v>67</v>
       </c>
       <c r="I23" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J23" s="10" t="s">
         <v>744</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="K23" s="10" t="s">
         <v>738</v>
       </c>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10" t="s">
+      <c r="L23" s="10"/>
+      <c r="M23" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="M23" s="12" t="n">
+      <c r="N23" s="12" t="n">
         <v>512</v>
       </c>
-      <c r="N23" s="12" t="n">
+      <c r="O23" s="12" t="n">
         <v>15</v>
       </c>
-      <c r="O23" s="10" t="s">
+      <c r="P23" s="10" t="s">
         <v>696</v>
-      </c>
-      <c r="P23" s="6" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8624,42 +8630,42 @@
       <c r="C24" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>691</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="F24" s="13" t="s">
         <v>737</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="G24" s="13" t="s">
         <v>733</v>
       </c>
-      <c r="G24" s="13" t="s">
-        <v>67</v>
-      </c>
       <c r="H24" s="13" t="s">
         <v>67</v>
       </c>
       <c r="I24" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J24" s="13" t="s">
         <v>703</v>
       </c>
-      <c r="J24" s="13" t="s">
+      <c r="K24" s="13" t="s">
         <v>746</v>
       </c>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13" t="s">
+      <c r="L24" s="13"/>
+      <c r="M24" s="13" t="s">
         <v>695</v>
       </c>
-      <c r="M24" s="15" t="n">
+      <c r="N24" s="15" t="n">
         <v>64</v>
       </c>
-      <c r="N24" s="15" t="n">
+      <c r="O24" s="15" t="n">
         <v>15</v>
       </c>
-      <c r="O24" s="13" t="s">
+      <c r="P24" s="13" t="s">
         <v>696</v>
-      </c>
-      <c r="P24" s="6" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8672,42 +8678,42 @@
       <c r="C25" s="10" t="s">
         <v>702</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>691</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="F25" s="10" t="s">
         <v>748</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="G25" s="10" t="s">
         <v>733</v>
       </c>
-      <c r="G25" s="10" t="s">
-        <v>67</v>
-      </c>
       <c r="H25" s="10" t="s">
         <v>67</v>
       </c>
       <c r="I25" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J25" s="10" t="s">
         <v>703</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="K25" s="10" t="s">
         <v>746</v>
       </c>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10" t="s">
+      <c r="L25" s="10"/>
+      <c r="M25" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="M25" s="15" t="n">
+      <c r="N25" s="15" t="n">
         <v>64</v>
       </c>
-      <c r="N25" s="12" t="n">
+      <c r="O25" s="12" t="n">
         <v>15</v>
       </c>
-      <c r="O25" s="10" t="s">
+      <c r="P25" s="10" t="s">
         <v>696</v>
-      </c>
-      <c r="P25" s="6" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8720,44 +8726,44 @@
       <c r="C26" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>691</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="F26" s="13" t="s">
         <v>737</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="G26" s="13" t="s">
         <v>733</v>
       </c>
-      <c r="G26" s="13" t="s">
-        <v>67</v>
-      </c>
       <c r="H26" s="13" t="s">
         <v>67</v>
       </c>
       <c r="I26" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J26" s="13" t="s">
         <v>703</v>
       </c>
-      <c r="J26" s="13" t="s">
+      <c r="K26" s="13" t="s">
         <v>750</v>
       </c>
-      <c r="K26" s="13" t="s">
+      <c r="L26" s="13" t="s">
         <v>721</v>
       </c>
-      <c r="L26" s="13" t="s">
+      <c r="M26" s="13" t="s">
         <v>695</v>
       </c>
-      <c r="M26" s="15" t="n">
+      <c r="N26" s="15" t="n">
         <v>64</v>
       </c>
-      <c r="N26" s="15" t="n">
+      <c r="O26" s="15" t="n">
         <v>15</v>
       </c>
-      <c r="O26" s="13" t="s">
+      <c r="P26" s="13" t="s">
         <v>696</v>
-      </c>
-      <c r="P26" s="6" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8770,44 +8776,44 @@
       <c r="C27" s="10" t="s">
         <v>702</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="E27" s="10" t="s">
         <v>691</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="F27" s="10" t="s">
         <v>752</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="G27" s="10" t="s">
         <v>733</v>
       </c>
-      <c r="G27" s="10" t="s">
-        <v>67</v>
-      </c>
       <c r="H27" s="10" t="s">
         <v>67</v>
       </c>
       <c r="I27" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J27" s="10" t="s">
         <v>703</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="K27" s="10" t="s">
         <v>750</v>
       </c>
-      <c r="K27" s="10" t="s">
+      <c r="L27" s="10" t="s">
         <v>721</v>
       </c>
-      <c r="L27" s="10" t="s">
+      <c r="M27" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="M27" s="15" t="n">
+      <c r="N27" s="15" t="n">
         <v>64</v>
       </c>
-      <c r="N27" s="12" t="n">
+      <c r="O27" s="12" t="n">
         <v>15</v>
       </c>
-      <c r="O27" s="10" t="s">
+      <c r="P27" s="10" t="s">
         <v>753</v>
-      </c>
-      <c r="P27" s="6" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8820,42 +8826,42 @@
       <c r="C28" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="E28" s="13" t="s">
         <v>691</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="F28" s="13" t="s">
         <v>752</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="G28" s="13" t="s">
         <v>733</v>
       </c>
-      <c r="G28" s="13" t="s">
-        <v>67</v>
-      </c>
       <c r="H28" s="13" t="s">
         <v>67</v>
       </c>
       <c r="I28" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J28" s="13" t="s">
         <v>703</v>
       </c>
-      <c r="J28" s="13" t="s">
+      <c r="K28" s="13" t="s">
         <v>742</v>
       </c>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13" t="s">
+      <c r="L28" s="13"/>
+      <c r="M28" s="13" t="s">
         <v>695</v>
       </c>
-      <c r="M28" s="15" t="n">
+      <c r="N28" s="15" t="n">
         <v>512</v>
       </c>
-      <c r="N28" s="15" t="n">
+      <c r="O28" s="15" t="n">
         <v>22</v>
       </c>
-      <c r="O28" s="13" t="s">
+      <c r="P28" s="13" t="s">
         <v>753</v>
-      </c>
-      <c r="P28" s="6" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8868,38 +8874,38 @@
       <c r="C29" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="E29" s="13" t="s">
         <v>691</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="F29" s="13" t="s">
         <v>752</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="G29" s="13" t="s">
         <v>733</v>
       </c>
-      <c r="G29" s="13"/>
       <c r="H29" s="13"/>
-      <c r="I29" s="13" t="s">
+      <c r="I29" s="13"/>
+      <c r="J29" s="13" t="s">
         <v>703</v>
       </c>
-      <c r="J29" s="13" t="s">
+      <c r="K29" s="13" t="s">
         <v>742</v>
       </c>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13" t="s">
+      <c r="L29" s="13"/>
+      <c r="M29" s="13" t="s">
         <v>695</v>
       </c>
-      <c r="M29" s="15" t="n">
+      <c r="N29" s="15" t="n">
         <v>512</v>
       </c>
-      <c r="N29" s="15" t="n">
+      <c r="O29" s="15" t="n">
         <v>22</v>
       </c>
-      <c r="O29" s="13" t="s">
+      <c r="P29" s="13" t="s">
         <v>753</v>
-      </c>
-      <c r="P29" s="6" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8912,38 +8918,38 @@
       <c r="C30" s="13" t="s">
         <v>465</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="E30" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="F30" s="13" t="s">
         <v>619</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="G30" s="13" t="s">
         <v>692</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>758</v>
       </c>
       <c r="H30" s="13" t="s">
         <v>758</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>67</v>
+        <v>758</v>
       </c>
       <c r="J30" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K30" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13" t="s">
+      <c r="L30" s="13"/>
+      <c r="M30" s="13" t="s">
         <v>695</v>
       </c>
-      <c r="M30" s="15" t="n">
+      <c r="N30" s="15" t="n">
         <v>64</v>
       </c>
-      <c r="N30" s="15" t="n">
+      <c r="O30" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="O30" s="13" t="s">
+      <c r="P30" s="13" t="s">
         <v>759</v>
       </c>
     </row>
@@ -8957,42 +8963,42 @@
       <c r="C31" s="10" t="s">
         <v>702</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>761</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="F31" s="10" t="s">
         <v>762</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="G31" s="10" t="s">
         <v>692</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="H31" s="10" t="s">
         <v>763</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="I31" s="10" t="s">
         <v>764</v>
       </c>
-      <c r="I31" s="10" t="s">
+      <c r="J31" s="10" t="s">
         <v>765</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="K31" s="10" t="s">
         <v>698</v>
       </c>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10" t="s">
+      <c r="L31" s="10"/>
+      <c r="M31" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="M31" s="12" t="n">
+      <c r="N31" s="12" t="n">
         <v>512</v>
       </c>
-      <c r="N31" s="12" t="n">
+      <c r="O31" s="12" t="n">
         <v>15</v>
       </c>
-      <c r="O31" s="10" t="s">
+      <c r="P31" s="10" t="s">
         <v>766</v>
-      </c>
-      <c r="P31" s="6" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9005,42 +9011,42 @@
       <c r="C32" s="13" t="s">
         <v>465</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="E32" s="13" t="s">
         <v>639</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="F32" s="13" t="s">
         <v>619</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="G32" s="13" t="s">
         <v>733</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="H32" s="13" t="s">
         <v>768</v>
       </c>
-      <c r="H32" s="13" t="s">
+      <c r="I32" s="13" t="s">
         <v>769</v>
       </c>
-      <c r="I32" s="13" t="s">
-        <v>67</v>
-      </c>
       <c r="J32" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K32" s="13" t="s">
         <v>770</v>
       </c>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13" t="s">
+      <c r="L32" s="13"/>
+      <c r="M32" s="13" t="s">
         <v>695</v>
       </c>
-      <c r="M32" s="15" t="n">
+      <c r="N32" s="15" t="n">
         <v>64</v>
       </c>
-      <c r="N32" s="15" t="n">
+      <c r="O32" s="15" t="n">
         <v>12</v>
       </c>
-      <c r="O32" s="13" t="s">
+      <c r="P32" s="13" t="s">
         <v>759</v>
-      </c>
-      <c r="P32" s="6" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9053,42 +9059,42 @@
       <c r="C33" s="10" t="s">
         <v>702</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="E33" s="10" t="s">
         <v>772</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="F33" s="10" t="s">
         <v>762</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="G33" s="10" t="s">
         <v>733</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="H33" s="10" t="s">
         <v>773</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="I33" s="10" t="s">
         <v>774</v>
       </c>
-      <c r="I33" s="10" t="s">
+      <c r="J33" s="10" t="s">
         <v>765</v>
       </c>
-      <c r="J33" s="10" t="s">
+      <c r="K33" s="10" t="s">
         <v>742</v>
       </c>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10" t="s">
+      <c r="L33" s="10"/>
+      <c r="M33" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="M33" s="15" t="n">
+      <c r="N33" s="15" t="n">
         <v>64</v>
       </c>
-      <c r="N33" s="12" t="n">
+      <c r="O33" s="12" t="n">
         <v>15</v>
       </c>
-      <c r="O33" s="10" t="s">
+      <c r="P33" s="10" t="s">
         <v>766</v>
-      </c>
-      <c r="P33" s="6" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9101,42 +9107,42 @@
       <c r="C34" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="E34" s="13" t="s">
         <v>772</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="F34" s="13" t="s">
         <v>762</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="G34" s="13" t="s">
         <v>733</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="H34" s="13" t="s">
         <v>776</v>
       </c>
-      <c r="H34" s="13" t="s">
+      <c r="I34" s="13" t="s">
         <v>777</v>
       </c>
-      <c r="I34" s="13" t="s">
+      <c r="J34" s="13" t="s">
         <v>485</v>
       </c>
-      <c r="J34" s="13" t="s">
+      <c r="K34" s="13" t="s">
         <v>750</v>
       </c>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13" t="s">
+      <c r="L34" s="13"/>
+      <c r="M34" s="13" t="s">
         <v>695</v>
       </c>
-      <c r="M34" s="15" t="n">
+      <c r="N34" s="15" t="n">
         <v>64</v>
       </c>
-      <c r="N34" s="15" t="n">
+      <c r="O34" s="15" t="n">
         <v>15</v>
       </c>
-      <c r="O34" s="13" t="s">
+      <c r="P34" s="13" t="s">
         <v>766</v>
-      </c>
-      <c r="P34" s="6" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9149,42 +9155,42 @@
       <c r="C35" s="10" t="s">
         <v>702</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="E35" s="10" t="s">
         <v>779</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="F35" s="10" t="s">
         <v>780</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="G35" s="10" t="s">
         <v>733</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="H35" s="10" t="s">
         <v>781</v>
       </c>
-      <c r="H35" s="10" t="s">
+      <c r="I35" s="10" t="s">
         <v>782</v>
       </c>
-      <c r="I35" s="10" t="s">
-        <v>67</v>
-      </c>
       <c r="J35" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K35" s="10" t="s">
         <v>742</v>
       </c>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10" t="s">
+      <c r="L35" s="10"/>
+      <c r="M35" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="M35" s="15" t="n">
+      <c r="N35" s="15" t="n">
         <v>64</v>
       </c>
-      <c r="N35" s="23" t="n">
+      <c r="O35" s="24" t="n">
         <v>43185.5166666667</v>
       </c>
-      <c r="O35" s="10" t="s">
+      <c r="P35" s="10" t="s">
         <v>783</v>
-      </c>
-      <c r="P35" s="6" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9197,65 +9203,64 @@
       <c r="C36" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="E36" s="13" t="s">
         <v>779</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="F36" s="13" t="s">
         <v>780</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="G36" s="13" t="s">
         <v>733</v>
       </c>
-      <c r="G36" s="13" t="s">
+      <c r="H36" s="13" t="s">
         <v>785</v>
       </c>
-      <c r="H36" s="13" t="s">
+      <c r="I36" s="13" t="s">
         <v>786</v>
       </c>
-      <c r="I36" s="13" t="s">
-        <v>67</v>
-      </c>
       <c r="J36" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K36" s="13" t="s">
         <v>750</v>
       </c>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13" t="s">
+      <c r="L36" s="13"/>
+      <c r="M36" s="13" t="s">
         <v>695</v>
       </c>
-      <c r="M36" s="15" t="n">
+      <c r="N36" s="15" t="n">
         <v>64</v>
       </c>
-      <c r="N36" s="15" t="n">
+      <c r="O36" s="15" t="n">
         <v>15</v>
       </c>
-      <c r="O36" s="14"/>
-      <c r="P36" s="6" t="s">
-        <v>702</v>
-      </c>
+      <c r="P36" s="14"/>
     </row>
     <row r="37" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="19"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
       <c r="E37" s="11"/>
-      <c r="F37" s="10"/>
+      <c r="F37" s="11"/>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="11"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="11"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D40" s="6" t="s">
+      <c r="E40" s="6" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.511805555555555" footer="0.25"/>
@@ -9274,12 +9279,12 @@
   </sheetPr>
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q9" activeCellId="0" sqref="Q9"/>
+      <selection pane="bottomRight" activeCell="B1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9308,7 +9313,7 @@
         <v>49</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>50</v>
+        <v>517</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>422</v>
@@ -11124,7 +11129,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11157,7 +11162,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
-      <selection pane="bottomRight" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11324,7 +11329,7 @@
       <c r="I4" s="15" t="n">
         <v>75</v>
       </c>
-      <c r="J4" s="25" t="n">
+      <c r="J4" s="26" t="n">
         <v>17.5</v>
       </c>
       <c r="K4" s="13" t="s">
@@ -11424,7 +11429,7 @@
       <c r="I6" s="15" t="n">
         <v>75</v>
       </c>
-      <c r="J6" s="25" t="n">
+      <c r="J6" s="26" t="n">
         <v>17.5</v>
       </c>
       <c r="K6" s="13" t="s">
@@ -11524,7 +11529,7 @@
       <c r="I8" s="13" t="s">
         <v>849</v>
       </c>
-      <c r="J8" s="25" t="n">
+      <c r="J8" s="26" t="n">
         <v>17.5</v>
       </c>
       <c r="K8" s="13" t="s">
@@ -11624,7 +11629,7 @@
       <c r="I10" s="13" t="s">
         <v>852</v>
       </c>
-      <c r="J10" s="25" t="n">
+      <c r="J10" s="26" t="n">
         <v>17.5</v>
       </c>
       <c r="K10" s="13" t="s">
@@ -11724,7 +11729,7 @@
       <c r="I12" s="13" t="s">
         <v>852</v>
       </c>
-      <c r="J12" s="25" t="n">
+      <c r="J12" s="26" t="n">
         <v>17.5</v>
       </c>
       <c r="K12" s="13" t="s">
@@ -11824,7 +11829,7 @@
       <c r="I14" s="13" t="s">
         <v>865</v>
       </c>
-      <c r="J14" s="25" t="n">
+      <c r="J14" s="26" t="n">
         <v>17.5</v>
       </c>
       <c r="K14" s="13" t="s">
@@ -11924,7 +11929,7 @@
       <c r="I16" s="13" t="s">
         <v>871</v>
       </c>
-      <c r="J16" s="25" t="n">
+      <c r="J16" s="26" t="n">
         <v>17.5</v>
       </c>
       <c r="K16" s="13" t="s">
@@ -12124,7 +12129,7 @@
       <c r="I20" s="13" t="s">
         <v>882</v>
       </c>
-      <c r="J20" s="25" t="n">
+      <c r="J20" s="26" t="n">
         <v>25</v>
       </c>
       <c r="K20" s="13" t="s">
@@ -12224,7 +12229,7 @@
       <c r="I22" s="13" t="s">
         <v>891</v>
       </c>
-      <c r="J22" s="25" t="n">
+      <c r="J22" s="26" t="n">
         <v>25</v>
       </c>
       <c r="K22" s="13" t="s">
@@ -12274,7 +12279,7 @@
       <c r="I23" s="13" t="s">
         <v>894</v>
       </c>
-      <c r="J23" s="25" t="n">
+      <c r="J23" s="26" t="n">
         <v>25</v>
       </c>
       <c r="K23" s="13" t="s">
@@ -12324,7 +12329,7 @@
       <c r="I24" s="15" t="n">
         <v>75</v>
       </c>
-      <c r="J24" s="25" t="n">
+      <c r="J24" s="26" t="n">
         <v>17.5</v>
       </c>
       <c r="K24" s="13" t="s">
@@ -12518,7 +12523,7 @@
       <c r="I28" s="15" t="n">
         <v>95</v>
       </c>
-      <c r="J28" s="25" t="n">
+      <c r="J28" s="26" t="n">
         <v>22.5</v>
       </c>
       <c r="K28" s="13" t="s">
@@ -12618,7 +12623,7 @@
       <c r="I30" s="15" t="n">
         <v>95</v>
       </c>
-      <c r="J30" s="25" t="n">
+      <c r="J30" s="26" t="n">
         <v>22.5</v>
       </c>
       <c r="K30" s="13" t="s">
@@ -12718,7 +12723,7 @@
       <c r="I32" s="15" t="n">
         <v>95</v>
       </c>
-      <c r="J32" s="25" t="n">
+      <c r="J32" s="26" t="n">
         <v>22.5</v>
       </c>
       <c r="K32" s="13" t="s">
@@ -12818,7 +12823,7 @@
       <c r="I34" s="13" t="s">
         <v>919</v>
       </c>
-      <c r="J34" s="25" t="n">
+      <c r="J34" s="26" t="n">
         <v>22.5</v>
       </c>
       <c r="K34" s="13" t="s">
@@ -12918,7 +12923,7 @@
       <c r="I36" s="13" t="s">
         <v>542</v>
       </c>
-      <c r="J36" s="25" t="n">
+      <c r="J36" s="26" t="n">
         <v>22.5</v>
       </c>
       <c r="K36" s="13" t="s">
@@ -13018,7 +13023,7 @@
       <c r="I38" s="13" t="s">
         <v>919</v>
       </c>
-      <c r="J38" s="25" t="n">
+      <c r="J38" s="26" t="n">
         <v>22.5</v>
       </c>
       <c r="K38" s="13" t="s">
@@ -13118,7 +13123,7 @@
       <c r="I40" s="13" t="s">
         <v>935</v>
       </c>
-      <c r="J40" s="25" t="n">
+      <c r="J40" s="26" t="n">
         <v>22.5</v>
       </c>
       <c r="K40" s="13" t="s">
@@ -13418,7 +13423,7 @@
       <c r="I46" s="15" t="n">
         <v>95</v>
       </c>
-      <c r="J46" s="25" t="n">
+      <c r="J46" s="26" t="n">
         <v>22.5</v>
       </c>
       <c r="K46" s="13" t="s">
@@ -13466,7 +13471,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13753,7 +13758,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="X1" activeCellId="0" sqref="X1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N19" activeCellId="0" sqref="N19"/>
+      <selection pane="bottomRight" activeCell="N19" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13965,7 +13970,7 @@
       <c r="M3" s="15" t="n">
         <v>75</v>
       </c>
-      <c r="N3" s="25" t="n">
+      <c r="N3" s="26" t="n">
         <v>17.5</v>
       </c>
       <c r="O3" s="13" t="s">
@@ -13977,7 +13982,7 @@
       <c r="Q3" s="15" t="n">
         <v>95</v>
       </c>
-      <c r="R3" s="25" t="n">
+      <c r="R3" s="26" t="n">
         <v>22.5</v>
       </c>
       <c r="S3" s="13" t="s">
@@ -14245,7 +14250,7 @@
       <c r="M7" s="15" t="n">
         <v>75</v>
       </c>
-      <c r="N7" s="25" t="n">
+      <c r="N7" s="26" t="n">
         <v>17.5</v>
       </c>
       <c r="O7" s="13" t="s">
@@ -14257,7 +14262,7 @@
       <c r="Q7" s="15" t="n">
         <v>95</v>
       </c>
-      <c r="R7" s="25" t="n">
+      <c r="R7" s="26" t="n">
         <v>22.5</v>
       </c>
       <c r="S7" s="13" t="s">
@@ -14383,7 +14388,7 @@
       <c r="M9" s="15" t="n">
         <v>75</v>
       </c>
-      <c r="N9" s="25" t="n">
+      <c r="N9" s="26" t="n">
         <v>17.5</v>
       </c>
       <c r="O9" s="13" t="s">
@@ -14395,7 +14400,7 @@
       <c r="Q9" s="13" t="s">
         <v>999</v>
       </c>
-      <c r="R9" s="25" t="n">
+      <c r="R9" s="26" t="n">
         <v>25</v>
       </c>
       <c r="S9" s="13" t="s">
@@ -14521,7 +14526,7 @@
       <c r="M11" s="15" t="n">
         <v>75</v>
       </c>
-      <c r="N11" s="25" t="n">
+      <c r="N11" s="26" t="n">
         <v>17.5</v>
       </c>
       <c r="O11" s="13" t="s">
@@ -14569,7 +14574,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AB1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14600,7 +14605,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15309,7 +15314,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15460,7 +15465,7 @@
       <c r="O3" s="12" t="n">
         <v>128</v>
       </c>
-      <c r="P3" s="23" t="n">
+      <c r="P3" s="24" t="n">
         <v>43251.5166666667</v>
       </c>
       <c r="Q3" s="17" t="n">
@@ -15627,7 +15632,7 @@
       <c r="P6" s="15" t="n">
         <v>20</v>
       </c>
-      <c r="Q6" s="25" t="n">
+      <c r="Q6" s="26" t="n">
         <v>105.3</v>
       </c>
       <c r="R6" s="14"/>
@@ -15839,7 +15844,7 @@
       <c r="P10" s="15" t="n">
         <v>20</v>
       </c>
-      <c r="Q10" s="25" t="n">
+      <c r="Q10" s="26" t="n">
         <v>104.6</v>
       </c>
       <c r="R10" s="14"/>
@@ -15924,7 +15929,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16037,7 +16042,7 @@
       <c r="M2" s="12" t="n">
         <v>32</v>
       </c>
-      <c r="N2" s="23" t="n">
+      <c r="N2" s="24" t="n">
         <v>42759.4305555556</v>
       </c>
       <c r="O2" s="12"/>
@@ -16092,7 +16097,7 @@
       <c r="O3" s="15" t="n">
         <v>149</v>
       </c>
-      <c r="P3" s="25" t="n">
+      <c r="P3" s="26" t="n">
         <v>37.1</v>
       </c>
       <c r="Q3" s="13" t="s">
@@ -16194,7 +16199,7 @@
       <c r="O5" s="15" t="n">
         <v>149</v>
       </c>
-      <c r="P5" s="25"/>
+      <c r="P5" s="26"/>
       <c r="Q5" s="13" t="s">
         <v>1058</v>
       </c>
@@ -16294,7 +16299,7 @@
       <c r="O7" s="15" t="n">
         <v>149</v>
       </c>
-      <c r="P7" s="25"/>
+      <c r="P7" s="26"/>
       <c r="Q7" s="14"/>
     </row>
     <row r="8" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16337,7 +16342,7 @@
       <c r="M8" s="12" t="n">
         <v>32</v>
       </c>
-      <c r="N8" s="23" t="n">
+      <c r="N8" s="24" t="n">
         <v>42759.4305555556</v>
       </c>
       <c r="O8" s="12"/>
@@ -16390,7 +16395,7 @@
         <v>17</v>
       </c>
       <c r="O9" s="15"/>
-      <c r="P9" s="25"/>
+      <c r="P9" s="26"/>
       <c r="Q9" s="14"/>
     </row>
     <row r="10" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16484,7 +16489,7 @@
         <v>11</v>
       </c>
       <c r="O11" s="15"/>
-      <c r="P11" s="25"/>
+      <c r="P11" s="26"/>
       <c r="Q11" s="14"/>
     </row>
     <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16552,12 +16557,12 @@
   </sheetPr>
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="F13" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16576,21 +16581,21 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
     </row>
     <row r="2" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
@@ -16823,7 +16828,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17249,7 +17254,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18526,7 +18531,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20859,7 +20864,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21585,7 +21590,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21871,7 +21876,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="R1" activeCellId="0" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="bottomRight" activeCell="I2" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22606,7 +22611,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22887,7 +22892,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/project_overview.xlsx
+++ b/project_overview.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3998" uniqueCount="1118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3972" uniqueCount="1118">
   <si>
     <t xml:space="preserve">This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -1911,7 +1911,7 @@
     <t xml:space="preserve">antiwire_single_ob_3</t>
   </si>
   <si>
-    <t xml:space="preserve">0 2.045 4.091 6.136 8.182 10.227 12.273 14.318 16.364 18.409 20.455 22.500 24.545 26.591 28.636 30.682 32.727 34.773 36.818 38.864 40.909 42.955 45.000</t>
+    <t xml:space="preserve">[0 2.045 4.091 6.136 8.182 10.227 12.273 14.318 16.364 18.409 20.455 22.500 24.545 26.591 28.636 30.682 32.727 34.773 36.818 38.864 40.909 42.955 45.000]</t>
   </si>
   <si>
     <t xml:space="preserve">Bar_single_4</t>
@@ -1996,9 +1996,6 @@
   </si>
   <si>
     <t xml:space="preserve">SF_wire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Au - Johnson</t>
   </si>
   <si>
     <t xml:space="preserve">SiO2</t>
@@ -2184,9 +2181,6 @@
     <t xml:space="preserve">avg_square_shape_2</t>
   </si>
   <si>
-    <t xml:space="preserve">Au - Kay</t>
-  </si>
-  <si>
     <t xml:space="preserve">Futurrex</t>
   </si>
   <si>
@@ -2241,7 +2235,7 @@
     <t xml:space="preserve">avg_square_shape_6_lowres</t>
   </si>
   <si>
-    <t xml:space="preserve">Au - Johnson, Kay, Olmon</t>
+    <t xml:space="preserve">Au, Au</t>
   </si>
   <si>
     <t xml:space="preserve">avg_square_shape_7</t>
@@ -2550,6 +2544,12 @@
     <t xml:space="preserve">symmetric L-arms; wider spectrum</t>
   </si>
   <si>
+    <t xml:space="preserve">350:50:150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80:20:180</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.42</t>
   </si>
   <si>
@@ -2625,9 +2625,6 @@
     <t xml:space="preserve">Chi_RotWire_1_rounded_final</t>
   </si>
   <si>
-    <t xml:space="preserve">Au – Johnson, Au - Kay</t>
-  </si>
-  <si>
     <t xml:space="preserve">[55 66]</t>
   </si>
   <si>
@@ -2679,7 +2676,7 @@
     <t xml:space="preserve">Chi_RotWire_1_rounded_Ti_d_final_var</t>
   </si>
   <si>
-    <t xml:space="preserve">Au - Johnson, Au - Kay, Au - Olmon</t>
+    <t xml:space="preserve">Au, Au, Au</t>
   </si>
   <si>
     <t xml:space="preserve">SiO2, Futurrex</t>
@@ -3079,6 +3076,9 @@
     <t xml:space="preserve">Chi_RotWire_1_avg</t>
   </si>
   <si>
+    <t xml:space="preserve">Au - Kay</t>
+  </si>
+  <si>
     <t xml:space="preserve">avg_line_sys_R_cropped</t>
   </si>
   <si>
@@ -3106,6 +3106,9 @@
     <t xml:space="preserve">Chi_RotWire_2_avg_scan</t>
   </si>
   <si>
+    <t xml:space="preserve">Au - Johnson, Au - Kay, Au - Olmon</t>
+  </si>
+  <si>
     <t xml:space="preserve">9, full</t>
   </si>
   <si>
@@ -3191,9 +3194,6 @@
   </si>
   <si>
     <t xml:space="preserve">Chi_RotWire_stack_final_lowres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Au - Johnson, Au - Kay</t>
   </si>
   <si>
     <t xml:space="preserve">Chi_RotWire_stack_final</t>
@@ -3471,7 +3471,7 @@
     <t xml:space="preserve">HyperVis_al_square_holes_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Al - Oxford</t>
+    <t xml:space="preserve">Al</t>
   </si>
   <si>
     <t xml:space="preserve">80:10:240</t>
@@ -3734,7 +3734,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3839,6 +3839,10 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3930,7 +3934,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>204840</xdr:colOff>
+      <xdr:colOff>203760</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>31680</xdr:rowOff>
     </xdr:to>
@@ -3942,7 +3946,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="3026520" cy="526680"/>
+          <a:ext cx="3025440" cy="526680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3995,7 +3999,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>204840</xdr:colOff>
+      <xdr:colOff>203760</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>15120</xdr:rowOff>
     </xdr:to>
@@ -4007,7 +4011,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="7247880"/>
-          <a:ext cx="3026520" cy="526680"/>
+          <a:ext cx="3025440" cy="526680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4065,7 +4069,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>41760</xdr:colOff>
+      <xdr:colOff>40680</xdr:colOff>
       <xdr:row>108</xdr:row>
       <xdr:rowOff>75960</xdr:rowOff>
     </xdr:to>
@@ -4077,7 +4081,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="60120" y="16951680"/>
-          <a:ext cx="6330960" cy="952200"/>
+          <a:ext cx="6329880" cy="952200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4130,7 +4134,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>88560</xdr:colOff>
+      <xdr:colOff>87480</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>129240</xdr:rowOff>
     </xdr:to>
@@ -4142,7 +4146,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="60120" y="0"/>
-          <a:ext cx="7083000" cy="952200"/>
+          <a:ext cx="7081920" cy="952200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4200,7 +4204,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>257400</xdr:colOff>
+      <xdr:colOff>256320</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>126720</xdr:rowOff>
     </xdr:to>
@@ -4212,7 +4216,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4490280" cy="952200"/>
+          <a:ext cx="4489200" cy="952200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4265,7 +4269,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>257400</xdr:colOff>
+      <xdr:colOff>256320</xdr:colOff>
       <xdr:row>114</xdr:row>
       <xdr:rowOff>160200</xdr:rowOff>
     </xdr:to>
@@ -4277,7 +4281,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="18454680"/>
-          <a:ext cx="4490280" cy="526680"/>
+          <a:ext cx="4489200" cy="526680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4330,7 +4334,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>257400</xdr:colOff>
+      <xdr:colOff>256320</xdr:colOff>
       <xdr:row>134</xdr:row>
       <xdr:rowOff>88560</xdr:rowOff>
     </xdr:to>
@@ -4342,7 +4346,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="21684960"/>
-          <a:ext cx="4490280" cy="526680"/>
+          <a:ext cx="4489200" cy="526680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4396,8 +4400,8 @@
   </sheetPr>
   <dimension ref="B3:D45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CN1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4774,11 +4778,11 @@
   <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="A27" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="O33" activeCellId="0" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6734,7 +6738,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G21" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomRight" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6809,13 +6813,13 @@
         <v>644</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>645</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>646</v>
-      </c>
       <c r="D2" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>67</v>
@@ -6839,7 +6843,7 @@
         <v>485</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="M2" s="11" t="n">
         <v>256</v>
@@ -6851,16 +6855,16 @@
     </row>
     <row r="3" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>645</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>646</v>
-      </c>
       <c r="D3" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>67</v>
@@ -6884,7 +6888,7 @@
         <v>485</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="M3" s="14" t="n">
         <v>256</v>
@@ -6893,21 +6897,21 @@
         <v>444</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>645</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>646</v>
-      </c>
       <c r="D4" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>67</v>
@@ -6922,16 +6926,16 @@
         <v>1000</v>
       </c>
       <c r="I4" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="K4" s="10" t="s">
         <v>652</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="L4" s="10" t="s">
         <v>653</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>654</v>
       </c>
       <c r="M4" s="11" t="n">
         <v>256</v>
@@ -6940,21 +6944,21 @@
         <v>554</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>655</v>
-      </c>
-      <c r="B5" s="13" t="s">
+        <v>654</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>645</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>646</v>
-      </c>
       <c r="D5" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>67</v>
@@ -6969,16 +6973,16 @@
         <v>1000</v>
       </c>
       <c r="I5" s="13" t="s">
+        <v>655</v>
+      </c>
+      <c r="J5" s="13" t="s">
         <v>656</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>657</v>
       </c>
       <c r="K5" s="13" t="s">
         <v>485</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="M5" s="14" t="n">
         <v>256</v>
@@ -6987,21 +6991,21 @@
         <v>554</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>658</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>645</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>646</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>659</v>
       </c>
       <c r="E6" s="11" t="n">
         <v>275</v>
@@ -7025,7 +7029,7 @@
         <v>485</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="M6" s="11" t="n">
         <v>256</v>
@@ -7034,24 +7038,24 @@
         <v>554</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>661</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>645</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>646</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>659</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>662</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>618</v>
@@ -7072,7 +7076,7 @@
         <v>485</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="M7" s="14" t="n">
         <v>256</v>
@@ -7081,30 +7085,30 @@
         <v>480</v>
       </c>
       <c r="O7" s="13" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>663</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>645</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>646</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>646</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="10" t="s">
+      <c r="G8" s="10" t="s">
         <v>664</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>665</v>
       </c>
       <c r="H8" s="12" t="n">
         <v>1000</v>
@@ -7112,10 +7116,10 @@
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="L8" s="10" t="s">
         <v>653</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>654</v>
       </c>
       <c r="M8" s="11" t="n">
         <v>256</v>
@@ -7124,30 +7128,30 @@
         <v>554</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>666</v>
-      </c>
-      <c r="B9" s="13" t="s">
+        <v>665</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>645</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>646</v>
-      </c>
       <c r="D9" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>67</v>
       </c>
       <c r="F9" s="13" t="s">
+        <v>663</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>664</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>665</v>
       </c>
       <c r="H9" s="15" t="n">
         <v>1000</v>
@@ -7155,10 +7159,10 @@
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
       <c r="K9" s="13" t="s">
+        <v>652</v>
+      </c>
+      <c r="L9" s="13" t="s">
         <v>653</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>654</v>
       </c>
       <c r="M9" s="14" t="n">
         <v>256</v>
@@ -7167,30 +7171,30 @@
         <v>480</v>
       </c>
       <c r="O9" s="13" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>663</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>667</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>645</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>646</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>646</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>664</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>668</v>
       </c>
       <c r="H10" s="12" t="n">
         <v>1000</v>
@@ -7198,10 +7202,10 @@
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="L10" s="10" t="s">
         <v>653</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>654</v>
       </c>
       <c r="M10" s="11" t="n">
         <v>256</v>
@@ -7210,21 +7214,21 @@
         <v>554</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>669</v>
-      </c>
-      <c r="B11" s="13" t="s">
+        <v>668</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>645</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>646</v>
-      </c>
       <c r="D11" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E11" s="14" t="n">
         <v>275</v>
@@ -7248,7 +7252,7 @@
         <v>485</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="M11" s="14" t="n">
         <v>256</v>
@@ -7260,13 +7264,13 @@
     </row>
     <row r="12" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="19" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>645</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>646</v>
       </c>
       <c r="D12" s="11" t="n">
         <v>1</v>
@@ -7293,7 +7297,7 @@
         <v>485</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="M12" s="11" t="n">
         <v>256</v>
@@ -7305,16 +7309,16 @@
     </row>
     <row r="13" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>671</v>
-      </c>
-      <c r="B13" s="13" t="s">
+        <v>670</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>645</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>646</v>
-      </c>
       <c r="D13" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>67</v>
@@ -7338,7 +7342,7 @@
         <v>485</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="M13" s="14" t="n">
         <v>256</v>
@@ -7371,7 +7375,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7407,7 +7411,7 @@
         <v>52</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>425</v>
@@ -7416,10 +7420,10 @@
         <v>492</v>
       </c>
       <c r="H1" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>673</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>674</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>107</v>
@@ -7428,16 +7432,16 @@
         <v>177</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>61</v>
       </c>
       <c r="N1" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="O1" s="8" t="s">
         <v>676</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>677</v>
       </c>
       <c r="P1" s="8" t="s">
         <v>62</v>
@@ -7445,13 +7449,13 @@
     </row>
     <row r="2" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>678</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>679</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>94</v>
@@ -7466,16 +7470,16 @@
         <v>532</v>
       </c>
       <c r="H2" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>680</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>681</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>682</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>683</v>
       </c>
       <c r="L2" s="12" t="n">
         <v>64</v>
@@ -7486,7 +7490,7 @@
       <c r="N2" s="12"/>
       <c r="O2" s="17"/>
       <c r="P2" s="10" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
   </sheetData>
@@ -7508,11 +7512,11 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="P17" activeCellId="0" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7554,10 +7558,10 @@
         <v>519</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>685</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>686</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>522</v>
@@ -7566,13 +7570,13 @@
         <v>523</v>
       </c>
       <c r="J1" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>687</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>688</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>689</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>525</v>
@@ -7589,41 +7593,41 @@
     </row>
     <row r="2" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
+        <v>689</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>690</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>645</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>646</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>646</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>691</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>690</v>
-      </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>692</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>693</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>694</v>
       </c>
       <c r="L2" s="10"/>
       <c r="M2" s="10" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N2" s="12" t="n">
         <v>64</v>
@@ -7632,30 +7636,30 @@
         <v>19</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>645</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>646</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E3" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>689</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>691</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>690</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>692</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>67</v>
@@ -7667,11 +7671,11 @@
         <v>445</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="L3" s="13"/>
       <c r="M3" s="13" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N3" s="15" t="n">
         <v>64</v>
@@ -7680,46 +7684,46 @@
         <v>43112.4340277778</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>700</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="D4" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>701</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="K4" s="10" t="s">
         <v>702</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>691</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>690</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>692</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>703</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>704</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="10" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N4" s="12" t="n">
         <v>256</v>
@@ -7728,30 +7732,30 @@
         <v>19</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>701</v>
+        <v>112</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E5" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>689</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>691</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>690</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>692</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>67</v>
@@ -7763,11 +7767,11 @@
         <v>445</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="L5" s="13"/>
       <c r="M5" s="13" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N5" s="15" t="n">
         <v>512</v>
@@ -7776,30 +7780,30 @@
         <v>15</v>
       </c>
       <c r="P5" s="13" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>701</v>
+        <v>112</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E6" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>691</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>690</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>692</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>67</v>
@@ -7811,11 +7815,11 @@
         <v>445</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="L6" s="10"/>
       <c r="M6" s="10" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="N6" s="12" t="n">
         <v>2</v>
@@ -7824,46 +7828,46 @@
         <v>43112.7666666667</v>
       </c>
       <c r="P6" s="25" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>700</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>689</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="13" t="s">
         <v>701</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="K7" s="13" t="s">
         <v>702</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>691</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>690</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>692</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>704</v>
       </c>
       <c r="L7" s="13"/>
       <c r="M7" s="13" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N7" s="15" t="n">
         <v>512</v>
@@ -7872,46 +7876,46 @@
         <v>15</v>
       </c>
       <c r="P7" s="13" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>710</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>701</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>712</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>646</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>691</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>690</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>692</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>703</v>
-      </c>
       <c r="K8" s="10" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="10" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N8" s="12" t="n">
         <v>512</v>
@@ -7920,46 +7924,46 @@
         <v>15</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>689</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="K9" s="13" t="s">
         <v>702</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>691</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>690</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>692</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>693</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>704</v>
       </c>
       <c r="L9" s="13"/>
       <c r="M9" s="13" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N9" s="15" t="n">
         <v>512</v>
@@ -7968,46 +7972,46 @@
         <v>15</v>
       </c>
       <c r="P9" s="13" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="59.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="10" t="s">
         <v>701</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>702</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>691</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>690</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>692</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>703</v>
-      </c>
       <c r="K10" s="10" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="L10" s="10"/>
       <c r="M10" s="10" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N10" s="15" t="n">
         <v>64</v>
@@ -8016,7 +8020,7 @@
         <v>15</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="33" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8038,41 +8042,41 @@
     </row>
     <row r="12" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>700</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>689</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="13" t="s">
         <v>701</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>702</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>691</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>690</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>692</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>703</v>
-      </c>
       <c r="K12" s="13" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="L12" s="13"/>
       <c r="M12" s="13" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N12" s="15" t="n">
         <v>64</v>
@@ -8081,48 +8085,48 @@
         <v>15</v>
       </c>
       <c r="P12" s="13" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>718</v>
+      </c>
+      <c r="L13" s="10" t="s">
         <v>719</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>701</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>702</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>691</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>690</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>692</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>703</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>720</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>721</v>
-      </c>
       <c r="M13" s="10" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N13" s="15" t="n">
         <v>64</v>
@@ -8131,31 +8135,31 @@
         <v>15</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E14" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>689</v>
+      </c>
+      <c r="G14" s="13" t="s">
         <v>691</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>690</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>692</v>
-      </c>
       <c r="H14" s="13" t="s">
         <v>67</v>
       </c>
@@ -8163,16 +8167,16 @@
         <v>67</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N14" s="15" t="n">
         <v>64</v>
@@ -8181,48 +8185,48 @@
         <v>15</v>
       </c>
       <c r="P14" s="13" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="K15" s="10" t="s">
         <v>725</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>701</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>702</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>691</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>726</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>692</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>703</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="L15" s="10" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N15" s="15" t="n">
         <v>64</v>
@@ -8231,48 +8235,48 @@
         <v>15</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>700</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>724</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>701</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>727</v>
+      </c>
+      <c r="L16" s="13" t="s">
         <v>728</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>701</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>702</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>691</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>726</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>692</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>729</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>730</v>
-      </c>
       <c r="M16" s="13" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N16" s="15" t="n">
         <v>512</v>
@@ -8281,46 +8285,46 @@
         <v>19</v>
       </c>
       <c r="P16" s="13" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>731</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>645</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>646</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>646</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>691</v>
-      </c>
-      <c r="F17" s="10" t="s">
+      <c r="H17" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="K17" s="10" t="s">
         <v>732</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>733</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>693</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>734</v>
       </c>
       <c r="L17" s="10"/>
       <c r="M17" s="10" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N17" s="12" t="n">
         <v>64</v>
@@ -8329,30 +8333,30 @@
         <v>23</v>
       </c>
       <c r="P17" s="10" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B18" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>645</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>646</v>
-      </c>
       <c r="D18" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="H18" s="13" t="s">
         <v>67</v>
@@ -8361,14 +8365,14 @@
         <v>67</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="L18" s="13"/>
       <c r="M18" s="13" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N18" s="15" t="n">
         <v>64</v>
@@ -8377,30 +8381,30 @@
         <v>43112.4340277778</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>701</v>
+        <v>112</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="H19" s="10" t="s">
         <v>67</v>
@@ -8412,11 +8416,11 @@
         <v>445</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="L19" s="10"/>
       <c r="M19" s="10" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N19" s="12" t="n">
         <v>512</v>
@@ -8425,46 +8429,46 @@
         <v>15</v>
       </c>
       <c r="P19" s="10" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B20" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>700</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>735</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>731</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20" s="13" t="s">
         <v>701</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>702</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>691</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>737</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>733</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>703</v>
-      </c>
       <c r="K20" s="13" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="L20" s="13"/>
       <c r="M20" s="13" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N20" s="15" t="n">
         <v>512</v>
@@ -8473,46 +8477,46 @@
         <v>15</v>
       </c>
       <c r="P20" s="13" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B21" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" s="10" t="s">
         <v>701</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>646</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>646</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>691</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>737</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>733</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>703</v>
-      </c>
       <c r="K21" s="10" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="L21" s="10"/>
       <c r="M21" s="10" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N21" s="12" t="n">
         <v>512</v>
@@ -8521,46 +8525,46 @@
         <v>15</v>
       </c>
       <c r="P21" s="10" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B22" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>700</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>735</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>731</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J22" s="13" t="s">
         <v>701</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>702</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>691</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>737</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>733</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>703</v>
-      </c>
       <c r="K22" s="13" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="L22" s="13"/>
       <c r="M22" s="13" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N22" s="15" t="n">
         <v>512</v>
@@ -8569,30 +8573,30 @@
         <v>22</v>
       </c>
       <c r="P22" s="13" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="H23" s="10" t="s">
         <v>67</v>
@@ -8601,14 +8605,14 @@
         <v>67</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="L23" s="10"/>
       <c r="M23" s="10" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N23" s="12" t="n">
         <v>512</v>
@@ -8617,46 +8621,46 @@
         <v>15</v>
       </c>
       <c r="P23" s="10" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>745</v>
-      </c>
-      <c r="B24" s="13" t="s">
+        <v>743</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>700</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>735</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>731</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J24" s="13" t="s">
         <v>701</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>702</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>691</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>737</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>733</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>703</v>
-      </c>
       <c r="K24" s="13" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="L24" s="13"/>
       <c r="M24" s="13" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N24" s="15" t="n">
         <v>64</v>
@@ -8665,46 +8669,46 @@
         <v>15</v>
       </c>
       <c r="P24" s="13" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B25" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J25" s="10" t="s">
         <v>701</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>702</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>691</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>748</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>733</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>703</v>
-      </c>
       <c r="K25" s="10" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="10" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N25" s="15" t="n">
         <v>64</v>
@@ -8713,48 +8717,48 @@
         <v>15</v>
       </c>
       <c r="P25" s="10" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>749</v>
-      </c>
-      <c r="B26" s="13" t="s">
+        <v>747</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>700</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>735</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>731</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J26" s="13" t="s">
         <v>701</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>702</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>691</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>737</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>733</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="J26" s="13" t="s">
-        <v>703</v>
-      </c>
       <c r="K26" s="13" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="L26" s="13" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="M26" s="13" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N26" s="15" t="n">
         <v>64</v>
@@ -8763,48 +8767,48 @@
         <v>15</v>
       </c>
       <c r="P26" s="13" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J27" s="10" t="s">
         <v>701</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>702</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>691</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>752</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>733</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>703</v>
-      </c>
       <c r="K27" s="10" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N27" s="15" t="n">
         <v>64</v>
@@ -8813,46 +8817,46 @@
         <v>15</v>
       </c>
       <c r="P27" s="10" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>754</v>
-      </c>
-      <c r="B28" s="13" t="s">
+        <v>752</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>700</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>750</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>731</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J28" s="13" t="s">
         <v>701</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>702</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>691</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>752</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>733</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="J28" s="13" t="s">
-        <v>703</v>
-      </c>
       <c r="K28" s="13" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="L28" s="13"/>
       <c r="M28" s="13" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N28" s="15" t="n">
         <v>512</v>
@@ -8861,42 +8865,42 @@
         <v>22</v>
       </c>
       <c r="P28" s="13" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>755</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>701</v>
+        <v>753</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
       <c r="J29" s="13" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="L29" s="13"/>
       <c r="M29" s="13" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N29" s="15" t="n">
         <v>512</v>
@@ -8905,15 +8909,15 @@
         <v>22</v>
       </c>
       <c r="P29" s="13" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>757</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>645</v>
+        <v>755</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>465</v>
@@ -8925,13 +8929,13 @@
         <v>619</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="J30" s="13" t="s">
         <v>67</v>
@@ -8941,7 +8945,7 @@
       </c>
       <c r="L30" s="13"/>
       <c r="M30" s="13" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N30" s="15" t="n">
         <v>64</v>
@@ -8950,46 +8954,46 @@
         <v>10</v>
       </c>
       <c r="P30" s="13" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>759</v>
+      </c>
+      <c r="F31" s="10" t="s">
         <v>760</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>701</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>702</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="E31" s="10" t="s">
+      <c r="G31" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="H31" s="10" t="s">
         <v>761</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="I31" s="10" t="s">
         <v>762</v>
       </c>
-      <c r="G31" s="10" t="s">
-        <v>692</v>
-      </c>
-      <c r="H31" s="10" t="s">
+      <c r="J31" s="10" t="s">
         <v>763</v>
       </c>
-      <c r="I31" s="10" t="s">
-        <v>764</v>
-      </c>
-      <c r="J31" s="10" t="s">
-        <v>765</v>
-      </c>
       <c r="K31" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="L31" s="10"/>
       <c r="M31" s="10" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N31" s="12" t="n">
         <v>512</v>
@@ -8998,21 +9002,21 @@
         <v>15</v>
       </c>
       <c r="P31" s="10" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>767</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>645</v>
+        <v>765</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>465</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E32" s="13" t="s">
         <v>639</v>
@@ -9021,23 +9025,23 @@
         <v>619</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="H32" s="13" t="s">
+        <v>766</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>767</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K32" s="13" t="s">
         <v>768</v>
-      </c>
-      <c r="I32" s="13" t="s">
-        <v>769</v>
-      </c>
-      <c r="J32" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="K32" s="13" t="s">
-        <v>770</v>
       </c>
       <c r="L32" s="13"/>
       <c r="M32" s="13" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N32" s="15" t="n">
         <v>64</v>
@@ -9046,46 +9050,46 @@
         <v>12</v>
       </c>
       <c r="P32" s="13" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>770</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="H33" s="10" t="s">
         <v>771</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>701</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>702</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="E33" s="10" t="s">
+      <c r="I33" s="10" t="s">
         <v>772</v>
       </c>
-      <c r="F33" s="10" t="s">
-        <v>762</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>733</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>773</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>774</v>
-      </c>
       <c r="J33" s="10" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="L33" s="10"/>
       <c r="M33" s="10" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N33" s="15" t="n">
         <v>64</v>
@@ -9094,46 +9098,46 @@
         <v>15</v>
       </c>
       <c r="P33" s="10" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
+        <v>773</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>700</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>770</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>760</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>731</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>774</v>
+      </c>
+      <c r="I34" s="13" t="s">
         <v>775</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>701</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>702</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>772</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>762</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>733</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>776</v>
-      </c>
-      <c r="I34" s="13" t="s">
-        <v>777</v>
       </c>
       <c r="J34" s="13" t="s">
         <v>485</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="L34" s="13"/>
       <c r="M34" s="13" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N34" s="15" t="n">
         <v>64</v>
@@ -9142,46 +9146,46 @@
         <v>15</v>
       </c>
       <c r="P34" s="13" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
+        <v>776</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>777</v>
+      </c>
+      <c r="F35" s="10" t="s">
         <v>778</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>701</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>702</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="E35" s="10" t="s">
+      <c r="G35" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="H35" s="10" t="s">
         <v>779</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="I35" s="10" t="s">
         <v>780</v>
       </c>
-      <c r="G35" s="10" t="s">
-        <v>733</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>781</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>782</v>
-      </c>
       <c r="J35" s="10" t="s">
         <v>67</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="L35" s="10"/>
       <c r="M35" s="10" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N35" s="15" t="n">
         <v>64</v>
@@ -9190,46 +9194,46 @@
         <v>43185.5166666667</v>
       </c>
       <c r="P35" s="10" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
+        <v>782</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>700</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>777</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>778</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>731</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="I36" s="13" t="s">
         <v>784</v>
       </c>
-      <c r="B36" s="13" t="s">
-        <v>701</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>702</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>779</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>780</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>733</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>785</v>
-      </c>
-      <c r="I36" s="13" t="s">
-        <v>786</v>
-      </c>
       <c r="J36" s="13" t="s">
         <v>67</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="L36" s="13"/>
       <c r="M36" s="13" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N36" s="15" t="n">
         <v>64</v>
@@ -9258,7 +9262,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E40" s="6" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
   </sheetData>
@@ -9277,14 +9281,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9299,13 +9299,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="6" width="11.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="6" width="30.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="11" style="6" width="12.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="6" width="12.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="6" width="13.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="6" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="6" width="8.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="6" width="25.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="257" min="21" style="6" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="258" style="0" width="10.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="6" width="13.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="6" width="9.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="6" width="8.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="6" width="25.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="256" min="20" style="6" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="257" style="0" width="10.84"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9331,7 +9331,7 @@
         <v>110</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>425</v>
@@ -9349,24 +9349,21 @@
         <v>523</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="O1" s="8" t="s">
         <v>524</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>108</v>
+        <v>525</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>525</v>
+        <v>495</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>495</v>
+        <v>61</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1" s="8" t="s">
         <v>62</v>
       </c>
     </row>
@@ -9412,21 +9409,18 @@
         <v>100</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>790</v>
+        <v>788</v>
+      </c>
+      <c r="Q2" s="12" t="n">
+        <v>64</v>
       </c>
       <c r="R2" s="12" t="n">
-        <v>64</v>
-      </c>
-      <c r="S2" s="12" t="n">
         <v>12</v>
       </c>
-      <c r="T2" s="11"/>
+      <c r="S2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
@@ -9463,7 +9457,7 @@
         <v>195</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="M3" s="13"/>
       <c r="N3" s="15" t="n">
@@ -9473,22 +9467,19 @@
         <v>30</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>790</v>
+        <v>788</v>
+      </c>
+      <c r="Q3" s="15" t="n">
+        <v>64</v>
       </c>
       <c r="R3" s="15" t="n">
-        <v>64</v>
-      </c>
-      <c r="S3" s="15" t="n">
         <v>12</v>
       </c>
-      <c r="T3" s="14"/>
+      <c r="S3" s="14"/>
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>112</v>
@@ -9531,22 +9522,19 @@
         <v>30</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>790</v>
+        <v>788</v>
+      </c>
+      <c r="Q4" s="12" t="n">
+        <v>64</v>
       </c>
       <c r="R4" s="12" t="n">
-        <v>64</v>
-      </c>
-      <c r="S4" s="12" t="n">
         <v>15</v>
       </c>
-      <c r="T4" s="11"/>
+      <c r="S4" s="11"/>
     </row>
     <row r="5" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>112</v>
@@ -9558,7 +9546,7 @@
         <v>1.42</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="F5" s="15" t="n">
         <v>0</v>
@@ -9570,7 +9558,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>532</v>
@@ -9588,25 +9576,22 @@
         <v>100</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="P5" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q5" s="13" t="s">
-        <v>790</v>
+        <v>788</v>
+      </c>
+      <c r="Q5" s="15" t="n">
+        <v>64</v>
       </c>
       <c r="R5" s="15" t="n">
-        <v>64</v>
-      </c>
-      <c r="S5" s="15" t="n">
         <v>12</v>
       </c>
-      <c r="T5" s="14"/>
+      <c r="S5" s="14"/>
     </row>
     <row r="6" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>112</v>
@@ -9621,19 +9606,19 @@
         <v>134</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="H6" s="12" t="n">
         <v>2</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="K6" s="12" t="n">
         <v>600</v>
@@ -9651,24 +9636,21 @@
         <v>30</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q6" s="10" t="s">
-        <v>802</v>
+        <v>800</v>
+      </c>
+      <c r="Q6" s="12" t="n">
+        <v>128</v>
       </c>
       <c r="R6" s="12" t="n">
-        <v>128</v>
-      </c>
-      <c r="S6" s="12" t="n">
         <v>12</v>
       </c>
-      <c r="T6" s="10" t="s">
-        <v>803</v>
+      <c r="S6" s="10" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>112</v>
@@ -9683,19 +9665,19 @@
         <v>134</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="H7" s="15" t="n">
         <v>2</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="K7" s="15" t="n">
         <v>600</v>
@@ -9713,24 +9695,21 @@
         <v>30</v>
       </c>
       <c r="P7" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q7" s="13" t="s">
-        <v>802</v>
+        <v>800</v>
+      </c>
+      <c r="Q7" s="15" t="n">
+        <v>128</v>
       </c>
       <c r="R7" s="15" t="n">
-        <v>128</v>
-      </c>
-      <c r="S7" s="15" t="n">
         <v>12</v>
       </c>
-      <c r="T7" s="13" t="s">
-        <v>805</v>
+      <c r="S7" s="13" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>112</v>
@@ -9745,19 +9724,19 @@
         <v>134</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="H8" s="12" t="n">
         <v>2</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="K8" s="12" t="n">
         <v>600</v>
@@ -9775,24 +9754,21 @@
         <v>30</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q8" s="10" t="s">
-        <v>802</v>
+        <v>800</v>
+      </c>
+      <c r="Q8" s="12" t="n">
+        <v>128</v>
       </c>
       <c r="R8" s="12" t="n">
-        <v>128</v>
-      </c>
-      <c r="S8" s="12" t="n">
         <v>12</v>
       </c>
-      <c r="T8" s="10" t="s">
-        <v>803</v>
+      <c r="S8" s="10" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>112</v>
@@ -9807,19 +9783,19 @@
         <v>134</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="H9" s="15" t="n">
         <v>2</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="K9" s="15" t="n">
         <v>600</v>
@@ -9837,19 +9813,16 @@
         <v>30</v>
       </c>
       <c r="P9" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q9" s="13" t="s">
-        <v>802</v>
+        <v>800</v>
+      </c>
+      <c r="Q9" s="15" t="n">
+        <v>128</v>
       </c>
       <c r="R9" s="15" t="n">
-        <v>128</v>
-      </c>
-      <c r="S9" s="15" t="n">
         <v>12</v>
       </c>
-      <c r="T9" s="13" t="s">
-        <v>805</v>
+      <c r="S9" s="13" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9878,7 +9851,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J10" s="10" t="s">
         <v>532</v>
@@ -9896,22 +9869,19 @@
         <v>100</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q10" s="10" t="s">
-        <v>790</v>
+        <v>788</v>
+      </c>
+      <c r="Q10" s="12" t="n">
+        <v>64</v>
       </c>
       <c r="R10" s="12" t="n">
-        <v>64</v>
-      </c>
-      <c r="S10" s="12" t="n">
         <v>12</v>
       </c>
-      <c r="T10" s="10" t="s">
-        <v>810</v>
+      <c r="S10" s="10" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9940,7 +9910,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J11" s="13" t="s">
         <v>532</v>
@@ -9958,22 +9928,19 @@
         <v>100</v>
       </c>
       <c r="O11" s="13" t="s">
+        <v>807</v>
+      </c>
+      <c r="P11" s="13" t="s">
+        <v>788</v>
+      </c>
+      <c r="Q11" s="15" t="n">
+        <v>64</v>
+      </c>
+      <c r="R11" s="15" t="n">
+        <v>12</v>
+      </c>
+      <c r="S11" s="13" t="s">
         <v>809</v>
-      </c>
-      <c r="P11" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="13" t="s">
-        <v>790</v>
-      </c>
-      <c r="R11" s="15" t="n">
-        <v>64</v>
-      </c>
-      <c r="S11" s="15" t="n">
-        <v>12</v>
-      </c>
-      <c r="T11" s="13" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10002,7 +9969,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J12" s="10" t="s">
         <v>532</v>
@@ -10020,22 +9987,19 @@
         <v>150</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q12" s="10" t="s">
-        <v>802</v>
+        <v>800</v>
+      </c>
+      <c r="Q12" s="12" t="n">
+        <v>64</v>
       </c>
       <c r="R12" s="12" t="n">
-        <v>64</v>
-      </c>
-      <c r="S12" s="12" t="n">
         <v>12</v>
       </c>
-      <c r="T12" s="10" t="s">
-        <v>810</v>
+      <c r="S12" s="10" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10064,7 +10028,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J13" s="13" t="s">
         <v>532</v>
@@ -10082,22 +10046,19 @@
         <v>150</v>
       </c>
       <c r="O13" s="13" t="s">
+        <v>807</v>
+      </c>
+      <c r="P13" s="13" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q13" s="15" t="n">
+        <v>128</v>
+      </c>
+      <c r="R13" s="15" t="n">
+        <v>12</v>
+      </c>
+      <c r="S13" s="13" t="s">
         <v>809</v>
-      </c>
-      <c r="P13" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q13" s="13" t="s">
-        <v>802</v>
-      </c>
-      <c r="R13" s="15" t="n">
-        <v>128</v>
-      </c>
-      <c r="S13" s="15" t="n">
-        <v>12</v>
-      </c>
-      <c r="T13" s="13" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10126,7 +10087,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J14" s="10" t="s">
         <v>532</v>
@@ -10144,22 +10105,19 @@
         <v>150</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q14" s="10" t="s">
-        <v>802</v>
+        <v>800</v>
+      </c>
+      <c r="Q14" s="12" t="n">
+        <v>128</v>
       </c>
       <c r="R14" s="12" t="n">
-        <v>128</v>
-      </c>
-      <c r="S14" s="12" t="n">
         <v>12</v>
       </c>
-      <c r="T14" s="10" t="s">
-        <v>810</v>
+      <c r="S14" s="10" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10188,7 +10146,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J15" s="13" t="s">
         <v>532</v>
@@ -10206,22 +10164,19 @@
         <v>150</v>
       </c>
       <c r="O15" s="13" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="P15" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q15" s="13" t="s">
-        <v>812</v>
+        <v>810</v>
+      </c>
+      <c r="Q15" s="15" t="n">
+        <v>256</v>
       </c>
       <c r="R15" s="15" t="n">
-        <v>256</v>
-      </c>
-      <c r="S15" s="15" t="n">
         <v>12</v>
       </c>
-      <c r="T15" s="13" t="s">
-        <v>813</v>
+      <c r="S15" s="13" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10250,7 +10205,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J16" s="10" t="s">
         <v>532</v>
@@ -10268,22 +10223,19 @@
         <v>150</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q16" s="10" t="s">
+        <v>810</v>
+      </c>
+      <c r="Q16" s="12" t="n">
+        <v>256</v>
+      </c>
+      <c r="R16" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="S16" s="10" t="s">
         <v>812</v>
-      </c>
-      <c r="R16" s="12" t="n">
-        <v>256</v>
-      </c>
-      <c r="S16" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="T16" s="10" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10312,7 +10264,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J17" s="13" t="s">
         <v>532</v>
@@ -10330,22 +10282,19 @@
         <v>150</v>
       </c>
       <c r="O17" s="13" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="P17" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q17" s="13" t="s">
-        <v>812</v>
+        <v>810</v>
+      </c>
+      <c r="Q17" s="15" t="n">
+        <v>256</v>
       </c>
       <c r="R17" s="15" t="n">
-        <v>256</v>
-      </c>
-      <c r="S17" s="15" t="n">
         <v>12</v>
       </c>
-      <c r="T17" s="13" t="s">
-        <v>815</v>
+      <c r="S17" s="13" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10383,24 +10332,23 @@
         <v>191</v>
       </c>
       <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
+      <c r="M18" s="26" t="s">
+        <v>814</v>
+      </c>
       <c r="N18" s="10"/>
       <c r="O18" s="12" t="n">
         <v>30</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q18" s="10" t="s">
-        <v>790</v>
+        <v>788</v>
+      </c>
+      <c r="Q18" s="12" t="n">
+        <v>64</v>
       </c>
       <c r="R18" s="12" t="n">
-        <v>64</v>
-      </c>
-      <c r="S18" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="T18" s="10" t="s">
+      <c r="S18" s="10" t="s">
         <v>279</v>
       </c>
     </row>
@@ -10439,24 +10387,23 @@
         <v>191</v>
       </c>
       <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
+      <c r="M19" s="13" t="s">
+        <v>163</v>
+      </c>
       <c r="N19" s="13"/>
       <c r="O19" s="15" t="n">
         <v>30</v>
       </c>
       <c r="P19" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q19" s="13" t="s">
-        <v>790</v>
+        <v>788</v>
+      </c>
+      <c r="Q19" s="15" t="n">
+        <v>64</v>
       </c>
       <c r="R19" s="15" t="n">
-        <v>64</v>
-      </c>
-      <c r="S19" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="T19" s="13" t="s">
+      <c r="S19" s="13" t="s">
         <v>281</v>
       </c>
     </row>
@@ -10495,24 +10442,23 @@
         <v>195</v>
       </c>
       <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
+      <c r="M20" s="10" t="s">
+        <v>815</v>
+      </c>
       <c r="N20" s="10"/>
       <c r="O20" s="12" t="n">
         <v>30</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q20" s="10" t="s">
-        <v>790</v>
+        <v>788</v>
+      </c>
+      <c r="Q20" s="12" t="n">
+        <v>64</v>
       </c>
       <c r="R20" s="12" t="n">
-        <v>64</v>
-      </c>
-      <c r="S20" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="T20" s="10" t="s">
+      <c r="S20" s="10" t="s">
         <v>283</v>
       </c>
     </row>
@@ -10551,24 +10497,23 @@
         <v>100</v>
       </c>
       <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
+      <c r="M21" s="13" t="s">
+        <v>542</v>
+      </c>
       <c r="N21" s="13"/>
       <c r="O21" s="13" t="s">
         <v>287</v>
       </c>
       <c r="P21" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q21" s="13" t="s">
-        <v>790</v>
+        <v>788</v>
+      </c>
+      <c r="Q21" s="15" t="n">
+        <v>64</v>
       </c>
       <c r="R21" s="15" t="n">
-        <v>64</v>
-      </c>
-      <c r="S21" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="T21" s="13" t="s">
+      <c r="S21" s="13" t="s">
         <v>288</v>
       </c>
     </row>
@@ -10607,24 +10552,23 @@
         <v>817</v>
       </c>
       <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
+      <c r="M22" s="10" t="s">
+        <v>815</v>
+      </c>
       <c r="N22" s="10"/>
       <c r="O22" s="12" t="n">
         <v>30</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q22" s="10" t="s">
-        <v>790</v>
+        <v>788</v>
+      </c>
+      <c r="Q22" s="12" t="n">
+        <v>64</v>
       </c>
       <c r="R22" s="12" t="n">
-        <v>64</v>
-      </c>
-      <c r="S22" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="T22" s="10" t="s">
+      <c r="S22" s="10" t="s">
         <v>283</v>
       </c>
     </row>
@@ -10671,18 +10615,15 @@
         <v>294</v>
       </c>
       <c r="P23" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q23" s="13" t="s">
-        <v>790</v>
+        <v>788</v>
+      </c>
+      <c r="Q23" s="15" t="n">
+        <v>64</v>
       </c>
       <c r="R23" s="15" t="n">
-        <v>64</v>
-      </c>
-      <c r="S23" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="T23" s="13" t="s">
+      <c r="S23" s="13" t="s">
         <v>288</v>
       </c>
     </row>
@@ -10722,15 +10663,12 @@
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
-      <c r="P24" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12" t="n">
+      <c r="P24" s="11"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="T24" s="11"/>
+      <c r="S24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
@@ -10768,15 +10706,12 @@
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
       <c r="O25" s="13"/>
-      <c r="P25" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15" t="n">
+      <c r="P25" s="14"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="T25" s="14"/>
+      <c r="S25" s="14"/>
     </row>
     <row r="26" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
@@ -10814,15 +10749,12 @@
       <c r="M26" s="10"/>
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
-      <c r="P26" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12" t="n">
+      <c r="P26" s="11"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="T26" s="11"/>
+      <c r="S26" s="11"/>
     </row>
     <row r="27" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
@@ -10860,15 +10792,12 @@
       <c r="M27" s="13"/>
       <c r="N27" s="13"/>
       <c r="O27" s="13"/>
-      <c r="P27" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15" t="n">
+      <c r="P27" s="14"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="T27" s="14"/>
+      <c r="S27" s="14"/>
     </row>
     <row r="28" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
@@ -10902,31 +10831,28 @@
         <v>532</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="N28" s="10"/>
       <c r="O28" s="10" t="s">
         <v>620</v>
       </c>
       <c r="P28" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q28" s="10" t="s">
-        <v>695</v>
+        <v>694</v>
+      </c>
+      <c r="Q28" s="12" t="n">
+        <v>64</v>
       </c>
       <c r="R28" s="12" t="n">
-        <v>64</v>
-      </c>
-      <c r="S28" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="T28" s="10" t="s">
+      <c r="S28" s="10" t="s">
         <v>823</v>
       </c>
     </row>
@@ -10962,37 +10888,34 @@
         <v>532</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="N29" s="13"/>
       <c r="O29" s="13" t="s">
         <v>620</v>
       </c>
       <c r="P29" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q29" s="13" t="s">
-        <v>695</v>
+        <v>694</v>
+      </c>
+      <c r="Q29" s="15" t="n">
+        <v>64</v>
       </c>
       <c r="R29" s="15" t="n">
-        <v>64</v>
-      </c>
-      <c r="S29" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="T29" s="13" t="s">
+      <c r="S29" s="13" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>112</v>
@@ -11022,37 +10945,34 @@
         <v>532</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="N30" s="10"/>
       <c r="O30" s="10" t="s">
         <v>620</v>
       </c>
       <c r="P30" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q30" s="10" t="s">
-        <v>695</v>
+        <v>694</v>
+      </c>
+      <c r="Q30" s="12" t="n">
+        <v>64</v>
       </c>
       <c r="R30" s="12" t="n">
-        <v>64</v>
-      </c>
-      <c r="S30" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="T30" s="10" t="s">
-        <v>759</v>
+      <c r="S30" s="10" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>112</v>
@@ -11082,32 +11002,29 @@
         <v>532</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="N31" s="13"/>
       <c r="O31" s="13" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="P31" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q31" s="13" t="s">
-        <v>695</v>
+        <v>694</v>
+      </c>
+      <c r="Q31" s="15" t="n">
+        <v>64</v>
       </c>
       <c r="R31" s="15" t="n">
-        <v>64</v>
-      </c>
-      <c r="S31" s="15" t="n">
         <v>12</v>
       </c>
-      <c r="T31" s="13" t="s">
-        <v>759</v>
+      <c r="S31" s="13" t="s">
+        <v>757</v>
       </c>
     </row>
   </sheetData>
@@ -11129,7 +11046,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11158,11 +11075,11 @@
   <dimension ref="A1:P46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
-      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
+      <selection pane="bottomRight" activeCell="B46" activeCellId="0" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11260,13 +11177,13 @@
         <v>830</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>645</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>646</v>
-      </c>
       <c r="D3" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>618</v>
@@ -11306,19 +11223,19 @@
         <v>835</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>645</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>646</v>
-      </c>
       <c r="D4" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G4" s="15" t="n">
         <v>400</v>
@@ -11329,11 +11246,11 @@
       <c r="I4" s="15" t="n">
         <v>75</v>
       </c>
-      <c r="J4" s="26" t="n">
+      <c r="J4" s="27" t="n">
         <v>17.5</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="L4" s="13" t="s">
         <v>67</v>
@@ -11356,19 +11273,19 @@
         <v>837</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>645</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>646</v>
-      </c>
       <c r="D5" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G5" s="12" t="n">
         <v>400</v>
@@ -11383,7 +11300,7 @@
         <v>17.5</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="L5" s="10" t="s">
         <v>67</v>
@@ -11406,19 +11323,19 @@
         <v>840</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>841</v>
+        <v>712</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G6" s="15" t="n">
         <v>400</v>
@@ -11429,11 +11346,11 @@
       <c r="I6" s="15" t="n">
         <v>75</v>
       </c>
-      <c r="J6" s="26" t="n">
+      <c r="J6" s="27" t="n">
         <v>17.5</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="L6" s="13" t="s">
         <v>67</v>
@@ -11448,27 +11365,27 @@
         <v>480</v>
       </c>
       <c r="P6" s="13" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>645</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>646</v>
-      </c>
       <c r="D7" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G7" s="12" t="n">
         <v>400</v>
@@ -11483,10 +11400,10 @@
         <v>17.5</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="M7" s="10" t="s">
         <v>834</v>
@@ -11495,30 +11412,30 @@
         <v>512</v>
       </c>
       <c r="O7" s="10" t="s">
+        <v>845</v>
+      </c>
+      <c r="P7" s="10" t="s">
         <v>846</v>
-      </c>
-      <c r="P7" s="10" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>645</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>646</v>
-      </c>
       <c r="D8" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G8" s="15" t="n">
         <v>400</v>
@@ -11527,16 +11444,16 @@
         <v>235</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>849</v>
-      </c>
-      <c r="J8" s="26" t="n">
+        <v>848</v>
+      </c>
+      <c r="J8" s="27" t="n">
         <v>17.5</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="M8" s="13" t="s">
         <v>834</v>
@@ -11545,48 +11462,48 @@
         <v>512</v>
       </c>
       <c r="O8" s="13" t="s">
+        <v>845</v>
+      </c>
+      <c r="P8" s="13" t="s">
         <v>846</v>
-      </c>
-      <c r="P8" s="13" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>645</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>646</v>
-      </c>
       <c r="D9" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G9" s="12" t="n">
         <v>400</v>
       </c>
       <c r="H9" s="10" t="s">
+        <v>850</v>
+      </c>
+      <c r="I9" s="10" t="s">
         <v>851</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>852</v>
       </c>
       <c r="J9" s="17" t="n">
         <v>17.5</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="M9" s="10" t="s">
         <v>834</v>
@@ -11598,45 +11515,45 @@
         <v>554</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B10" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>645</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>646</v>
-      </c>
       <c r="D10" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G10" s="15" t="n">
         <v>400</v>
       </c>
       <c r="H10" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>851</v>
+      </c>
+      <c r="J10" s="27" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>844</v>
+      </c>
+      <c r="L10" s="13" t="s">
         <v>854</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>852</v>
-      </c>
-      <c r="J10" s="26" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>845</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>855</v>
       </c>
       <c r="M10" s="13" t="s">
         <v>834</v>
@@ -11648,45 +11565,45 @@
         <v>554</v>
       </c>
       <c r="P10" s="13" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>645</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>646</v>
-      </c>
       <c r="D11" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G11" s="12" t="n">
         <v>400</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="J11" s="17" t="n">
         <v>17.5</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="M11" s="10" t="s">
         <v>834</v>
@@ -11695,48 +11612,48 @@
         <v>512</v>
       </c>
       <c r="O11" s="10" t="s">
+        <v>845</v>
+      </c>
+      <c r="P11" s="10" t="s">
         <v>846</v>
-      </c>
-      <c r="P11" s="10" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
+        <v>857</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>858</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="C12" s="13" t="s">
         <v>859</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>860</v>
-      </c>
       <c r="D12" s="13" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G12" s="15" t="n">
         <v>400</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>852</v>
-      </c>
-      <c r="J12" s="26" t="n">
+        <v>851</v>
+      </c>
+      <c r="J12" s="27" t="n">
         <v>17.5</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="M12" s="13" t="s">
         <v>834</v>
@@ -11748,45 +11665,45 @@
         <v>554</v>
       </c>
       <c r="P12" s="13" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>861</v>
-      </c>
-      <c r="B13" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>858</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>859</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>860</v>
-      </c>
       <c r="D13" s="10" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G13" s="12" t="n">
         <v>400</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="J13" s="17" t="n">
         <v>17.5</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="M13" s="10" t="s">
         <v>834</v>
@@ -11798,45 +11715,45 @@
         <v>554</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>863</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>701</v>
+        <v>862</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G14" s="15" t="n">
         <v>400</v>
       </c>
       <c r="H14" s="13" t="s">
+        <v>863</v>
+      </c>
+      <c r="I14" s="13" t="s">
         <v>864</v>
       </c>
-      <c r="I14" s="13" t="s">
-        <v>865</v>
-      </c>
-      <c r="J14" s="26" t="n">
+      <c r="J14" s="27" t="n">
         <v>17.5</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="M14" s="13" t="s">
         <v>834</v>
@@ -11848,45 +11765,45 @@
         <v>554</v>
       </c>
       <c r="P14" s="13" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>701</v>
+        <v>112</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G15" s="12" t="n">
         <v>400</v>
       </c>
       <c r="H15" s="10" t="s">
+        <v>866</v>
+      </c>
+      <c r="I15" s="10" t="s">
         <v>867</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>868</v>
       </c>
       <c r="J15" s="17" t="n">
         <v>17.5</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="M15" s="10" t="s">
         <v>834</v>
@@ -11898,45 +11815,45 @@
         <v>554</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>869</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>701</v>
+        <v>868</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G16" s="15" t="n">
         <v>400</v>
       </c>
       <c r="H16" s="13" t="s">
+        <v>869</v>
+      </c>
+      <c r="I16" s="13" t="s">
         <v>870</v>
       </c>
-      <c r="I16" s="13" t="s">
+      <c r="J16" s="27" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>844</v>
+      </c>
+      <c r="L16" s="13" t="s">
         <v>871</v>
-      </c>
-      <c r="J16" s="26" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>845</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>872</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>834</v>
@@ -11948,45 +11865,45 @@
         <v>554</v>
       </c>
       <c r="P16" s="13" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>701</v>
+        <v>112</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G17" s="12" t="n">
         <v>400</v>
       </c>
       <c r="H17" s="10" t="s">
+        <v>869</v>
+      </c>
+      <c r="I17" s="10" t="s">
         <v>870</v>
       </c>
-      <c r="I17" s="10" t="s">
-        <v>871</v>
-      </c>
       <c r="J17" s="10" t="s">
+        <v>873</v>
+      </c>
+      <c r="K17" s="10" t="s">
         <v>874</v>
       </c>
-      <c r="K17" s="10" t="s">
-        <v>875</v>
-      </c>
       <c r="L17" s="10" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="M17" s="10" t="s">
         <v>834</v>
@@ -11998,45 +11915,45 @@
         <v>554</v>
       </c>
       <c r="P17" s="10" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>876</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>701</v>
+        <v>875</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G18" s="15" t="n">
         <v>400</v>
       </c>
       <c r="H18" s="13" t="s">
+        <v>866</v>
+      </c>
+      <c r="I18" s="13" t="s">
         <v>867</v>
       </c>
-      <c r="I18" s="13" t="s">
-        <v>868</v>
-      </c>
       <c r="J18" s="13" t="s">
+        <v>873</v>
+      </c>
+      <c r="K18" s="13" t="s">
         <v>874</v>
       </c>
-      <c r="K18" s="13" t="s">
-        <v>875</v>
-      </c>
       <c r="L18" s="13" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>834</v>
@@ -12048,45 +11965,45 @@
         <v>554</v>
       </c>
       <c r="P18" s="13" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>701</v>
+        <v>112</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G19" s="12" t="n">
         <v>400</v>
       </c>
       <c r="H19" s="10" t="s">
+        <v>877</v>
+      </c>
+      <c r="I19" s="10" t="s">
         <v>878</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>879</v>
       </c>
       <c r="J19" s="17" t="n">
         <v>25</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="M19" s="10" t="s">
         <v>834</v>
@@ -12098,45 +12015,45 @@
         <v>554</v>
       </c>
       <c r="P19" s="10" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>880</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>701</v>
+        <v>879</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G20" s="15" t="n">
         <v>400</v>
       </c>
       <c r="H20" s="13" t="s">
+        <v>880</v>
+      </c>
+      <c r="I20" s="13" t="s">
         <v>881</v>
       </c>
-      <c r="I20" s="13" t="s">
+      <c r="J20" s="27" t="n">
+        <v>25</v>
+      </c>
+      <c r="K20" s="13" t="s">
         <v>882</v>
       </c>
-      <c r="J20" s="26" t="n">
-        <v>25</v>
-      </c>
-      <c r="K20" s="13" t="s">
-        <v>883</v>
-      </c>
       <c r="L20" s="13" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>834</v>
@@ -12148,45 +12065,45 @@
         <v>554</v>
       </c>
       <c r="P20" s="13" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>701</v>
+        <v>112</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G21" s="12" t="n">
         <v>400</v>
       </c>
       <c r="H21" s="10" t="s">
+        <v>884</v>
+      </c>
+      <c r="I21" s="10" t="s">
         <v>885</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>886</v>
       </c>
       <c r="J21" s="17" t="n">
         <v>25</v>
       </c>
       <c r="K21" s="10" t="s">
+        <v>886</v>
+      </c>
+      <c r="L21" s="10" t="s">
         <v>887</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>888</v>
       </c>
       <c r="M21" s="10" t="s">
         <v>834</v>
@@ -12198,38 +12115,38 @@
         <v>554</v>
       </c>
       <c r="P21" s="10" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>889</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>701</v>
+        <v>888</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G22" s="15" t="n">
         <v>400</v>
       </c>
       <c r="H22" s="13" t="s">
+        <v>889</v>
+      </c>
+      <c r="I22" s="13" t="s">
         <v>890</v>
       </c>
-      <c r="I22" s="13" t="s">
-        <v>891</v>
-      </c>
-      <c r="J22" s="26" t="n">
+      <c r="J22" s="27" t="n">
         <v>25</v>
       </c>
       <c r="K22" s="13" t="s">
@@ -12245,45 +12162,45 @@
         <v>512</v>
       </c>
       <c r="O22" s="13" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="P22" s="13" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>893</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>701</v>
+        <v>892</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G23" s="15" t="n">
         <v>400</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>894</v>
-      </c>
-      <c r="J23" s="26" t="n">
+        <v>893</v>
+      </c>
+      <c r="J23" s="27" t="n">
         <v>25</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="L23" s="13" t="s">
         <v>67</v>
@@ -12298,27 +12215,27 @@
         <v>554</v>
       </c>
       <c r="P23" s="13" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>895</v>
-      </c>
-      <c r="B24" s="13" t="s">
+        <v>894</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>645</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>646</v>
-      </c>
       <c r="D24" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G24" s="15" t="n">
         <v>400</v>
@@ -12329,14 +12246,14 @@
       <c r="I24" s="15" t="n">
         <v>75</v>
       </c>
-      <c r="J24" s="26" t="n">
+      <c r="J24" s="27" t="n">
         <v>17.5</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="L24" s="13" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>834</v>
@@ -12348,27 +12265,27 @@
         <v>444</v>
       </c>
       <c r="P24" s="13" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
+        <v>895</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>896</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="D25" s="10" t="s">
         <v>645</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>897</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>646</v>
-      </c>
       <c r="E25" s="10" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G25" s="12" t="n">
         <v>400</v>
@@ -12383,7 +12300,7 @@
         <v>17.5</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="L25" s="10" t="s">
         <v>67</v>
@@ -12398,21 +12315,21 @@
         <v>444</v>
       </c>
       <c r="P25" s="10" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>898</v>
-      </c>
-      <c r="B26" s="13" t="s">
+        <v>897</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>645</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>646</v>
-      </c>
       <c r="D26" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>618</v>
@@ -12424,14 +12341,14 @@
         <v>400</v>
       </c>
       <c r="H26" s="13" t="s">
+        <v>898</v>
+      </c>
+      <c r="I26" s="13" t="s">
         <v>899</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>900</v>
       </c>
       <c r="J26" s="13"/>
       <c r="K26" s="13" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="L26" s="13" t="s">
         <v>67</v>
@@ -12449,16 +12366,16 @@
     </row>
     <row r="27" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>645</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>646</v>
-      </c>
       <c r="D27" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>618</v>
@@ -12470,14 +12387,14 @@
         <v>400</v>
       </c>
       <c r="H27" s="10" t="s">
+        <v>898</v>
+      </c>
+      <c r="I27" s="10" t="s">
         <v>899</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>900</v>
       </c>
       <c r="J27" s="10"/>
       <c r="K27" s="10" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="L27" s="10" t="s">
         <v>67</v>
@@ -12492,27 +12409,27 @@
         <v>554</v>
       </c>
       <c r="P27" s="10" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>904</v>
-      </c>
-      <c r="B28" s="13" t="s">
+        <v>903</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>645</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>646</v>
-      </c>
       <c r="D28" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G28" s="15" t="n">
         <v>400</v>
@@ -12523,11 +12440,11 @@
       <c r="I28" s="15" t="n">
         <v>95</v>
       </c>
-      <c r="J28" s="26" t="n">
+      <c r="J28" s="27" t="n">
         <v>22.5</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="L28" s="13" t="s">
         <v>67</v>
@@ -12542,27 +12459,27 @@
         <v>444</v>
       </c>
       <c r="P28" s="13" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B29" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>645</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>646</v>
-      </c>
       <c r="D29" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G29" s="12" t="n">
         <v>400</v>
@@ -12577,10 +12494,10 @@
         <v>22.5</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="M29" s="10" t="s">
         <v>834</v>
@@ -12592,27 +12509,27 @@
         <v>444</v>
       </c>
       <c r="P29" s="10" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B30" s="13" t="s">
+        <v>858</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>859</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>860</v>
-      </c>
       <c r="D30" s="13" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G30" s="15" t="n">
         <v>400</v>
@@ -12623,11 +12540,11 @@
       <c r="I30" s="15" t="n">
         <v>95</v>
       </c>
-      <c r="J30" s="26" t="n">
+      <c r="J30" s="27" t="n">
         <v>22.5</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="L30" s="13" t="s">
         <v>67</v>
@@ -12642,27 +12559,27 @@
         <v>554</v>
       </c>
       <c r="P30" s="13" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>701</v>
+        <v>112</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G31" s="12" t="n">
         <v>400</v>
@@ -12677,7 +12594,7 @@
         <v>22.5</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="L31" s="10" t="s">
         <v>67</v>
@@ -12692,27 +12609,27 @@
         <v>554</v>
       </c>
       <c r="P31" s="10" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>914</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>701</v>
+        <v>913</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G32" s="15" t="n">
         <v>400</v>
@@ -12723,11 +12640,11 @@
       <c r="I32" s="15" t="n">
         <v>95</v>
       </c>
-      <c r="J32" s="26" t="n">
+      <c r="J32" s="27" t="n">
         <v>22.5</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="L32" s="13" t="s">
         <v>67</v>
@@ -12742,27 +12659,27 @@
         <v>554</v>
       </c>
       <c r="P32" s="13" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>841</v>
+        <v>712</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G33" s="12" t="n">
         <v>400</v>
@@ -12777,7 +12694,7 @@
         <v>22.5</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="L33" s="10" t="s">
         <v>67</v>
@@ -12789,30 +12706,30 @@
         <v>512</v>
       </c>
       <c r="O33" s="10" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="P33" s="10" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
-        <v>918</v>
-      </c>
-      <c r="B34" s="13" t="s">
+        <v>917</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>645</v>
       </c>
-      <c r="C34" s="13" t="s">
-        <v>646</v>
-      </c>
       <c r="D34" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G34" s="15" t="n">
         <v>400</v>
@@ -12821,16 +12738,16 @@
         <v>250</v>
       </c>
       <c r="I34" s="13" t="s">
+        <v>918</v>
+      </c>
+      <c r="J34" s="27" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K34" s="13" t="s">
+        <v>911</v>
+      </c>
+      <c r="L34" s="13" t="s">
         <v>919</v>
-      </c>
-      <c r="J34" s="26" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K34" s="13" t="s">
-        <v>912</v>
-      </c>
-      <c r="L34" s="13" t="s">
-        <v>920</v>
       </c>
       <c r="M34" s="13" t="s">
         <v>834</v>
@@ -12839,30 +12756,30 @@
         <v>512</v>
       </c>
       <c r="O34" s="13" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="P34" s="13" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B35" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>645</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>646</v>
-      </c>
       <c r="D35" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G35" s="12" t="n">
         <v>400</v>
@@ -12871,16 +12788,16 @@
         <v>250</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="J35" s="17" t="n">
         <v>22.5</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="M35" s="10" t="s">
         <v>834</v>
@@ -12892,42 +12809,42 @@
         <v>554</v>
       </c>
       <c r="P35" s="10" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
-        <v>924</v>
-      </c>
-      <c r="B36" s="13" t="s">
+        <v>923</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="13" t="s">
         <v>645</v>
       </c>
-      <c r="C36" s="13" t="s">
-        <v>646</v>
-      </c>
       <c r="D36" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G36" s="15" t="n">
         <v>400</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="I36" s="13" t="s">
         <v>542</v>
       </c>
-      <c r="J36" s="26" t="n">
+      <c r="J36" s="27" t="n">
         <v>22.5</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="L36" s="13" t="s">
         <v>445</v>
@@ -12942,42 +12859,42 @@
         <v>554</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B37" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>645</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>646</v>
-      </c>
       <c r="D37" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G37" s="12" t="n">
         <v>400</v>
       </c>
       <c r="H37" s="10" t="s">
+        <v>926</v>
+      </c>
+      <c r="I37" s="10" t="s">
         <v>927</v>
-      </c>
-      <c r="I37" s="10" t="s">
-        <v>928</v>
       </c>
       <c r="J37" s="17" t="n">
         <v>22.5</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="L37" s="10" t="s">
         <v>445</v>
@@ -12992,42 +12909,42 @@
         <v>554</v>
       </c>
       <c r="P37" s="10" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
-        <v>929</v>
-      </c>
-      <c r="B38" s="13" t="s">
+        <v>928</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>645</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>646</v>
-      </c>
       <c r="D38" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G38" s="15" t="n">
         <v>400</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>919</v>
-      </c>
-      <c r="J38" s="26" t="n">
+        <v>918</v>
+      </c>
+      <c r="J38" s="27" t="n">
         <v>22.5</v>
       </c>
       <c r="K38" s="13" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="L38" s="13" t="s">
         <v>445</v>
@@ -13042,42 +12959,42 @@
         <v>554</v>
       </c>
       <c r="P38" s="13" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B39" s="10" t="s">
+        <v>858</v>
+      </c>
+      <c r="C39" s="10" t="s">
         <v>859</v>
       </c>
-      <c r="C39" s="10" t="s">
-        <v>860</v>
-      </c>
       <c r="D39" s="10" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G39" s="12" t="n">
         <v>400</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="J39" s="17" t="n">
         <v>22.5</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="L39" s="10" t="s">
         <v>445</v>
@@ -13092,42 +13009,42 @@
         <v>554</v>
       </c>
       <c r="P39" s="10" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B40" s="13" t="s">
+        <v>858</v>
+      </c>
+      <c r="C40" s="13" t="s">
         <v>859</v>
       </c>
-      <c r="C40" s="13" t="s">
-        <v>860</v>
-      </c>
       <c r="D40" s="13" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G40" s="15" t="n">
         <v>400</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>935</v>
-      </c>
-      <c r="J40" s="26" t="n">
+        <v>934</v>
+      </c>
+      <c r="J40" s="27" t="n">
         <v>22.5</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="L40" s="13" t="s">
         <v>445</v>
@@ -13142,45 +13059,45 @@
         <v>554</v>
       </c>
       <c r="P40" s="13" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>701</v>
+        <v>112</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G41" s="12" t="n">
         <v>400</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="J41" s="17" t="n">
         <v>22.5</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="M41" s="10" t="s">
         <v>834</v>
@@ -13192,42 +13109,42 @@
         <v>554</v>
       </c>
       <c r="P41" s="10" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="s">
-        <v>938</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>701</v>
+        <v>937</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G42" s="15" t="n">
         <v>400</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="J42" s="13" t="s">
+        <v>938</v>
+      </c>
+      <c r="K42" s="13" t="s">
         <v>939</v>
-      </c>
-      <c r="K42" s="13" t="s">
-        <v>940</v>
       </c>
       <c r="L42" s="13" t="s">
         <v>67</v>
@@ -13242,42 +13159,42 @@
         <v>554</v>
       </c>
       <c r="P42" s="13" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>701</v>
+        <v>112</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G43" s="12" t="n">
         <v>400</v>
       </c>
       <c r="H43" s="10" t="s">
+        <v>941</v>
+      </c>
+      <c r="I43" s="10" t="s">
         <v>942</v>
-      </c>
-      <c r="I43" s="10" t="s">
-        <v>943</v>
       </c>
       <c r="J43" s="17" t="n">
         <v>25</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="L43" s="10" t="s">
         <v>67</v>
@@ -13292,42 +13209,42 @@
         <v>554</v>
       </c>
       <c r="P43" s="10" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
-        <v>945</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>701</v>
+        <v>944</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G44" s="15" t="n">
         <v>400</v>
       </c>
       <c r="H44" s="13" t="s">
+        <v>945</v>
+      </c>
+      <c r="I44" s="13" t="s">
         <v>946</v>
       </c>
-      <c r="I44" s="13" t="s">
-        <v>947</v>
-      </c>
       <c r="J44" s="13" t="s">
+        <v>938</v>
+      </c>
+      <c r="K44" s="13" t="s">
         <v>939</v>
-      </c>
-      <c r="K44" s="13" t="s">
-        <v>940</v>
       </c>
       <c r="L44" s="13" t="s">
         <v>67</v>
@@ -13342,27 +13259,27 @@
         <v>554</v>
       </c>
       <c r="P44" s="13" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>701</v>
+        <v>112</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D45" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G45" s="12" t="n">
         <v>400</v>
@@ -13377,7 +13294,7 @@
         <v>22.5</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="L45" s="10" t="s">
         <v>67</v>
@@ -13392,27 +13309,27 @@
         <v>554</v>
       </c>
       <c r="P45" s="10" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="8" t="s">
-        <v>950</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>701</v>
+        <v>949</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D46" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G46" s="15" t="n">
         <v>400</v>
@@ -13423,11 +13340,11 @@
       <c r="I46" s="15" t="n">
         <v>95</v>
       </c>
-      <c r="J46" s="26" t="n">
+      <c r="J46" s="27" t="n">
         <v>22.5</v>
       </c>
       <c r="K46" s="13" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="L46" s="13" t="s">
         <v>67</v>
@@ -13442,7 +13359,7 @@
         <v>554</v>
       </c>
       <c r="P46" s="13" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
   </sheetData>
@@ -13471,7 +13388,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomRight" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13508,10 +13425,10 @@
         <v>519</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>951</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>952</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>953</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>55</v>
@@ -13534,19 +13451,19 @@
     </row>
     <row r="2" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
+        <v>953</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>954</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>701</v>
-      </c>
       <c r="C2" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>955</v>
@@ -13558,7 +13475,7 @@
         <v>400</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>834</v>
@@ -13581,13 +13498,13 @@
         <v>958</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>955</v>
@@ -13599,7 +13516,7 @@
         <v>400</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J3" s="13" t="s">
         <v>834</v>
@@ -13619,16 +13536,16 @@
         <v>960</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>701</v>
+        <v>954</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>961</v>
@@ -13640,7 +13557,7 @@
         <v>400</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>834</v>
@@ -13663,13 +13580,13 @@
         <v>958</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>961</v>
@@ -13681,7 +13598,7 @@
         <v>400</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>834</v>
@@ -13701,28 +13618,28 @@
         <v>963</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>964</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>859</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>860</v>
-      </c>
       <c r="D6" s="10" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>961</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H6" s="12" t="n">
         <v>400</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>834</v>
@@ -13754,11 +13671,11 @@
   <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="X1" activeCellId="0" sqref="X1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N19" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomRight" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13805,46 +13722,46 @@
         <v>518</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>519</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>55</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="T1" s="8" t="s">
         <v>432</v>
@@ -13861,31 +13778,31 @@
     </row>
     <row r="2" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>896</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>645</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>897</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>646</v>
-      </c>
       <c r="E2" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="G2" s="11" t="n">
         <v>500</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>67</v>
@@ -13903,7 +13820,7 @@
         <v>17.5</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="P2" s="12" t="n">
         <v>250</v>
@@ -13915,7 +13832,7 @@
         <v>22.5</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="T2" s="10" t="s">
         <v>834</v>
@@ -13927,24 +13844,24 @@
         <v>444</v>
       </c>
       <c r="W2" s="10" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>980</v>
-      </c>
-      <c r="B3" s="13" t="s">
+        <v>981</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>645</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>646</v>
       </c>
       <c r="D3" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F3" s="14" t="n">
         <v>340</v>
@@ -13953,10 +13870,10 @@
         <v>840</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="J3" s="13" t="s">
         <v>67</v>
@@ -13970,11 +13887,11 @@
       <c r="M3" s="15" t="n">
         <v>75</v>
       </c>
-      <c r="N3" s="26" t="n">
+      <c r="N3" s="27" t="n">
         <v>17.5</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="P3" s="15" t="n">
         <v>250</v>
@@ -13982,11 +13899,11 @@
       <c r="Q3" s="15" t="n">
         <v>95</v>
       </c>
-      <c r="R3" s="26" t="n">
+      <c r="R3" s="27" t="n">
         <v>22.5</v>
       </c>
       <c r="S3" s="13" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="T3" s="13" t="s">
         <v>834</v>
@@ -13998,24 +13915,24 @@
         <v>444</v>
       </c>
       <c r="W3" s="13" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>645</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>646</v>
       </c>
       <c r="D4" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F4" s="11" t="n">
         <v>340</v>
@@ -14024,10 +13941,10 @@
         <v>840</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>67</v>
@@ -14045,7 +13962,7 @@
         <v>17.5</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="P4" s="12" t="n">
         <v>250</v>
@@ -14057,7 +13974,7 @@
         <v>22.5</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="T4" s="10" t="s">
         <v>834</v>
@@ -14066,39 +13983,39 @@
         <v>128</v>
       </c>
       <c r="V4" s="10" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="W4" s="10" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>985</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>958</v>
+        <v>986</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D5" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="G5" s="14" t="n">
         <v>840</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>959</v>
@@ -14116,7 +14033,7 @@
         <v>67</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="P5" s="13" t="s">
         <v>67</v>
@@ -14128,7 +14045,7 @@
         <v>67</v>
       </c>
       <c r="S5" s="13" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="T5" s="13" t="s">
         <v>834</v>
@@ -14143,31 +14060,31 @@
     </row>
     <row r="6" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D6" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>67</v>
@@ -14185,7 +14102,7 @@
         <v>17.5</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="P6" s="12" t="n">
         <v>250</v>
@@ -14197,7 +14114,7 @@
         <v>22.5</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="T6" s="10" t="s">
         <v>834</v>
@@ -14212,31 +14129,31 @@
     </row>
     <row r="7" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>993</v>
+        <v>712</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D7" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="G7" s="14" t="n">
         <v>920</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="J7" s="13" t="s">
         <v>67</v>
@@ -14250,11 +14167,11 @@
       <c r="M7" s="15" t="n">
         <v>75</v>
       </c>
-      <c r="N7" s="26" t="n">
+      <c r="N7" s="27" t="n">
         <v>17.5</v>
       </c>
       <c r="O7" s="13" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="P7" s="15" t="n">
         <v>250</v>
@@ -14262,11 +14179,11 @@
       <c r="Q7" s="15" t="n">
         <v>95</v>
       </c>
-      <c r="R7" s="26" t="n">
+      <c r="R7" s="27" t="n">
         <v>22.5</v>
       </c>
       <c r="S7" s="13" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="T7" s="13" t="s">
         <v>834</v>
@@ -14284,28 +14201,28 @@
         <v>994</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>993</v>
+        <v>712</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D8" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="G8" s="11" t="n">
         <v>920</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>67</v>
@@ -14323,7 +14240,7 @@
         <v>17.5</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="P8" s="12" t="n">
         <v>250</v>
@@ -14335,7 +14252,7 @@
         <v>22.5</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="T8" s="10" t="s">
         <v>834</v>
@@ -14344,7 +14261,7 @@
         <v>512</v>
       </c>
       <c r="V8" s="10" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="W8" s="11"/>
     </row>
@@ -14353,16 +14270,16 @@
         <v>995</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>701</v>
+        <v>112</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D9" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>996</v>
@@ -14371,10 +14288,10 @@
         <v>997</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="J9" s="13" t="s">
         <v>67</v>
@@ -14388,11 +14305,11 @@
       <c r="M9" s="15" t="n">
         <v>75</v>
       </c>
-      <c r="N9" s="26" t="n">
+      <c r="N9" s="27" t="n">
         <v>17.5</v>
       </c>
       <c r="O9" s="13" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="P9" s="13" t="s">
         <v>998</v>
@@ -14400,11 +14317,11 @@
       <c r="Q9" s="13" t="s">
         <v>999</v>
       </c>
-      <c r="R9" s="26" t="n">
+      <c r="R9" s="27" t="n">
         <v>25</v>
       </c>
       <c r="S9" s="13" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="T9" s="13" t="s">
         <v>834</v>
@@ -14422,16 +14339,16 @@
         <v>1000</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>701</v>
+        <v>112</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D10" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>1001</v>
@@ -14440,10 +14357,10 @@
         <v>900</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="J10" s="10" t="s">
         <v>67</v>
@@ -14473,7 +14390,7 @@
         <v>25</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="T10" s="10" t="s">
         <v>834</v>
@@ -14491,22 +14408,22 @@
         <v>1002</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D11" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>1003</v>
@@ -14515,7 +14432,7 @@
         <v>1004</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="K11" s="15" t="n">
         <v>400</v>
@@ -14526,11 +14443,11 @@
       <c r="M11" s="15" t="n">
         <v>75</v>
       </c>
-      <c r="N11" s="26" t="n">
+      <c r="N11" s="27" t="n">
         <v>17.5</v>
       </c>
       <c r="O11" s="13" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="P11" s="13" t="s">
         <v>67</v>
@@ -14542,7 +14459,7 @@
         <v>67</v>
       </c>
       <c r="S11" s="13" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="T11" s="13" t="s">
         <v>834</v>
@@ -14574,7 +14491,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AB1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14605,7 +14522,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15314,7 +15231,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomRight" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15389,7 +15306,7 @@
         <v>520</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>1007</v>
@@ -15401,13 +15318,13 @@
         <v>1009</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>177</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="P2" s="8" t="s">
         <v>61</v>
@@ -15427,7 +15344,7 @@
         <v>1012</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>1013</v>
@@ -15483,7 +15400,7 @@
         <v>1012</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>1013</v>
@@ -15537,7 +15454,7 @@
         <v>1012</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>1013</v>
@@ -15591,7 +15508,7 @@
         <v>1012</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>1013</v>
@@ -15600,7 +15517,7 @@
         <v>1013</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>701</v>
+        <v>954</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>1014</v>
@@ -15618,7 +15535,7 @@
         <v>1017</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="M6" s="13" t="s">
         <v>1024</v>
@@ -15632,7 +15549,7 @@
       <c r="P6" s="15" t="n">
         <v>20</v>
       </c>
-      <c r="Q6" s="26" t="n">
+      <c r="Q6" s="27" t="n">
         <v>105.3</v>
       </c>
       <c r="R6" s="14"/>
@@ -15645,7 +15562,7 @@
         <v>1012</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>1013</v>
@@ -15654,7 +15571,7 @@
         <v>1013</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>701</v>
+        <v>954</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>1014</v>
@@ -15672,7 +15589,7 @@
         <v>1017</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="M7" s="10" t="s">
         <v>1024</v>
@@ -15696,10 +15613,10 @@
         <v>1026</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>701</v>
+        <v>954</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>1013</v>
@@ -15748,10 +15665,10 @@
         <v>1027</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>701</v>
+        <v>954</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>1013</v>
@@ -15800,10 +15717,10 @@
         <v>1028</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>701</v>
+        <v>954</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>1013</v>
@@ -15812,7 +15729,7 @@
         <v>1013</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>701</v>
+        <v>954</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>1014</v>
@@ -15830,7 +15747,7 @@
         <v>1017</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="M10" s="13" t="s">
         <v>1024</v>
@@ -15844,7 +15761,7 @@
       <c r="P10" s="15" t="n">
         <v>20</v>
       </c>
-      <c r="Q10" s="26" t="n">
+      <c r="Q10" s="27" t="n">
         <v>104.6</v>
       </c>
       <c r="R10" s="14"/>
@@ -15854,10 +15771,10 @@
         <v>1029</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>701</v>
+        <v>954</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>1013</v>
@@ -15866,7 +15783,7 @@
         <v>1013</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>701</v>
+        <v>954</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>1014</v>
@@ -15884,7 +15801,7 @@
         <v>1017</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="M11" s="10" t="s">
         <v>1024</v>
@@ -15929,7 +15846,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomRight" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15974,7 +15891,7 @@
         <v>492</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>1031</v>
@@ -15989,16 +15906,16 @@
         <v>177</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>61</v>
       </c>
       <c r="O1" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="P1" s="8" t="s">
         <v>676</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>677</v>
       </c>
       <c r="Q1" s="8" t="s">
         <v>62</v>
@@ -16034,7 +15951,7 @@
         <v>1040</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>1041</v>
@@ -16048,7 +15965,7 @@
       <c r="O2" s="12"/>
       <c r="P2" s="17"/>
       <c r="Q2" s="10" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16059,7 +15976,7 @@
         <v>1043</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>1044</v>
@@ -16097,7 +16014,7 @@
       <c r="O3" s="15" t="n">
         <v>149</v>
       </c>
-      <c r="P3" s="26" t="n">
+      <c r="P3" s="27" t="n">
         <v>37.1</v>
       </c>
       <c r="Q3" s="13" t="s">
@@ -16185,7 +16102,7 @@
         <v>67</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="L5" s="13" t="s">
         <v>1057</v>
@@ -16199,7 +16116,7 @@
       <c r="O5" s="15" t="n">
         <v>149</v>
       </c>
-      <c r="P5" s="26"/>
+      <c r="P5" s="27"/>
       <c r="Q5" s="13" t="s">
         <v>1058</v>
       </c>
@@ -16299,7 +16216,7 @@
       <c r="O7" s="15" t="n">
         <v>149</v>
       </c>
-      <c r="P7" s="26"/>
+      <c r="P7" s="27"/>
       <c r="Q7" s="14"/>
     </row>
     <row r="8" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16334,7 +16251,7 @@
         <v>1040</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="L8" s="10" t="s">
         <v>1041</v>
@@ -16348,7 +16265,7 @@
       <c r="O8" s="12"/>
       <c r="P8" s="17"/>
       <c r="Q8" s="10" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16395,7 +16312,7 @@
         <v>17</v>
       </c>
       <c r="O9" s="15"/>
-      <c r="P9" s="26"/>
+      <c r="P9" s="27"/>
       <c r="Q9" s="14"/>
     </row>
     <row r="10" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16406,7 +16323,7 @@
         <v>1034</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>1044</v>
@@ -16489,7 +16406,7 @@
         <v>11</v>
       </c>
       <c r="O11" s="15"/>
-      <c r="P11" s="26"/>
+      <c r="P11" s="27"/>
       <c r="Q11" s="14"/>
     </row>
     <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16558,11 +16475,11 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F13" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomRight" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16581,21 +16498,21 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
     </row>
     <row r="2" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
@@ -16643,13 +16560,13 @@
         <v>1078</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>701</v>
+        <v>112</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>1045</v>
@@ -16687,10 +16604,10 @@
         <v>1085</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>1045</v>
@@ -16725,7 +16642,7 @@
         <v>1088</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>701</v>
+        <v>112</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>1089</v>
@@ -16749,7 +16666,7 @@
         <v>1092</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="K5" s="12" t="n">
         <v>128</v>
@@ -16765,8 +16682,8 @@
       <c r="A6" s="8" t="s">
         <v>1094</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>701</v>
+      <c r="B6" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>1089</v>
@@ -16790,7 +16707,7 @@
         <v>1092</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="K6" s="15" t="n">
         <v>128</v>
@@ -16828,7 +16745,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16869,7 +16786,7 @@
         <v>518</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>519</v>
@@ -16887,7 +16804,7 @@
         <v>493</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>107</v>
@@ -16946,10 +16863,10 @@
         <v>70</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="P2" s="11" t="n">
         <v>64</v>
@@ -17002,10 +16919,10 @@
         <v>70</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="P3" s="14" t="n">
         <v>64</v>
@@ -17056,10 +16973,10 @@
         <v>70</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="P4" s="11" t="n">
         <v>64</v>
@@ -17113,7 +17030,7 @@
         <v>1111</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="P5" s="14" t="n">
         <v>64</v>
@@ -17167,7 +17084,7 @@
         <v>1114</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="P6" s="11" t="n">
         <v>64</v>
@@ -17221,7 +17138,7 @@
         <v>1114</v>
       </c>
       <c r="O7" s="13" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="P7" s="14" t="n">
         <v>64</v>
@@ -17254,7 +17171,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18527,11 +18444,11 @@
   <dimension ref="B1:M65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
+      <selection pane="bottomRight" activeCell="C52" activeCellId="0" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20864,7 +20781,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21590,7 +21507,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21876,7 +21793,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="R1" activeCellId="0" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I2" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomRight" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22611,7 +22528,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22892,7 +22809,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
